--- a/ATL-Food-and-Drink-Review-List.xlsx
+++ b/ATL-Food-and-Drink-Review-List.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="372">
   <si>
     <t>The designations of "Vegan" are used to roughly quantify the percentage of the menu items that are vegan:</t>
   </si>
@@ -110,145 +110,154 @@
     <t>Chai Pani</t>
   </si>
   <si>
-    <t>Metrpolis Cafe(?)</t>
+    <t>Metrpolis Cafe</t>
   </si>
   <si>
     <t>Ruby Chows</t>
   </si>
   <si>
+    <t>Masterpiece</t>
+  </si>
+  <si>
+    <t>Whoopsies (can be vegan)</t>
+  </si>
+  <si>
+    <t>Estrellita Filipino (cant be vegan)</t>
+  </si>
+  <si>
+    <t>Bacelona Tapas</t>
+  </si>
+  <si>
+    <t>Pho Bac</t>
+  </si>
+  <si>
+    <t>Kamayan</t>
+  </si>
+  <si>
+    <t>Vegreen</t>
+  </si>
+  <si>
+    <t>Lees Bakery</t>
+  </si>
+  <si>
+    <t>Chat Patti</t>
+  </si>
+  <si>
+    <t>Desi Spice</t>
+  </si>
+  <si>
+    <t>Bakaris Pizza</t>
+  </si>
+  <si>
+    <t>Shoya Izakaya</t>
+  </si>
+  <si>
+    <t>My Parents Basement</t>
+  </si>
+  <si>
+    <t>Moonlight</t>
+  </si>
+  <si>
+    <t>Stereo ATL</t>
+  </si>
+  <si>
+    <t>Jikssa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Restaurant </t>
+  </si>
+  <si>
+    <t>Dekalb Famers Market</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grocery store </t>
+  </si>
+  <si>
+    <t>TESO Life</t>
+  </si>
+  <si>
+    <t>Grocery store</t>
+  </si>
+  <si>
+    <t>Lov'n it live</t>
+  </si>
+  <si>
+    <t>Planted soul</t>
+  </si>
+  <si>
+    <t>Yalda</t>
+  </si>
+  <si>
+    <t>Cuisine</t>
+  </si>
+  <si>
+    <t>Vegan</t>
+  </si>
+  <si>
+    <t>Stars (of 5)</t>
+  </si>
+  <si>
+    <t>Stars (of 10)</t>
+  </si>
+  <si>
+    <t>Additional Notes</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Delbar (Inman Park)</t>
+  </si>
+  <si>
+    <t>Persian</t>
+  </si>
+  <si>
+    <t>Partially</t>
+  </si>
+  <si>
+    <t>870 Inman Vlg Pkwy NE Suite 1, Atlanta, GA 30307</t>
+  </si>
+  <si>
+    <t>Little Bear</t>
+  </si>
+  <si>
+    <t>Rotating</t>
+  </si>
+  <si>
+    <t>creative and inventive food</t>
+  </si>
+  <si>
+    <t>71 Georgia Ave SE Unit A, Atlanta, GA 30312</t>
+  </si>
+  <si>
+    <t>Talat Market</t>
+  </si>
+  <si>
+    <t>Thai</t>
+  </si>
+  <si>
+    <t>Partially/Minimally</t>
+  </si>
+  <si>
+    <t>flavorful fancy Thai, vegan accomidating</t>
+  </si>
+  <si>
+    <t>112 Ormond St SE, Atlanta, GA 30315</t>
+  </si>
+  <si>
     <t>Banshee</t>
   </si>
   <si>
-    <t>Masterpiece</t>
-  </si>
-  <si>
-    <t>Whoopsies</t>
-  </si>
-  <si>
-    <t>Estrellita Filipino</t>
-  </si>
-  <si>
-    <t>Bacelona Tapas</t>
-  </si>
-  <si>
-    <t>Pho Bac</t>
-  </si>
-  <si>
-    <t>Kamayan</t>
-  </si>
-  <si>
-    <t>Ok Yaki</t>
-  </si>
-  <si>
-    <t>Vegreen</t>
-  </si>
-  <si>
-    <t>Lees Bakery</t>
-  </si>
-  <si>
-    <t>Chat Patti</t>
-  </si>
-  <si>
-    <t>Desi Spice</t>
-  </si>
-  <si>
-    <t>Bakaris Pizza</t>
-  </si>
-  <si>
-    <t>Shoya Izakaya</t>
-  </si>
-  <si>
-    <t>My Parents Basement</t>
-  </si>
-  <si>
-    <t>Moonlight</t>
-  </si>
-  <si>
-    <t>Stereo ATL</t>
-  </si>
-  <si>
-    <t>Jikssa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Restaurant </t>
-  </si>
-  <si>
-    <t>Dekalb Famers Market</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grocery store </t>
-  </si>
-  <si>
-    <t>TESO Life</t>
-  </si>
-  <si>
-    <t>Grocery store</t>
-  </si>
-  <si>
-    <t>Lov'n it live</t>
-  </si>
-  <si>
-    <t>Planted soul</t>
-  </si>
-  <si>
-    <t>Yalda</t>
-  </si>
-  <si>
-    <t>Cuisine</t>
-  </si>
-  <si>
-    <t>Vegan</t>
-  </si>
-  <si>
-    <t>Stars (of 5)</t>
-  </si>
-  <si>
-    <t>Stars (of 10)</t>
-  </si>
-  <si>
-    <t>Additional Notes</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Delbar (Inman Park)</t>
-  </si>
-  <si>
-    <t>Persian</t>
-  </si>
-  <si>
-    <t>Partially</t>
-  </si>
-  <si>
-    <t>870 Inman Vlg Pkwy NE Suite 1, Atlanta, GA 30307</t>
-  </si>
-  <si>
-    <t>Little Bear</t>
-  </si>
-  <si>
-    <t>Rotating</t>
-  </si>
-  <si>
-    <t>creative and inventive food</t>
-  </si>
-  <si>
-    <t>71 Georgia Ave SE Unit A, Atlanta, GA 30312</t>
-  </si>
-  <si>
-    <t>Talat Market</t>
-  </si>
-  <si>
-    <t>Thai</t>
-  </si>
-  <si>
-    <t>Partially/Minimally</t>
-  </si>
-  <si>
-    <t>flavorful fancy Thai, vegan accomidating</t>
-  </si>
-  <si>
-    <t>112 Ormond St SE, Atlanta, GA 30315</t>
+    <t>New American</t>
+  </si>
+  <si>
+    <t>Minimally</t>
+  </si>
+  <si>
+    <t>drinks, atmosphere, and food were all really good. Service was surprisingly fantastic. Had for food Beet-pistachio terrine (V) was rally good, yellowedge grouper. Stately Hag drink was a riff on a marg</t>
+  </si>
+  <si>
+    <t>1271 Glenwood Ave SE, Atlanta, GA 30316</t>
   </si>
   <si>
     <t>Herban Fix</t>
@@ -263,7 +272,7 @@
     <t>565 Peachtree St NE, Atlanta, GA 30308</t>
   </si>
   <si>
-    <t>Botiwala (By Chai Pani)</t>
+    <t>Botiwalla (By Chai Pani)</t>
   </si>
   <si>
     <t>Indian</t>
@@ -272,7 +281,7 @@
     <t>haven't had a bad item yet!</t>
   </si>
   <si>
-    <t>Ponce City Market, 675 Ponce De Leon Ave NE n134, Atlanta, GA 30308</t>
+    <t>Ponce City Market, 675 Ponce De Leon Ave NE, Atlanta, GA 30308</t>
   </si>
   <si>
     <t>bomb biscuits</t>
@@ -293,9 +302,6 @@
     <t>Vietnamese</t>
   </si>
   <si>
-    <t>Minimally</t>
-  </si>
-  <si>
     <t>$4-5 for a Bahn Mi. Super cheap. Best Bahn Mi i've had (Joe) in a long time.</t>
   </si>
   <si>
@@ -392,405 +398,399 @@
     <t>loaded sandwiches/cubanos. Less traditonal but good</t>
   </si>
   <si>
+    <t>Elektra</t>
+  </si>
+  <si>
+    <t>Mediterranean</t>
+  </si>
+  <si>
+    <t>vibes were high, French fries and mussels were a good value</t>
+  </si>
+  <si>
+    <t>800 Rankin St NE, Atlanta, GA 30308</t>
+  </si>
+  <si>
+    <t>Argosy</t>
+  </si>
+  <si>
+    <t>American</t>
+  </si>
+  <si>
+    <t>bar was cool, food not bad</t>
+  </si>
+  <si>
+    <t>470 Flat Shoals Ave SE, Atlanta, GA 30316</t>
+  </si>
+  <si>
+    <t>Papi's Cuban Cuisine</t>
+  </si>
+  <si>
+    <t>Cuban</t>
+  </si>
+  <si>
+    <t>Minimally/None</t>
+  </si>
+  <si>
+    <t>solid traditional cubano and tres leches</t>
+  </si>
+  <si>
+    <t>99 Krog St NE, Atlanta, GA 30307</t>
+  </si>
+  <si>
+    <t>Ela</t>
+  </si>
+  <si>
+    <t>pita not vegan and no alternative</t>
+  </si>
+  <si>
+    <t>1186 North Highland Avenue Northeast, Atlanta, GA 30306</t>
+  </si>
+  <si>
+    <t>Mushi Ni</t>
+  </si>
+  <si>
+    <t>Bao</t>
+  </si>
+  <si>
+    <t>1235 Chattahoochee Ave, Suite 130 Atlanta, GA 30318</t>
+  </si>
+  <si>
+    <t>Calaveritas Taqueria Vegana</t>
+  </si>
+  <si>
+    <t>solid vegan street tacos</t>
+  </si>
+  <si>
+    <t>3795 Presidential Pkwy Suite FP-10, Atlanta, GA 30340</t>
+  </si>
+  <si>
+    <t>El Tesoro</t>
+  </si>
+  <si>
+    <t>pretty good soy chorizo and quesadillas</t>
+  </si>
+  <si>
+    <t>1010 White St SW, Atlanta, GA 30310</t>
+  </si>
+  <si>
+    <t>Ton Ton Ramen</t>
+  </si>
+  <si>
+    <t>Ramen</t>
+  </si>
+  <si>
+    <t>tasty ramen, nothing spectacular but solid</t>
+  </si>
+  <si>
+    <t>675 Ponce De Leon Ave NE, Atlanta, GA 30308</t>
+  </si>
+  <si>
+    <t>Food Terminal</t>
+  </si>
+  <si>
+    <t>Malaysian</t>
+  </si>
+  <si>
+    <t>massive menu of eats, curry laksa is the move</t>
+  </si>
+  <si>
+    <t>5000 Buford Hwy NE, Chamblee, GA 30341</t>
+  </si>
+  <si>
+    <t>Kitty Dare</t>
+  </si>
+  <si>
+    <t>Mediterranean Fusion</t>
+  </si>
+  <si>
+    <t>eggplant was tasty but mains were lackluster</t>
+  </si>
+  <si>
+    <t>1029 Edgewood Ave NE, Atlanta, GA 30307</t>
+  </si>
+  <si>
+    <t>Pizza Verdura Sincera</t>
+  </si>
+  <si>
+    <t>Pizza</t>
+  </si>
+  <si>
+    <t>solid vegan pizza, desserts are a scam</t>
+  </si>
+  <si>
+    <t>377 Moreland Ave NE, Atlanta, GA 30307</t>
+  </si>
+  <si>
+    <t>JenChan's</t>
+  </si>
+  <si>
+    <t>Chinese/Pizza</t>
+  </si>
+  <si>
+    <t>pretty good Chinese nearby</t>
+  </si>
+  <si>
+    <t>186 Carroll St SE, Atlanta, GA 30312</t>
+  </si>
+  <si>
+    <t>Nam Phuong</t>
+  </si>
+  <si>
+    <t>tasty Vietnamese but tofu dish barely had any tofu, Pho is supposed to be the best in ATL but didn't have</t>
+  </si>
+  <si>
+    <t>4051 Buford Hwy NE, Atlanta, GA 30345</t>
+  </si>
+  <si>
+    <t>Harmony Vegetarian</t>
+  </si>
+  <si>
+    <t>good Chinese vegetarian spot with more vegan options and better prices than other options on the list (e.g. Northern China eatery)</t>
+  </si>
+  <si>
+    <t>Orient Center Shopping Plaza, 4897 Buford Hwy NE #109, Chamblee, GA 30341</t>
+  </si>
+  <si>
+    <t>Woody’s Cheesesteaks</t>
+  </si>
+  <si>
+    <t>Go Birds</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>good philly replica, good price per size</t>
+  </si>
+  <si>
+    <t>981 Monroe Dr NE, Atlanta, GA 30308</t>
+  </si>
+  <si>
+    <t>Tasili's Raw Vegan</t>
+  </si>
+  <si>
+    <t>Wraps</t>
+  </si>
+  <si>
+    <t>very good wrap full of spicy kale, we got the wrap at sevananda</t>
+  </si>
+  <si>
+    <t>1059 Ralph David Abernathy Blvd, Atlanta, GA 30310</t>
+  </si>
+  <si>
+    <t>Rina</t>
+  </si>
+  <si>
+    <t>good falafel, fries, and hummus. A bit too pricy though</t>
+  </si>
+  <si>
+    <t>699 Ponce De Leon Ave NE suite 9, Atlanta, GA 30308</t>
+  </si>
+  <si>
+    <t>Victory Sandwich Bar (Inman Park)</t>
+  </si>
+  <si>
+    <t>good all around vibes, drinks, food</t>
+  </si>
+  <si>
+    <t>913 Bernina Ave NE, Atlanta, GA 30307</t>
+  </si>
+  <si>
+    <t>Mediterranea Restaurant &amp; Bakery</t>
+  </si>
+  <si>
+    <t>good drink menu with lots of NA options, pizza was good</t>
+  </si>
+  <si>
+    <t>332 Ormond St SE ste 101, Atlanta, GA 30315</t>
+  </si>
+  <si>
+    <t>Surina Thai</t>
+  </si>
+  <si>
+    <t>garlic brocc with tofu solid, house special Kao Cook Kapi tasted authentic and flavorful</t>
+  </si>
+  <si>
+    <t>2390 Chamblee Tucker Rd, Chamblee, GA 30341</t>
+  </si>
+  <si>
+    <t>Muchacho</t>
+  </si>
+  <si>
+    <t>Mexican/Brunch</t>
+  </si>
+  <si>
+    <t>cute atmosphere, nice patio, food was just average</t>
+  </si>
+  <si>
+    <t>904 Memorial Dr SE, Atlanta, GA 30316</t>
+  </si>
+  <si>
+    <t>Antiguo Lobo</t>
+  </si>
+  <si>
+    <t>guac was fresco (i.e. avocado chunks), had hibuscus taco (vegan) which was different, food was solid</t>
+  </si>
+  <si>
+    <t>5370 Peachtree Rd Suite A, Chamblee, GA 30341</t>
+  </si>
+  <si>
+    <t>Barbacoa</t>
+  </si>
+  <si>
+    <t>Tapas</t>
+  </si>
+  <si>
+    <t>Minmally</t>
+  </si>
+  <si>
+    <t>OK tacos in VaHi</t>
+  </si>
+  <si>
+    <t>1000 Virginia Ave NE, Atlanta, GA 30306</t>
+  </si>
+  <si>
+    <t>Superica (Krog St Market)</t>
+  </si>
+  <si>
+    <t>Tex-Mex</t>
+  </si>
+  <si>
+    <t>Mininmally</t>
+  </si>
+  <si>
+    <t>really slow service, food was fine</t>
+  </si>
+  <si>
+    <t>Soul Vegetarian No. 2</t>
+  </si>
+  <si>
+    <t>Corn bread avoid at all costs, bit pricey, rest was good</t>
+  </si>
+  <si>
+    <t>652 North Highland Avenue Northeast, Atlanta, GA 30306</t>
+  </si>
+  <si>
+    <t>Vice Taco Truck</t>
+  </si>
+  <si>
+    <t>(Tuesday Popup at 97 Estoria) solid street tacos</t>
+  </si>
+  <si>
+    <t>727 Wylie St SE, Atlanta, GA 30316</t>
+  </si>
+  <si>
+    <t>Freds Meat &amp; Bread</t>
+  </si>
+  <si>
+    <t>Sandwich Shop</t>
+  </si>
+  <si>
+    <t>bread on cheesesteak was stale</t>
+  </si>
+  <si>
+    <t>Krog Street Market, 99 Krog St NE, Atlanta, GA 30307</t>
+  </si>
+  <si>
+    <t>Bird &amp; Brew</t>
+  </si>
+  <si>
+    <t>Massive wings, tasty</t>
+  </si>
+  <si>
+    <t>1355 Clairmont Rd, Decatur, GA 30033</t>
+  </si>
+  <si>
+    <t>Vietvana</t>
+  </si>
+  <si>
+    <t>only had bahn mi, which was okay</t>
+  </si>
+  <si>
+    <t>Planta</t>
+  </si>
+  <si>
+    <t>Asian/Pizza</t>
+  </si>
+  <si>
+    <t>vibes high, good location, food mediocre, happy hour looks cool</t>
+  </si>
+  <si>
+    <t>99 Krog St NE, Suite Y, Atlanta, GA 30307</t>
+  </si>
+  <si>
+    <t>Hippie Hibachi</t>
+  </si>
+  <si>
+    <t>Hibachi</t>
+  </si>
+  <si>
+    <t>1235 Chattahoochee Ave NW Suite 130, Atlanta, GA 30318</t>
+  </si>
+  <si>
+    <t>Plant Based Pizzeria</t>
+  </si>
+  <si>
+    <t>pizza was fine, appreciate that they are fully vegan and have loads of cookies (from Jaime's Cookies)</t>
+  </si>
+  <si>
+    <t>730 Barnett St NE, Atlanta, GA 30306</t>
+  </si>
+  <si>
+    <t>Chicheria Mexican Kitchen</t>
+  </si>
+  <si>
+    <t>tacos were OK, margs were pretty good</t>
+  </si>
+  <si>
+    <t>202 Chattahoochee Row NW suite c, Atlanta, GA 30318</t>
+  </si>
+  <si>
+    <t>Mamak Vegan Kitchen</t>
+  </si>
+  <si>
+    <t>2390 Chamblee Tucker Rd Ste 101, Chamblee, GA 30341</t>
+  </si>
+  <si>
+    <t>just okay</t>
+  </si>
+  <si>
+    <t>Indaco</t>
+  </si>
+  <si>
+    <t>Italian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine, overpriced </t>
+  </si>
+  <si>
+    <t>725 Ponce De Leon Ave NE Suite 250, Atlanta, GA 30306</t>
+  </si>
+  <si>
+    <t>Waffl Taco</t>
+  </si>
+  <si>
+    <t>filling was really good, waffle was just fine. Expensive. (located within Union Fitness Hub)</t>
+  </si>
+  <si>
+    <t>828 Ralph McGill Blvd NE, Atlanta, GA 30306</t>
+  </si>
+  <si>
+    <t>Rreal Tacos (Buckhead)</t>
+  </si>
+  <si>
+    <t>lots of options but too chainy</t>
+  </si>
+  <si>
     <t>3365 Piedmont Rd NE Suite 1120, Atlanta, GA 30305</t>
   </si>
   <si>
-    <t>Elektra</t>
-  </si>
-  <si>
-    <t>Mediterranean</t>
-  </si>
-  <si>
-    <t>vibes were high, French fries and mussels were a good value</t>
-  </si>
-  <si>
-    <t>800 Rankin St NE, Atlanta, GA 30308</t>
-  </si>
-  <si>
-    <t>Argosy</t>
-  </si>
-  <si>
-    <t>American</t>
-  </si>
-  <si>
-    <t>bar was cool, food not bad</t>
-  </si>
-  <si>
-    <t>470 Flat Shoals Ave SE, Atlanta, GA 30316</t>
-  </si>
-  <si>
-    <t>Papi's Cuban Cuisine</t>
-  </si>
-  <si>
-    <t>Cuban</t>
-  </si>
-  <si>
-    <t>Minimally/None</t>
-  </si>
-  <si>
-    <t>solid traditional cubano and tres leches</t>
-  </si>
-  <si>
-    <t>99 Krog St NE, Atlanta, GA 30307</t>
-  </si>
-  <si>
-    <t>Ela</t>
-  </si>
-  <si>
-    <t>pita not vegan and no alternative</t>
-  </si>
-  <si>
-    <t>1186 North Highland Avenue Northeast, Atlanta, GA 30306</t>
-  </si>
-  <si>
-    <t>Mushi Ni</t>
-  </si>
-  <si>
-    <t>Bao</t>
-  </si>
-  <si>
-    <t>1235 Chattahoochee Ave, Suite 130 Atlanta, GA 30318</t>
-  </si>
-  <si>
-    <t>Calaveritas Taqueria Vegana</t>
-  </si>
-  <si>
-    <t>solid vegan street tacos</t>
-  </si>
-  <si>
-    <t>3795 Presidential Pkwy Suite FP-10, Atlanta, GA 30340</t>
-  </si>
-  <si>
-    <t>El Tesoro</t>
-  </si>
-  <si>
-    <t>pretty good soy chorizo and quesadillas</t>
-  </si>
-  <si>
-    <t>1010 White St SW, Atlanta, GA 30310</t>
-  </si>
-  <si>
-    <t>Ton Ton Ramen</t>
-  </si>
-  <si>
-    <t>Ramen</t>
-  </si>
-  <si>
-    <t>tasty ramen, nothing spectacular but solid</t>
-  </si>
-  <si>
-    <t>675 Ponce De Leon Ave NE, Atlanta, GA 30308</t>
-  </si>
-  <si>
-    <t>Food Terminal</t>
-  </si>
-  <si>
-    <t>Malaysian</t>
-  </si>
-  <si>
-    <t>massive menu of eats, curry laksa is the move</t>
-  </si>
-  <si>
-    <t>5000 Buford Hwy NE, Chamblee, GA 30341</t>
-  </si>
-  <si>
-    <t>Kitty Dare</t>
-  </si>
-  <si>
-    <t>Mediterranean Fusion</t>
-  </si>
-  <si>
-    <t>eggplant was tasty but mains were lackluster</t>
-  </si>
-  <si>
-    <t>1029 Edgewood Ave NE, Atlanta, GA 30307</t>
-  </si>
-  <si>
-    <t>Pizza Verdura Sincera</t>
-  </si>
-  <si>
-    <t>Pizza</t>
-  </si>
-  <si>
-    <t>solid vegan pizza, desserts are a scam</t>
-  </si>
-  <si>
-    <t>377 Moreland Ave NE, Atlanta, GA 30307</t>
-  </si>
-  <si>
-    <t>JenChan's</t>
-  </si>
-  <si>
-    <t>Chinese/Pizza</t>
-  </si>
-  <si>
-    <t>pretty good Chinese nearby</t>
-  </si>
-  <si>
-    <t>186 Carroll St SE, Atlanta, GA 30312</t>
-  </si>
-  <si>
-    <t>Nam Phuong</t>
-  </si>
-  <si>
-    <t>tasty Vietnamese but tofu dish barely had any tofu, Pho is supposed to be the best in ATL but didn't have</t>
-  </si>
-  <si>
-    <t>4051 Buford Hwy NE, Atlanta, GA 30345</t>
-  </si>
-  <si>
-    <t>Harmony Vegetarian</t>
-  </si>
-  <si>
-    <t>good Chinese vegetarian spot with more vegan options and better prices than other options on the list (e.g. Northern China eatery)</t>
-  </si>
-  <si>
-    <t>Orient Center Shopping Plaza, 4897 Buford Hwy NE #109, Chamblee, GA 30341</t>
-  </si>
-  <si>
-    <t>Woody’s Cheesesteaks</t>
-  </si>
-  <si>
-    <t>Go Birds</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>good philly replica, good price per size</t>
-  </si>
-  <si>
-    <t>981 Monroe Dr NE, Atlanta, GA 30308</t>
-  </si>
-  <si>
-    <t>Tasili's Raw Vegan</t>
-  </si>
-  <si>
-    <t>Wraps</t>
-  </si>
-  <si>
-    <t>very good wrap full of spicy kale, we got the wrap at sevananda</t>
-  </si>
-  <si>
-    <t>Rina</t>
-  </si>
-  <si>
-    <t>good falafel, fries, and hummus. A bit too pricy though</t>
-  </si>
-  <si>
-    <t>699 Ponce De Leon Ave NE suite 9, Atlanta, GA 30308</t>
-  </si>
-  <si>
-    <t>Victory Sandwich Bar (Inman Park)</t>
-  </si>
-  <si>
-    <t>good all around vibes, drinks, food</t>
-  </si>
-  <si>
-    <t>913 Bernina Ave NE, Atlanta, GA 30307</t>
-  </si>
-  <si>
-    <t>Mediterranea Restaurant &amp; Bakery</t>
-  </si>
-  <si>
-    <t>good drink menu with lots of NA options, pizza was good</t>
-  </si>
-  <si>
-    <t>332 Ormond St SE ste 101, Atlanta, GA 30315</t>
-  </si>
-  <si>
-    <t>Surina Thai</t>
-  </si>
-  <si>
-    <t>garlic brocc with tofu solid, house special Kao Cook Kapi tasted authentic and flavorful</t>
-  </si>
-  <si>
-    <t>2390 Chamblee Tucker Rd, Chamblee, GA 30341</t>
-  </si>
-  <si>
-    <t>Muchacho</t>
-  </si>
-  <si>
-    <t>Mexican/Brunch</t>
-  </si>
-  <si>
-    <t>cute atmosphere, nice patio, food was just average</t>
-  </si>
-  <si>
-    <t>904 Memorial Dr SE, Atlanta, GA 30316</t>
-  </si>
-  <si>
-    <t>Antiguo Lobo</t>
-  </si>
-  <si>
-    <t>guac was fresco (i.e. avocado chunks), had hibuscus taco (vegan) which was different, food was solid</t>
-  </si>
-  <si>
-    <t>5370 Peachtree Rd Suite A, Chamblee, GA 30341</t>
-  </si>
-  <si>
-    <t>Barbacoa</t>
-  </si>
-  <si>
-    <t>Tapas</t>
-  </si>
-  <si>
-    <t>Minmally</t>
-  </si>
-  <si>
-    <t>OK tacos in VaHi</t>
-  </si>
-  <si>
-    <t>1000 Virginia Ave NE, Atlanta, GA 30306</t>
-  </si>
-  <si>
-    <t>Superica (Krog St Market)</t>
-  </si>
-  <si>
-    <t>Tex-Mex</t>
-  </si>
-  <si>
-    <t>Mininmally</t>
-  </si>
-  <si>
-    <t>really slow service, food was fine</t>
-  </si>
-  <si>
-    <t>Soul Vegetarian No. 2</t>
-  </si>
-  <si>
-    <t>Corn bread avoid at all costs, bit pricey, rest was good</t>
-  </si>
-  <si>
-    <t>652 North Highland Avenue Northeast, Atlanta, GA 30306</t>
-  </si>
-  <si>
-    <t>Vice Taco Truck</t>
-  </si>
-  <si>
-    <t>solid street tacos</t>
-  </si>
-  <si>
-    <t>Tuesday Popup at 97 Estoria (727 Wylie St SE, Atlanta, GA 30316)</t>
-  </si>
-  <si>
-    <t>Freds Meat &amp; Bread</t>
-  </si>
-  <si>
-    <t>Sandwich Shop</t>
-  </si>
-  <si>
-    <t>bread on cheesesteak was stale</t>
-  </si>
-  <si>
-    <t>Krog Street Market, 99 Krog St NE, Atlanta, GA 30307</t>
-  </si>
-  <si>
-    <t>Bird &amp; Brew</t>
-  </si>
-  <si>
-    <t>Massive wings, tasty</t>
-  </si>
-  <si>
-    <t>1355 Clairmont Rd, Decatur, GA 30033</t>
-  </si>
-  <si>
-    <t>Vietvana</t>
-  </si>
-  <si>
-    <t>only had bahn mi, which was okay</t>
-  </si>
-  <si>
-    <t>Ponce City Market, 675 Ponce De Leon Ave NE, Atlanta, GA 30308</t>
-  </si>
-  <si>
-    <t>Planta</t>
-  </si>
-  <si>
-    <t>Asian/Pizza</t>
-  </si>
-  <si>
-    <t>vibes high, good location, food mediocre, happy hour looks cool</t>
-  </si>
-  <si>
-    <t>99 Krog St NE, Suite Y, Atlanta, GA 30307</t>
-  </si>
-  <si>
-    <t>Hippie Hibachi</t>
-  </si>
-  <si>
-    <t>Hibachi</t>
-  </si>
-  <si>
-    <t>1235 Chattahoochee Ave NW Suite 130, Atlanta, GA 30318</t>
-  </si>
-  <si>
-    <t>Plant Based Pizzeria</t>
-  </si>
-  <si>
-    <t>pizza was fine, appreciate that they are fully vegan and have loads of cookies (from Jaime's Cookies)</t>
-  </si>
-  <si>
-    <t>730 Barnett St NE, Atlanta, GA 30306</t>
-  </si>
-  <si>
-    <t>Chicheria Mexican Kitchen</t>
-  </si>
-  <si>
-    <t>tacos were OK, margs were pretty good</t>
-  </si>
-  <si>
-    <t>202 Chattahoochee Row NW suite c, Atlanta, GA 30318</t>
-  </si>
-  <si>
-    <t>Mamak Vegan Kitchen</t>
-  </si>
-  <si>
-    <t>2390 Chamblee Tucker Rd Ste 101, Chamblee, GA 30341</t>
-  </si>
-  <si>
-    <t>just okay</t>
-  </si>
-  <si>
-    <t>Indaco</t>
-  </si>
-  <si>
-    <t>Italian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine, overpriced </t>
-  </si>
-  <si>
-    <t>725 Ponce De Leon Ave NE Suite 250, Atlanta, GA 30306</t>
-  </si>
-  <si>
-    <t>Waffl Taco</t>
-  </si>
-  <si>
-    <t>filling was really good, waffle was just fine. Expensive</t>
-  </si>
-  <si>
-    <t>828 Ralph McGill, Union Unit W3, Atlanta, GA 30306</t>
-  </si>
-  <si>
-    <t>Rreal Tacos (Buckehead)</t>
-  </si>
-  <si>
-    <t>lots of options but too chainy</t>
-  </si>
-  <si>
-    <t>3365 Piedmont Rd NE Suite 1120, Atlanta, GA 30305, United States</t>
-  </si>
-  <si>
     <t>Pizza Jean</t>
   </si>
   <si>
     <t>okay, very overpriced, only order through TooGoodToGo</t>
   </si>
   <si>
-    <t>675 Ponce De Leon Ave NE Suite140, Atlanta, GA 30308</t>
-  </si>
-  <si>
     <t>Buena Vida Tapas Bar</t>
   </si>
   <si>
@@ -857,13 +857,16 @@
     <t>632 North Highland Avenue Northeast, Atlanta, GA 30306</t>
   </si>
   <si>
-    <t>Buttarfly Kisses</t>
+    <t>Buttafly Kisses</t>
   </si>
   <si>
     <t>Variety</t>
   </si>
   <si>
-    <t>tasty cake pops, we get them at sevananda</t>
+    <t>tasty cake pops (we get them at sevananda)</t>
+  </si>
+  <si>
+    <t>3999 Austell Rd Ste 355 Austell, GA 30106</t>
   </si>
   <si>
     <t>Munster Cravings</t>
@@ -908,18 +911,12 @@
     <t>bland, expensive</t>
   </si>
   <si>
-    <t>PCM Food Hall, 675 Ponce De Leon Ave NE, Atlanta, GA 30308</t>
-  </si>
-  <si>
     <t>5 Daughters Bakery</t>
   </si>
   <si>
     <t>vegan donuts were not better than a grocery store</t>
   </si>
   <si>
-    <t>675 Ponce De Leon Ave NE n143, Atlanta, GA 30308</t>
-  </si>
-  <si>
     <t>Donnies Donuts</t>
   </si>
   <si>
@@ -962,7 +959,7 @@
     <t>1133 Huff Rd NW suite f, Atlanta, GA 30318</t>
   </si>
   <si>
-    <t>Bar Premio at Fourth</t>
+    <t>Bar Premio</t>
   </si>
   <si>
     <t>Coffee/Bar</t>
@@ -1097,7 +1094,7 @@
     <t>870 North Highland Avenue Northeast, Atlanta, GA 30306</t>
   </si>
   <si>
-    <t xml:space="preserve">Sister Louisa's Church of the Living Room &amp; Ping Pong Emporiumhurch (3.5 stars) </t>
+    <t>Sister Louisa's Church of the Living Room &amp; Ping Pong Emporium</t>
   </si>
   <si>
     <t>fun and quirky, darts and pong</t>
@@ -1119,9 +1116,6 @@
   </si>
   <si>
     <t>dive bar, taco popup, vegan food items on menu</t>
-  </si>
-  <si>
-    <t>727 Wylie St SE, Atlanta, GA 30316</t>
   </si>
   <si>
     <t>New Realm Brewing Co.</t>
@@ -1754,7 +1748,7 @@
         <v>43</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34">
@@ -1762,7 +1756,7 @@
         <v>44</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35">
@@ -1778,39 +1772,39 @@
         <v>46</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41">
@@ -1818,23 +1812,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1861,22 +1839,22 @@
         <v>8</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
@@ -1899,24 +1877,24 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>65</v>
       </c>
       <c r="D2" s="5">
         <v>4.5</v>
       </c>
       <c r="E2" s="4">
-        <f t="shared" ref="E2:E11" si="1">D2*2</f>
+        <f t="shared" ref="E2:E12" si="1">D2*2</f>
         <v>9</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
@@ -1939,13 +1917,13 @@
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D3" s="5">
         <v>4.5</v>
@@ -1955,10 +1933,10 @@
         <v>9</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
@@ -1981,13 +1959,13 @@
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>71</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>73</v>
       </c>
       <c r="D4" s="5">
         <v>4.5</v>
@@ -1997,10 +1975,10 @@
         <v>9</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
@@ -2023,24 +2001,26 @@
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>78</v>
-      </c>
       <c r="D5" s="5">
-        <v>4.0</v>
+        <v>4.5</v>
       </c>
       <c r="E5" s="4">
         <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="5" t="s">
-        <v>79</v>
+        <v>9</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
@@ -2063,13 +2043,13 @@
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="C6" s="5" t="s">
         <v>81</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>65</v>
       </c>
       <c r="D6" s="5">
         <v>4.0</v>
@@ -2078,11 +2058,9 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4"/>
+      <c r="G6" s="5" t="s">
         <v>82</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>83</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -2105,13 +2083,13 @@
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>85</v>
-      </c>
       <c r="C7" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D7" s="5">
         <v>4.0</v>
@@ -2121,10 +2099,10 @@
         <v>8</v>
       </c>
       <c r="F7" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>86</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -2147,13 +2125,13 @@
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>89</v>
-      </c>
       <c r="C8" s="5" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="D8" s="5">
         <v>4.0</v>
@@ -2163,10 +2141,10 @@
         <v>8</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -2189,13 +2167,13 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="D9" s="5">
         <v>4.0</v>
@@ -2205,10 +2183,10 @@
         <v>8</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -2231,26 +2209,26 @@
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="D10" s="5">
-        <v>3.75</v>
+        <v>4.0</v>
       </c>
       <c r="E10" s="4">
         <f t="shared" si="1"/>
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>98</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -2273,13 +2251,13 @@
     </row>
     <row r="11">
       <c r="A11" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>100</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D11" s="5">
         <v>3.75</v>
@@ -2289,10 +2267,10 @@
         <v>7.5</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
@@ -2315,26 +2293,26 @@
     </row>
     <row r="12">
       <c r="A12" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="D12" s="5">
         <v>3.75</v>
       </c>
-      <c r="E12" s="6">
-        <f>D12*2</f>
+      <c r="E12" s="4">
+        <f t="shared" si="1"/>
         <v>7.5</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -2357,26 +2335,26 @@
     </row>
     <row r="13">
       <c r="A13" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D13" s="5">
         <v>3.75</v>
       </c>
-      <c r="E13" s="4">
-        <f t="shared" ref="E13:E40" si="2">D13*2</f>
+      <c r="E13" s="6">
+        <f>D13*2</f>
         <v>7.5</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
@@ -2399,26 +2377,26 @@
     </row>
     <row r="14">
       <c r="A14" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="5">
+        <v>3.75</v>
+      </c>
+      <c r="E14" s="4">
+        <f t="shared" ref="E14:E41" si="2">D14*2</f>
+        <v>7.5</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="G14" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D14" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="E14" s="4">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>116</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
@@ -2441,13 +2419,13 @@
     </row>
     <row r="15">
       <c r="A15" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>119</v>
+        <v>81</v>
       </c>
       <c r="D15" s="5">
         <v>3.5</v>
@@ -2456,9 +2434,11 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="F15" s="4"/>
+      <c r="F15" s="5" t="s">
+        <v>117</v>
+      </c>
       <c r="G15" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
@@ -2481,13 +2461,13 @@
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>121</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>90</v>
       </c>
       <c r="D16" s="5">
         <v>3.5</v>
@@ -2496,11 +2476,9 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="4"/>
+      <c r="G16" s="5" t="s">
         <v>122</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>123</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
@@ -2523,13 +2501,13 @@
     </row>
     <row r="17">
       <c r="A17" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="D17" s="5">
         <v>3.5</v>
@@ -2539,10 +2517,10 @@
         <v>7</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
@@ -2565,13 +2543,13 @@
     </row>
     <row r="18">
       <c r="A18" s="5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="D18" s="5">
         <v>3.5</v>
@@ -2581,10 +2559,10 @@
         <v>7</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
@@ -2607,13 +2585,13 @@
     </row>
     <row r="19">
       <c r="A19" s="5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>134</v>
+        <v>76</v>
       </c>
       <c r="D19" s="5">
         <v>3.5</v>
@@ -2623,10 +2601,10 @@
         <v>7</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
@@ -2649,13 +2627,13 @@
     </row>
     <row r="20">
       <c r="A20" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="D20" s="5">
         <v>3.5</v>
@@ -2665,10 +2643,10 @@
         <v>7</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
@@ -2691,13 +2669,13 @@
     </row>
     <row r="21">
       <c r="A21" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="D21" s="5">
         <v>3.5</v>
@@ -2706,9 +2684,11 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="F21" s="4"/>
+      <c r="F21" s="5" t="s">
+        <v>139</v>
+      </c>
       <c r="G21" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
@@ -2731,13 +2711,13 @@
     </row>
     <row r="22">
       <c r="A22" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>106</v>
+        <v>142</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="D22" s="5">
         <v>3.5</v>
@@ -2746,11 +2726,9 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="F22" s="5" t="s">
-        <v>144</v>
-      </c>
+      <c r="F22" s="4"/>
       <c r="G22" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
@@ -2773,13 +2751,13 @@
     </row>
     <row r="23">
       <c r="A23" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="D23" s="5">
         <v>3.5</v>
@@ -2789,10 +2767,10 @@
         <v>7</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
@@ -2815,13 +2793,13 @@
     </row>
     <row r="24">
       <c r="A24" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>150</v>
+        <v>108</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="D24" s="5">
         <v>3.5</v>
@@ -2831,10 +2809,10 @@
         <v>7</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
@@ -2857,13 +2835,13 @@
     </row>
     <row r="25">
       <c r="A25" s="5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="D25" s="5">
         <v>3.5</v>
@@ -2873,10 +2851,10 @@
         <v>7</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
@@ -2899,13 +2877,13 @@
     </row>
     <row r="26">
       <c r="A26" s="5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="D26" s="5">
         <v>3.5</v>
@@ -2915,10 +2893,10 @@
         <v>7</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
@@ -2941,13 +2919,13 @@
     </row>
     <row r="27">
       <c r="A27" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D27" s="5">
         <v>3.5</v>
@@ -2957,10 +2935,10 @@
         <v>7</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
@@ -2983,13 +2961,13 @@
     </row>
     <row r="28">
       <c r="A28" s="5" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D28" s="5">
         <v>3.5</v>
@@ -2999,10 +2977,10 @@
         <v>7</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
@@ -3025,13 +3003,13 @@
     </row>
     <row r="29">
       <c r="A29" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>89</v>
+        <v>167</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="D29" s="5">
         <v>3.5</v>
@@ -3041,10 +3019,10 @@
         <v>7</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
@@ -3067,13 +3045,13 @@
     </row>
     <row r="30">
       <c r="A30" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>119</v>
+        <v>76</v>
       </c>
       <c r="D30" s="5">
         <v>3.5</v>
@@ -3083,10 +3061,10 @@
         <v>7</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
@@ -3109,13 +3087,13 @@
     </row>
     <row r="31">
       <c r="A31" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>176</v>
+        <v>100</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>177</v>
+        <v>121</v>
       </c>
       <c r="D31" s="5">
         <v>3.5</v>
@@ -3125,10 +3103,10 @@
         <v>7</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
@@ -3150,24 +3128,27 @@
       <c r="Z31" s="4"/>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D32" s="1">
+      <c r="A32" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D32" s="5">
         <v>3.5</v>
       </c>
       <c r="E32" s="4">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>182</v>
+      <c r="F32" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>180</v>
       </c>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
@@ -3190,13 +3171,13 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>125</v>
+        <v>182</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="D33" s="1">
         <v>3.5</v>
@@ -3206,10 +3187,10 @@
         <v>7</v>
       </c>
       <c r="F33" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>185</v>
       </c>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
@@ -3232,13 +3213,13 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="D34" s="1">
         <v>3.5</v>
@@ -3248,10 +3229,10 @@
         <v>7</v>
       </c>
       <c r="F34" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G34" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
@@ -3273,27 +3254,27 @@
       <c r="Z34" s="4"/>
     </row>
     <row r="35">
-      <c r="A35" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D35" s="5">
+      <c r="A35" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D35" s="1">
         <v>3.5</v>
       </c>
       <c r="E35" s="4">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="F35" s="5" t="s">
+      <c r="F35" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="G35" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>191</v>
       </c>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
@@ -3316,13 +3297,13 @@
     </row>
     <row r="36">
       <c r="A36" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>72</v>
+        <v>126</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D36" s="5">
         <v>3.5</v>
@@ -3332,10 +3313,10 @@
         <v>7</v>
       </c>
       <c r="F36" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="G36" s="5" t="s">
         <v>193</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>194</v>
       </c>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
@@ -3358,13 +3339,13 @@
     </row>
     <row r="37">
       <c r="A37" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>196</v>
+        <v>70</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D37" s="5">
         <v>3.5</v>
@@ -3374,10 +3355,10 @@
         <v>7</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
@@ -3400,13 +3381,13 @@
     </row>
     <row r="38">
       <c r="A38" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>106</v>
+        <v>198</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="D38" s="5">
         <v>3.5</v>
@@ -3416,10 +3397,10 @@
         <v>7</v>
       </c>
       <c r="F38" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>201</v>
       </c>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
@@ -3442,26 +3423,26 @@
     </row>
     <row r="39">
       <c r="A39" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>203</v>
+        <v>108</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>204</v>
+        <v>76</v>
       </c>
       <c r="D39" s="5">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="E39" s="4">
         <f t="shared" si="2"/>
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
@@ -3484,13 +3465,13 @@
     </row>
     <row r="40">
       <c r="A40" s="5" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D40" s="5">
         <v>3.25</v>
@@ -3500,10 +3481,10 @@
         <v>6.5</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>136</v>
+        <v>208</v>
       </c>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
@@ -3526,26 +3507,26 @@
     </row>
     <row r="41">
       <c r="A41" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C41" s="5" t="s">
         <v>211</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>78</v>
       </c>
       <c r="D41" s="5">
         <v>3.25</v>
       </c>
       <c r="E41" s="4">
-        <f>D41*2</f>
+        <f t="shared" si="2"/>
         <v>6.5</v>
       </c>
       <c r="F41" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="G41" s="5" t="s">
-        <v>213</v>
+      <c r="G41" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
@@ -3568,26 +3549,26 @@
     </row>
     <row r="42">
       <c r="A42" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D42" s="5">
         <v>3.25</v>
       </c>
       <c r="E42" s="4">
-        <f t="shared" ref="E42:E57" si="3">D42*2</f>
+        <f>D42*2</f>
         <v>6.5</v>
       </c>
       <c r="F42" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="G42" s="5" t="s">
         <v>215</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>216</v>
       </c>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
@@ -3610,26 +3591,26 @@
     </row>
     <row r="43">
       <c r="A43" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>218</v>
+        <v>108</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>134</v>
+        <v>76</v>
       </c>
       <c r="D43" s="5">
         <v>3.25</v>
       </c>
       <c r="E43" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="E43:E58" si="3">D43*2</f>
         <v>6.5</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>218</v>
       </c>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
@@ -3652,13 +3633,13 @@
     </row>
     <row r="44">
       <c r="A44" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>129</v>
+        <v>220</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D44" s="5">
         <v>3.25</v>
@@ -3668,10 +3649,10 @@
         <v>6.5</v>
       </c>
       <c r="F44" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="G44" s="1" t="s">
         <v>222</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>223</v>
       </c>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
@@ -3694,37 +3675,37 @@
     </row>
     <row r="45">
       <c r="A45" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>89</v>
+        <v>130</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="D45" s="5">
-        <v>3.0</v>
+        <v>3.25</v>
       </c>
       <c r="E45" s="4">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="F45" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="G45" s="1" t="s">
         <v>225</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>228</v>
+        <v>92</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D46" s="5">
         <v>3.0</v>
@@ -3734,21 +3715,21 @@
         <v>6</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>230</v>
+        <v>86</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D47" s="5">
         <v>3.0</v>
@@ -3757,19 +3738,22 @@
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
+      <c r="F47" s="5" t="s">
+        <v>230</v>
+      </c>
       <c r="G47" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>162</v>
+        <v>233</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D48" s="5">
         <v>3.0</v>
@@ -3778,11 +3762,8 @@
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="F48" s="5" t="s">
-        <v>235</v>
-      </c>
       <c r="G48" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
@@ -3805,13 +3786,13 @@
     </row>
     <row r="49">
       <c r="A49" s="5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>106</v>
+        <v>163</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="D49" s="5">
         <v>3.0</v>
@@ -3821,10 +3802,10 @@
         <v>6</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
@@ -3847,13 +3828,13 @@
     </row>
     <row r="50">
       <c r="A50" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>108</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="D50" s="5">
         <v>3.0</v>
@@ -3863,10 +3844,10 @@
         <v>6</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
@@ -3889,13 +3870,13 @@
     </row>
     <row r="51">
       <c r="A51" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>244</v>
+        <v>241</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>242</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="D51" s="5">
         <v>3.0</v>
@@ -3905,10 +3886,10 @@
         <v>6</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
@@ -3931,13 +3912,13 @@
     </row>
     <row r="52">
       <c r="A52" s="5" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>106</v>
+        <v>245</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="D52" s="5">
         <v>3.0</v>
@@ -3947,10 +3928,10 @@
         <v>6</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
@@ -3973,26 +3954,26 @@
     </row>
     <row r="53">
       <c r="A53" s="5" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="D53" s="5">
-        <v>2.5</v>
+        <v>3.0</v>
       </c>
       <c r="E53" s="4">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="G53" s="5" t="s">
-        <v>252</v>
+        <v>249</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>250</v>
       </c>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
@@ -4015,13 +3996,13 @@
     </row>
     <row r="54">
       <c r="A54" s="5" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>177</v>
+        <v>63</v>
       </c>
       <c r="D54" s="5">
         <v>2.5</v>
@@ -4031,10 +4012,10 @@
         <v>5</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>253</v>
       </c>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
@@ -4057,26 +4038,26 @@
     </row>
     <row r="55">
       <c r="A55" s="5" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>257</v>
+        <v>163</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>90</v>
+        <v>178</v>
       </c>
       <c r="D55" s="5">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="E55" s="4">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>259</v>
+        <v>86</v>
       </c>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
@@ -4099,26 +4080,26 @@
     </row>
     <row r="56">
       <c r="A56" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>261</v>
+        <v>256</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>257</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="D56" s="5">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="E56" s="4">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>263</v>
+        <v>258</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>259</v>
       </c>
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
@@ -4141,13 +4122,13 @@
     </row>
     <row r="57">
       <c r="A57" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>106</v>
+        <v>260</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>261</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="D57" s="5">
         <v>0.5</v>
@@ -4157,10 +4138,10 @@
         <v>1</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
@@ -4182,13 +4163,28 @@
       <c r="Z57" s="4"/>
     </row>
     <row r="58">
-      <c r="A58" s="4"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
+      <c r="A58" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D58" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E58" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>266</v>
+      </c>
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
       <c r="K58" s="4"/>
@@ -29670,22 +29666,22 @@
         <v>8</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
@@ -29714,7 +29710,7 @@
         <v>268</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D2" s="5">
         <v>4.0</v>
@@ -29726,7 +29722,9 @@
       <c r="F2" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="G2" s="4"/>
+      <c r="G2" s="1" t="s">
+        <v>237</v>
+      </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
@@ -29754,7 +29752,7 @@
         <v>271</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D3" s="5">
         <v>4.0</v>
@@ -29796,7 +29794,7 @@
         <v>275</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D4" s="1">
         <v>4.0</v>
@@ -29838,7 +29836,7 @@
         <v>279</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D5" s="1">
         <v>4.0</v>
@@ -29850,16 +29848,19 @@
       <c r="F5" s="1" t="s">
         <v>280</v>
       </c>
+      <c r="G5" s="1" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>268</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D6" s="5">
         <v>3.5</v>
@@ -29869,21 +29870,21 @@
         <v>7</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>275</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D7" s="1">
         <v>3.0</v>
@@ -29893,21 +29894,21 @@
         <v>6</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>271</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="D8" s="1">
         <v>3.0</v>
@@ -29917,21 +29918,21 @@
         <v>6</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>275</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D9" s="1">
         <v>2.5</v>
@@ -29941,21 +29942,21 @@
         <v>5</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>152</v>
+        <v>292</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D10" s="1">
         <v>2.0</v>
@@ -29965,10 +29966,10 @@
         <v>4</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="G10" s="1" t="s">
         <v>295</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="11">
@@ -29979,7 +29980,7 @@
         <v>271</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="D11" s="1">
         <v>2.0</v>
@@ -29991,19 +29992,19 @@
       <c r="F11" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>298</v>
+      <c r="G11" s="5" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>271</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D12" s="1">
         <v>3.0</v>
@@ -30013,10 +30014,10 @@
         <v>6</v>
       </c>
       <c r="F12" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>300</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -30047,22 +30048,22 @@
         <v>8</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
@@ -30085,13 +30086,13 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>303</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D2" s="1">
         <v>4.5</v>
@@ -30101,21 +30102,21 @@
         <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>304</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>307</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="D3" s="1">
         <v>4.0</v>
@@ -30125,21 +30126,21 @@
         <v>8</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>308</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D4" s="1">
         <v>4.0</v>
@@ -30149,21 +30150,21 @@
         <v>8</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>311</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>314</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>315</v>
       </c>
       <c r="D5" s="1">
         <v>4.0</v>
@@ -30173,21 +30174,21 @@
         <v>8</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>316</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D6" s="1">
         <v>4.0</v>
@@ -30197,15 +30198,15 @@
         <v>8</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D7" s="1">
         <v>4.0</v>
@@ -30215,15 +30216,15 @@
         <v>8</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D8" s="1">
         <v>4.0</v>
@@ -30233,18 +30234,18 @@
         <v>8</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D9" s="1">
         <v>4.0</v>
@@ -30254,18 +30255,18 @@
         <v>8</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D10" s="1">
         <v>3.5</v>
@@ -30275,18 +30276,18 @@
         <v>7</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="D11" s="1">
         <v>3.5</v>
@@ -30296,21 +30297,21 @@
         <v>7</v>
       </c>
       <c r="F11" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>329</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>332</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>333</v>
       </c>
       <c r="D12" s="1">
         <v>3.5</v>
@@ -30349,21 +30350,21 @@
         <v>8</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B2" s="1">
         <v>4.5</v>
@@ -30373,15 +30374,15 @@
         <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>335</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B3" s="1">
         <v>4.0</v>
@@ -30391,15 +30392,15 @@
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>338</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B4" s="1">
         <v>4.0</v>
@@ -30409,15 +30410,15 @@
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>341</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B5" s="1">
         <v>4.0</v>
@@ -30427,15 +30428,15 @@
         <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>344</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B6" s="1">
         <v>4.0</v>
@@ -30445,15 +30446,15 @@
         <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>347</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B7" s="1">
         <v>4.0</v>
@@ -30463,15 +30464,15 @@
         <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>350</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B8" s="1">
         <v>4.0</v>
@@ -30481,15 +30482,15 @@
         <v>8</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>353</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B9" s="1">
         <v>4.0</v>
@@ -30499,15 +30500,15 @@
         <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>356</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B10" s="1">
         <v>3.5</v>
@@ -30517,15 +30518,15 @@
         <v>7</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>359</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B11" s="1">
         <v>3.5</v>
@@ -30535,15 +30536,15 @@
         <v>7</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>362</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B12" s="1">
         <v>3.5</v>
@@ -30553,15 +30554,15 @@
         <v>7</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>366</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B13" s="1">
         <v>3.0</v>
@@ -30571,15 +30572,15 @@
         <v>6</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B14" s="1">
         <v>3.0</v>
@@ -30589,15 +30590,15 @@
         <v>6</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B15" s="1">
         <v>2.5</v>
@@ -30607,7 +30608,7 @@
         <v>5</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
   </sheetData>

--- a/ATL-Food-and-Drink-Review-List.xlsx
+++ b/ATL-Food-and-Drink-Review-List.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="411">
   <si>
     <t>The designations of "Vegan" are used to roughly quantify the percentage of the menu items that are vegan:</t>
   </si>
@@ -53,141 +53,273 @@
     <t>Type</t>
   </si>
   <si>
+    <t>Location</t>
+  </si>
+  <si>
     <t>Vegan Wangs</t>
   </si>
   <si>
-    <t>Restaurant</t>
+    <t>Restaurants</t>
+  </si>
+  <si>
+    <t>833 Cascade Rd Suite A, Atlanta, GA 30310</t>
   </si>
   <si>
     <t xml:space="preserve">Slutty Vegan </t>
   </si>
   <si>
-    <t>Bahel Ethipoian</t>
+    <t>1542 Ralph David Abernathy Blvd SW, Atlanta, GA 30310</t>
+  </si>
+  <si>
+    <t>Bahel Ethipoian Restaurant</t>
+  </si>
+  <si>
+    <t>3125 Briarcliff Rd NE ste c, Atlanta, GA 30329</t>
   </si>
   <si>
     <t>Maepole</t>
   </si>
   <si>
+    <t>72 Georgia Ave SE Unit 500, Atlanta, GA 30312</t>
+  </si>
+  <si>
     <t>Pom Court @ Hotel Granada</t>
   </si>
   <si>
+    <t>1302 W Peachtree St NW, Atlanta, GA 30309</t>
+  </si>
+  <si>
     <t>HC Biergarten</t>
   </si>
   <si>
     <t>Bars</t>
   </si>
   <si>
+    <t>640 Reed St SE, Atlanta, GA 30312</t>
+  </si>
+  <si>
     <t>Sweet Water Brewing</t>
   </si>
   <si>
+    <t>195 Ottley Drive Northeast, Atlanta, GA 30324</t>
+  </si>
+  <si>
     <t>Three Taverns Imaginarium</t>
   </si>
   <si>
-    <t>The Rooftop at Clarmont</t>
+    <t>777 Memorial Dr SE Suite B103, Atlanta, GA 30316</t>
+  </si>
+  <si>
+    <t>The Rooftop at Clermont</t>
+  </si>
+  <si>
+    <t>789 Ponce De Leon Ave NE, Atlanta, GA 30306</t>
   </si>
   <si>
     <t>Ranger Station Speakeasy</t>
   </si>
   <si>
+    <t>684 John Wesley Dobbs Ave NE Unit J, Atlanta, GA 30312</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tabla </t>
   </si>
   <si>
+    <t>77 12th St NE #2, Atlanta, GA 30309</t>
+  </si>
+  <si>
     <t>Yakitori Kona</t>
   </si>
   <si>
+    <t>1004 Virginia Ave NE, Atlanta, GA 30306</t>
+  </si>
+  <si>
     <t>Vegan Food Social (ATL utility works)</t>
   </si>
   <si>
+    <t>2903 RN Martin St, East Point, GA 30344</t>
+  </si>
+  <si>
     <t>Cafe Sunflower</t>
   </si>
   <si>
+    <t>2140 Peachtree Rd, Atlanta, GA 30309</t>
+  </si>
+  <si>
     <t>Coyote's Mexican Grill</t>
   </si>
   <si>
+    <t>105 Sycamore Pl, Decatur, GA 30030</t>
+  </si>
+  <si>
     <t>Arepa Mia</t>
   </si>
   <si>
+    <t>10 N Clarendon Ave suite a, Avondale Estates, GA 30002</t>
+  </si>
+  <si>
     <t>Chai Pani</t>
   </si>
   <si>
-    <t>Metrpolis Cafe</t>
-  </si>
-  <si>
-    <t>Ruby Chows</t>
+    <t>406 W Ponce de Leon Ave, Decatur, GA 30030</t>
+  </si>
+  <si>
+    <t>Ruby Chow</t>
+  </si>
+  <si>
+    <t>620 Glen Iris Dr NE Unit C-1, Atlanta, GA 30308</t>
   </si>
   <si>
     <t>Masterpiece</t>
   </si>
   <si>
-    <t>Whoopsies (can be vegan)</t>
-  </si>
-  <si>
-    <t>Estrellita Filipino (cant be vegan)</t>
-  </si>
-  <si>
-    <t>Bacelona Tapas</t>
+    <t>3940 Buford Hwy, Duluth, GA 30096</t>
+  </si>
+  <si>
+    <t>Whoopsies</t>
+  </si>
+  <si>
+    <t>1 Moreland Ave SE suite c, Atlanta, GA 30316</t>
+  </si>
+  <si>
+    <t>Estrellita Filipino</t>
+  </si>
+  <si>
+    <t>580 Woodward Ave SE, Atlanta, GA 30312</t>
+  </si>
+  <si>
+    <t>Bacelona Wine Bar</t>
+  </si>
+  <si>
+    <t>240 North Highland Avenue Northeast, Atlanta, GA 30307</t>
   </si>
   <si>
     <t>Pho Bac</t>
   </si>
   <si>
-    <t>Kamayan</t>
-  </si>
-  <si>
-    <t>Vegreen</t>
-  </si>
-  <si>
-    <t>Lees Bakery</t>
-  </si>
-  <si>
-    <t>Chat Patti</t>
-  </si>
-  <si>
-    <t>Desi Spice</t>
+    <t>4897 Buford Hwy suite 106, Chamblee, GA 30341</t>
+  </si>
+  <si>
+    <t>Kamayan ATL - Filipino Restaurant</t>
+  </si>
+  <si>
+    <t>5150 Buford Hwy A230, Doraville, GA 30340</t>
+  </si>
+  <si>
+    <t>VeGreen Vegan Fusion Restaurant</t>
+  </si>
+  <si>
+    <t>3780 Old Norcross Rd #106, Duluth, GA 30096</t>
+  </si>
+  <si>
+    <t>Lee's Bakery</t>
+  </si>
+  <si>
+    <t>4005 Buford Hwy Suite C, Atlanta, GA 30345</t>
+  </si>
+  <si>
+    <t>Chat Patti Indian Vegetarian Restaurant</t>
+  </si>
+  <si>
+    <t>1707 Church St, Decatur, GA 30033</t>
+  </si>
+  <si>
+    <t>Desi Spice Indian Cuisine</t>
+  </si>
+  <si>
+    <t>Promenade, 931 Monroe Dr NE, Atlanta, GA 30308</t>
   </si>
   <si>
     <t>Bakaris Pizza</t>
   </si>
   <si>
+    <t>576 Lee St SW, Atlanta, GA 30310</t>
+  </si>
+  <si>
     <t>Shoya Izakaya</t>
   </si>
   <si>
+    <t>6035 Peachtree Rd A101, Doraville, GA 30340</t>
+  </si>
+  <si>
     <t>My Parents Basement</t>
   </si>
   <si>
+    <t>22 N Avondale Rd, Avondale Estates, GA 30002</t>
+  </si>
+  <si>
     <t>Moonlight</t>
   </si>
   <si>
-    <t>Stereo ATL</t>
-  </si>
-  <si>
-    <t>Jikssa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Restaurant </t>
-  </si>
-  <si>
-    <t>Dekalb Famers Market</t>
+    <t>800 Rankin St NE, Atlanta, GA 30308</t>
+  </si>
+  <si>
+    <t>Stereo</t>
+  </si>
+  <si>
+    <t>900 DeKalb Ave NE suite f, Atlanta, GA 30307</t>
+  </si>
+  <si>
+    <t>Your DeKalb Farmers Market</t>
   </si>
   <si>
     <t xml:space="preserve">Grocery store </t>
   </si>
   <si>
+    <t>3000 E Ponce de Leon Ave, Decatur, GA 30030</t>
+  </si>
+  <si>
     <t>TESO Life</t>
   </si>
   <si>
     <t>Grocery store</t>
   </si>
   <si>
+    <t>2180 Pleasant Hill Rd SUITE F, Duluth, GA 30096</t>
+  </si>
+  <si>
     <t>Lov'n it live</t>
   </si>
   <si>
+    <t>2796 E Point St, East Point, GA 30344</t>
+  </si>
+  <si>
     <t>Planted soul</t>
   </si>
   <si>
+    <t>3569 Main St, College Park, GA 30337</t>
+  </si>
+  <si>
     <t>Yalda</t>
   </si>
   <si>
+    <t>980 Howell Mill Rd Suite 4, Atlanta, GA 30318</t>
+  </si>
+  <si>
+    <t>Madre Selva</t>
+  </si>
+  <si>
+    <t>570 Main St NE, Atlanta, GA 30324</t>
+  </si>
+  <si>
+    <t>Okiboru Tsukemen &amp; Ramen</t>
+  </si>
+  <si>
+    <t>2277 Peachtree Rd NE B, Atlanta, GA 30309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mellow Mushroom </t>
+  </si>
+  <si>
+    <t>931 Monroe Dr NE, Atlanta, GA 30308</t>
+  </si>
+  <si>
+    <t>La Hacienda Midtown</t>
+  </si>
+  <si>
+    <t>900 Monroe Dr NE, Atlanta, GA 30308</t>
+  </si>
+  <si>
     <t>Cuisine</t>
   </si>
   <si>
@@ -203,9 +335,6 @@
     <t>Additional Notes</t>
   </si>
   <si>
-    <t>Location</t>
-  </si>
-  <si>
     <t>Delbar (Inman Park)</t>
   </si>
   <si>
@@ -215,7 +344,7 @@
     <t>Partially</t>
   </si>
   <si>
-    <t>870 Inman Vlg Pkwy NE Suite 1, Atlanta, GA 30307</t>
+    <t>870 Inman Villge Pkwy NE Suite 1, Atlanta, GA 30307</t>
   </si>
   <si>
     <t>Little Bear</t>
@@ -305,7 +434,7 @@
     <t>$4-5 for a Bahn Mi. Super cheap. Best Bahn Mi i've had (Joe) in a long time.</t>
   </si>
   <si>
-    <t>5150 Buford Hwy NE, Doraville, GA 30340</t>
+    <t>5150 Buford Hwy, Doraville, GA 30340</t>
   </si>
   <si>
     <t>Desta</t>
@@ -329,7 +458,7 @@
     <t>good soup dumpling and eggplant</t>
   </si>
   <si>
-    <t>5141 Buford Hwy NE Suite C, Doraville, GA 30340</t>
+    <t>5141 Buford Hwy Suite C, Doraville, GA 30340</t>
   </si>
   <si>
     <t>Vegan House of Pancakes</t>
@@ -407,9 +536,6 @@
     <t>vibes were high, French fries and mussels were a good value</t>
   </si>
   <si>
-    <t>800 Rankin St NE, Atlanta, GA 30308</t>
-  </si>
-  <si>
     <t>Argosy</t>
   </si>
   <si>
@@ -461,7 +587,7 @@
     <t>solid vegan street tacos</t>
   </si>
   <si>
-    <t>3795 Presidential Pkwy Suite FP-10, Atlanta, GA 30340</t>
+    <t>3795 Presidential Pkwy, Atlanta, GA 30340</t>
   </si>
   <si>
     <t>El Tesoro</t>
@@ -494,7 +620,7 @@
     <t>massive menu of eats, curry laksa is the move</t>
   </si>
   <si>
-    <t>5000 Buford Hwy NE, Chamblee, GA 30341</t>
+    <t>5000 Buford Hwy, Chamblee, GA 30341</t>
   </si>
   <si>
     <t>Kitty Dare</t>
@@ -539,7 +665,7 @@
     <t>tasty Vietnamese but tofu dish barely had any tofu, Pho is supposed to be the best in ATL but didn't have</t>
   </si>
   <si>
-    <t>4051 Buford Hwy NE, Atlanta, GA 30345</t>
+    <t>4051 Buford Hwy, Atlanta, GA 30345</t>
   </si>
   <si>
     <t>Harmony Vegetarian</t>
@@ -548,7 +674,7 @@
     <t>good Chinese vegetarian spot with more vegan options and better prices than other options on the list (e.g. Northern China eatery)</t>
   </si>
   <si>
-    <t>Orient Center Shopping Plaza, 4897 Buford Hwy NE #109, Chamblee, GA 30341</t>
+    <t>Orient Center Shopping Plaza, 4897 Buford Hwy #109, Chamblee, GA 30341</t>
   </si>
   <si>
     <t>Woody’s Cheesesteaks</t>
@@ -971,9 +1097,6 @@
     <t>the bar outside the steakhouse</t>
   </si>
   <si>
-    <t>800 Rankin St NE 1st Floor, Atlanta, GA 30308</t>
-  </si>
-  <si>
     <t>Finca to Filter O4W</t>
   </si>
   <si>
@@ -1010,16 +1133,13 @@
     <t>only had nutella bun, but good</t>
   </si>
   <si>
-    <t>5150 Buford Hwy NE A-100, Doraville, GA 30340</t>
-  </si>
-  <si>
     <t>Cafe Maiko</t>
   </si>
   <si>
     <t>Match Tea</t>
   </si>
   <si>
-    <t>Partiall</t>
+    <t>5306 Buford Hwy, Atlanta, GA 30340</t>
   </si>
   <si>
     <t>Monday Night Brewing - The Garage</t>
@@ -1037,9 +1157,6 @@
     <t>good vibes, great frozen lemonade</t>
   </si>
   <si>
-    <t>684 John Wesley Dobbs Ave NE Unit J, Atlanta, GA 30312</t>
-  </si>
-  <si>
     <t>Strangers in Paradise</t>
   </si>
   <si>
@@ -1136,7 +1253,7 @@
     <t>Bold Monk Brewing Co.</t>
   </si>
   <si>
-    <t>1737 Ellsworth Industrial Blvd NW suite d-1, Atlanta, GA 30318</t>
+    <t>1737 Ellsworth Industrial Blvd NW, Atlanta, GA 30318</t>
   </si>
 </sst>
 </file>
@@ -1497,322 +1614,470 @@
       <c r="B1" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>29</v>
+        <v>47</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>17</v>
+        <v>80</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>47</v>
+        <v>83</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>49</v>
+        <v>12</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>51</v>
+        <v>12</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>47</v>
+        <v>12</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>47</v>
+        <v>12</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>47</v>
+        <v>12</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1839,22 +2104,22 @@
         <v>8</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
@@ -1877,13 +2142,13 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>61</v>
+        <v>104</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="D2" s="5">
         <v>4.5</v>
@@ -1894,7 +2159,7 @@
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="5" t="s">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
@@ -1917,13 +2182,13 @@
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="D3" s="5">
         <v>4.5</v>
@@ -1933,10 +2198,10 @@
         <v>9</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>68</v>
+        <v>111</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
@@ -1959,13 +2224,13 @@
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>71</v>
+        <v>114</v>
       </c>
       <c r="D4" s="5">
         <v>4.5</v>
@@ -1975,10 +2240,10 @@
         <v>9</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
@@ -2001,13 +2266,13 @@
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>75</v>
+        <v>118</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="D5" s="5">
         <v>4.5</v>
@@ -2017,10 +2282,10 @@
         <v>9</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>77</v>
+        <v>120</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>78</v>
+        <v>121</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
@@ -2043,13 +2308,13 @@
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>79</v>
+        <v>122</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>80</v>
+        <v>123</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>81</v>
+        <v>124</v>
       </c>
       <c r="D6" s="5">
         <v>4.0</v>
@@ -2060,7 +2325,7 @@
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="5" t="s">
-        <v>82</v>
+        <v>125</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -2083,13 +2348,13 @@
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>83</v>
+        <v>126</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>84</v>
+        <v>127</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="D7" s="5">
         <v>4.0</v>
@@ -2099,10 +2364,10 @@
         <v>8</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>86</v>
+        <v>129</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -2125,13 +2390,13 @@
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>88</v>
+        <v>131</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="D8" s="5">
         <v>4.0</v>
@@ -2141,10 +2406,10 @@
         <v>8</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>89</v>
+        <v>132</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>90</v>
+        <v>133</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -2167,13 +2432,13 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
-        <v>91</v>
+        <v>134</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>92</v>
+        <v>135</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="D9" s="5">
         <v>4.0</v>
@@ -2183,10 +2448,10 @@
         <v>8</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>93</v>
+        <v>136</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>94</v>
+        <v>137</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -2209,13 +2474,13 @@
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
-        <v>95</v>
+        <v>138</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>96</v>
+        <v>139</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="D10" s="5">
         <v>4.0</v>
@@ -2225,10 +2490,10 @@
         <v>8</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>97</v>
+        <v>140</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>98</v>
+        <v>141</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -2251,13 +2516,13 @@
     </row>
     <row r="11">
       <c r="A11" s="5" t="s">
-        <v>99</v>
+        <v>142</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="D11" s="5">
         <v>3.75</v>
@@ -2267,10 +2532,10 @@
         <v>7.5</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>101</v>
+        <v>144</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>102</v>
+        <v>145</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
@@ -2293,13 +2558,13 @@
     </row>
     <row r="12">
       <c r="A12" s="5" t="s">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>81</v>
+        <v>124</v>
       </c>
       <c r="D12" s="5">
         <v>3.75</v>
@@ -2309,10 +2574,10 @@
         <v>7.5</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>106</v>
+        <v>149</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -2335,13 +2600,13 @@
     </row>
     <row r="13">
       <c r="A13" s="5" t="s">
-        <v>107</v>
+        <v>150</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>108</v>
+        <v>151</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="D13" s="5">
         <v>3.75</v>
@@ -2351,10 +2616,10 @@
         <v>7.5</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>110</v>
+        <v>153</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
@@ -2377,13 +2642,13 @@
     </row>
     <row r="14">
       <c r="A14" s="5" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>112</v>
+        <v>155</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="D14" s="5">
         <v>3.75</v>
@@ -2393,10 +2658,10 @@
         <v>7.5</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>113</v>
+        <v>156</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>114</v>
+        <v>157</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
@@ -2419,13 +2684,13 @@
     </row>
     <row r="15">
       <c r="A15" s="5" t="s">
-        <v>115</v>
+        <v>158</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>116</v>
+        <v>159</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>81</v>
+        <v>124</v>
       </c>
       <c r="D15" s="5">
         <v>3.5</v>
@@ -2435,10 +2700,10 @@
         <v>7</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>117</v>
+        <v>160</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>118</v>
+        <v>161</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
@@ -2461,13 +2726,13 @@
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
-        <v>119</v>
+        <v>162</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>120</v>
+        <v>163</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>121</v>
+        <v>164</v>
       </c>
       <c r="D16" s="5">
         <v>3.5</v>
@@ -2478,7 +2743,7 @@
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="5" t="s">
-        <v>122</v>
+        <v>165</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
@@ -2501,13 +2766,13 @@
     </row>
     <row r="17">
       <c r="A17" s="5" t="s">
-        <v>123</v>
+        <v>166</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>116</v>
+        <v>159</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="D17" s="5">
         <v>3.5</v>
@@ -2517,10 +2782,10 @@
         <v>7</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>124</v>
+        <v>167</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>86</v>
+        <v>129</v>
       </c>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
@@ -2543,13 +2808,13 @@
     </row>
     <row r="18">
       <c r="A18" s="5" t="s">
-        <v>125</v>
+        <v>168</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>126</v>
+        <v>169</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="D18" s="5">
         <v>3.5</v>
@@ -2559,10 +2824,10 @@
         <v>7</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>127</v>
+        <v>170</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>128</v>
+        <v>76</v>
       </c>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
@@ -2585,13 +2850,13 @@
     </row>
     <row r="19">
       <c r="A19" s="5" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>130</v>
+        <v>172</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="D19" s="5">
         <v>3.5</v>
@@ -2601,10 +2866,10 @@
         <v>7</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>132</v>
+        <v>174</v>
       </c>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
@@ -2627,13 +2892,13 @@
     </row>
     <row r="20">
       <c r="A20" s="5" t="s">
-        <v>133</v>
+        <v>175</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>134</v>
+        <v>176</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>135</v>
+        <v>177</v>
       </c>
       <c r="D20" s="5">
         <v>3.5</v>
@@ -2643,10 +2908,10 @@
         <v>7</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>136</v>
+        <v>178</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>137</v>
+        <v>179</v>
       </c>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
@@ -2669,13 +2934,13 @@
     </row>
     <row r="21">
       <c r="A21" s="5" t="s">
-        <v>138</v>
+        <v>180</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>126</v>
+        <v>169</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="D21" s="5">
         <v>3.5</v>
@@ -2685,10 +2950,10 @@
         <v>7</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>139</v>
+        <v>181</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>140</v>
+        <v>182</v>
       </c>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
@@ -2711,13 +2976,13 @@
     </row>
     <row r="22">
       <c r="A22" s="5" t="s">
-        <v>141</v>
+        <v>183</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>142</v>
+        <v>184</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="D22" s="5">
         <v>3.5</v>
@@ -2728,7 +2993,7 @@
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="1" t="s">
-        <v>143</v>
+        <v>185</v>
       </c>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
@@ -2751,13 +3016,13 @@
     </row>
     <row r="23">
       <c r="A23" s="5" t="s">
-        <v>144</v>
+        <v>186</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>108</v>
+        <v>151</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>81</v>
+        <v>124</v>
       </c>
       <c r="D23" s="5">
         <v>3.5</v>
@@ -2767,10 +3032,10 @@
         <v>7</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>145</v>
+        <v>187</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>146</v>
+        <v>188</v>
       </c>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
@@ -2793,13 +3058,13 @@
     </row>
     <row r="24">
       <c r="A24" s="5" t="s">
-        <v>147</v>
+        <v>189</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>108</v>
+        <v>151</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="D24" s="5">
         <v>3.5</v>
@@ -2809,10 +3074,10 @@
         <v>7</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>149</v>
+        <v>191</v>
       </c>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
@@ -2835,13 +3100,13 @@
     </row>
     <row r="25">
       <c r="A25" s="5" t="s">
-        <v>150</v>
+        <v>192</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>151</v>
+        <v>193</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="D25" s="5">
         <v>3.5</v>
@@ -2851,10 +3116,10 @@
         <v>7</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>152</v>
+        <v>194</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>153</v>
+        <v>195</v>
       </c>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
@@ -2877,13 +3142,13 @@
     </row>
     <row r="26">
       <c r="A26" s="5" t="s">
-        <v>154</v>
+        <v>196</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>155</v>
+        <v>197</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="D26" s="5">
         <v>3.5</v>
@@ -2893,10 +3158,10 @@
         <v>7</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>156</v>
+        <v>198</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>157</v>
+        <v>199</v>
       </c>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
@@ -2919,13 +3184,13 @@
     </row>
     <row r="27">
       <c r="A27" s="5" t="s">
-        <v>158</v>
+        <v>200</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="D27" s="5">
         <v>3.5</v>
@@ -2935,10 +3200,10 @@
         <v>7</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>160</v>
+        <v>202</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>161</v>
+        <v>203</v>
       </c>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
@@ -2961,13 +3226,13 @@
     </row>
     <row r="28">
       <c r="A28" s="5" t="s">
-        <v>162</v>
+        <v>204</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>163</v>
+        <v>205</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>81</v>
+        <v>124</v>
       </c>
       <c r="D28" s="5">
         <v>3.5</v>
@@ -2977,10 +3242,10 @@
         <v>7</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>164</v>
+        <v>206</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>165</v>
+        <v>207</v>
       </c>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
@@ -3003,13 +3268,13 @@
     </row>
     <row r="29">
       <c r="A29" s="5" t="s">
-        <v>166</v>
+        <v>208</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>167</v>
+        <v>209</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="D29" s="5">
         <v>3.5</v>
@@ -3019,10 +3284,10 @@
         <v>7</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>168</v>
+        <v>210</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>169</v>
+        <v>211</v>
       </c>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
@@ -3045,13 +3310,13 @@
     </row>
     <row r="30">
       <c r="A30" s="5" t="s">
-        <v>170</v>
+        <v>212</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>92</v>
+        <v>135</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="D30" s="5">
         <v>3.5</v>
@@ -3061,10 +3326,10 @@
         <v>7</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>171</v>
+        <v>213</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>172</v>
+        <v>214</v>
       </c>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
@@ -3087,13 +3352,13 @@
     </row>
     <row r="31">
       <c r="A31" s="5" t="s">
-        <v>173</v>
+        <v>215</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>121</v>
+        <v>164</v>
       </c>
       <c r="D31" s="5">
         <v>3.5</v>
@@ -3103,10 +3368,10 @@
         <v>7</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>174</v>
+        <v>216</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>175</v>
+        <v>217</v>
       </c>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
@@ -3129,13 +3394,13 @@
     </row>
     <row r="32">
       <c r="A32" s="5" t="s">
-        <v>176</v>
+        <v>218</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>177</v>
+        <v>219</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>178</v>
+        <v>220</v>
       </c>
       <c r="D32" s="5">
         <v>3.5</v>
@@ -3145,10 +3410,10 @@
         <v>7</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>179</v>
+        <v>221</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>180</v>
+        <v>222</v>
       </c>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
@@ -3171,13 +3436,13 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>181</v>
+        <v>223</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>182</v>
+        <v>224</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>81</v>
+        <v>124</v>
       </c>
       <c r="D33" s="1">
         <v>3.5</v>
@@ -3187,10 +3452,10 @@
         <v>7</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>183</v>
+        <v>225</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>184</v>
+        <v>226</v>
       </c>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
@@ -3213,13 +3478,13 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>185</v>
+        <v>227</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>126</v>
+        <v>169</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="D34" s="1">
         <v>3.5</v>
@@ -3229,10 +3494,10 @@
         <v>7</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>186</v>
+        <v>228</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>187</v>
+        <v>229</v>
       </c>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
@@ -3255,13 +3520,13 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>188</v>
+        <v>230</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>130</v>
+        <v>172</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="D35" s="1">
         <v>3.5</v>
@@ -3271,10 +3536,10 @@
         <v>7</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>189</v>
+        <v>231</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>190</v>
+        <v>232</v>
       </c>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
@@ -3297,13 +3562,13 @@
     </row>
     <row r="36">
       <c r="A36" s="5" t="s">
-        <v>191</v>
+        <v>233</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>126</v>
+        <v>169</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="D36" s="5">
         <v>3.5</v>
@@ -3313,10 +3578,10 @@
         <v>7</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>192</v>
+        <v>234</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>193</v>
+        <v>235</v>
       </c>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
@@ -3339,13 +3604,13 @@
     </row>
     <row r="37">
       <c r="A37" s="5" t="s">
-        <v>194</v>
+        <v>236</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="D37" s="5">
         <v>3.5</v>
@@ -3355,10 +3620,10 @@
         <v>7</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>195</v>
+        <v>237</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>196</v>
+        <v>238</v>
       </c>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
@@ -3381,13 +3646,13 @@
     </row>
     <row r="38">
       <c r="A38" s="5" t="s">
-        <v>197</v>
+        <v>239</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>198</v>
+        <v>240</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="D38" s="5">
         <v>3.5</v>
@@ -3397,10 +3662,10 @@
         <v>7</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>199</v>
+        <v>241</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>200</v>
+        <v>242</v>
       </c>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
@@ -3423,13 +3688,13 @@
     </row>
     <row r="39">
       <c r="A39" s="5" t="s">
-        <v>201</v>
+        <v>243</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>108</v>
+        <v>151</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="D39" s="5">
         <v>3.5</v>
@@ -3439,10 +3704,10 @@
         <v>7</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>202</v>
+        <v>244</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>203</v>
+        <v>245</v>
       </c>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
@@ -3465,13 +3730,13 @@
     </row>
     <row r="40">
       <c r="A40" s="5" t="s">
-        <v>204</v>
+        <v>246</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>205</v>
+        <v>247</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>206</v>
+        <v>248</v>
       </c>
       <c r="D40" s="5">
         <v>3.25</v>
@@ -3481,10 +3746,10 @@
         <v>6.5</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>207</v>
+        <v>249</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>208</v>
+        <v>250</v>
       </c>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
@@ -3507,13 +3772,13 @@
     </row>
     <row r="41">
       <c r="A41" s="5" t="s">
-        <v>209</v>
+        <v>251</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>210</v>
+        <v>252</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="D41" s="5">
         <v>3.25</v>
@@ -3523,10 +3788,10 @@
         <v>6.5</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>212</v>
+        <v>254</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>137</v>
+        <v>179</v>
       </c>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
@@ -3549,13 +3814,13 @@
     </row>
     <row r="42">
       <c r="A42" s="5" t="s">
-        <v>213</v>
+        <v>255</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>88</v>
+        <v>131</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>81</v>
+        <v>124</v>
       </c>
       <c r="D42" s="5">
         <v>3.25</v>
@@ -3565,10 +3830,10 @@
         <v>6.5</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>214</v>
+        <v>256</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>215</v>
+        <v>257</v>
       </c>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
@@ -3591,13 +3856,13 @@
     </row>
     <row r="43">
       <c r="A43" s="5" t="s">
-        <v>216</v>
+        <v>258</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>108</v>
+        <v>151</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="D43" s="5">
         <v>3.25</v>
@@ -3607,10 +3872,10 @@
         <v>6.5</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>217</v>
+        <v>259</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>218</v>
+        <v>260</v>
       </c>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
@@ -3633,13 +3898,13 @@
     </row>
     <row r="44">
       <c r="A44" s="5" t="s">
-        <v>219</v>
+        <v>261</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>220</v>
+        <v>262</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>135</v>
+        <v>177</v>
       </c>
       <c r="D44" s="5">
         <v>3.25</v>
@@ -3649,10 +3914,10 @@
         <v>6.5</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>221</v>
+        <v>263</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>222</v>
+        <v>264</v>
       </c>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
@@ -3675,13 +3940,13 @@
     </row>
     <row r="45">
       <c r="A45" s="5" t="s">
-        <v>223</v>
+        <v>265</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>130</v>
+        <v>172</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>135</v>
+        <v>177</v>
       </c>
       <c r="D45" s="5">
         <v>3.25</v>
@@ -3691,21 +3956,21 @@
         <v>6.5</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>224</v>
+        <v>266</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>225</v>
+        <v>267</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="5" t="s">
-        <v>226</v>
+        <v>268</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>92</v>
+        <v>135</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="D46" s="5">
         <v>3.0</v>
@@ -3715,21 +3980,21 @@
         <v>6</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>227</v>
+        <v>269</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>86</v>
+        <v>129</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="5" t="s">
-        <v>228</v>
+        <v>270</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>229</v>
+        <v>271</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>81</v>
+        <v>124</v>
       </c>
       <c r="D47" s="5">
         <v>3.0</v>
@@ -3739,21 +4004,21 @@
         <v>6</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>230</v>
+        <v>272</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>231</v>
+        <v>273</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="5" t="s">
-        <v>232</v>
+        <v>274</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>233</v>
+        <v>275</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>81</v>
+        <v>124</v>
       </c>
       <c r="D48" s="5">
         <v>3.0</v>
@@ -3763,7 +4028,7 @@
         <v>6</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>234</v>
+        <v>276</v>
       </c>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
@@ -3786,13 +4051,13 @@
     </row>
     <row r="49">
       <c r="A49" s="5" t="s">
-        <v>235</v>
+        <v>277</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>163</v>
+        <v>205</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>81</v>
+        <v>124</v>
       </c>
       <c r="D49" s="5">
         <v>3.0</v>
@@ -3802,10 +4067,10 @@
         <v>6</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>236</v>
+        <v>278</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>237</v>
+        <v>279</v>
       </c>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
@@ -3828,13 +4093,13 @@
     </row>
     <row r="50">
       <c r="A50" s="5" t="s">
-        <v>238</v>
+        <v>280</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>108</v>
+        <v>151</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="D50" s="5">
         <v>3.0</v>
@@ -3844,10 +4109,10 @@
         <v>6</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>239</v>
+        <v>281</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>240</v>
+        <v>282</v>
       </c>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
@@ -3870,13 +4135,13 @@
     </row>
     <row r="51">
       <c r="A51" s="5" t="s">
-        <v>241</v>
+        <v>283</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>242</v>
+        <v>284</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>81</v>
+        <v>124</v>
       </c>
       <c r="D51" s="5">
         <v>3.0</v>
@@ -3886,10 +4151,10 @@
         <v>6</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>243</v>
+        <v>285</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>242</v>
+        <v>284</v>
       </c>
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
@@ -3912,13 +4177,13 @@
     </row>
     <row r="52">
       <c r="A52" s="5" t="s">
-        <v>244</v>
+        <v>286</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>245</v>
+        <v>287</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>135</v>
+        <v>177</v>
       </c>
       <c r="D52" s="5">
         <v>3.0</v>
@@ -3928,10 +4193,10 @@
         <v>6</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>246</v>
+        <v>288</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>247</v>
+        <v>289</v>
       </c>
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
@@ -3954,13 +4219,13 @@
     </row>
     <row r="53">
       <c r="A53" s="5" t="s">
-        <v>248</v>
+        <v>290</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>108</v>
+        <v>151</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>81</v>
+        <v>124</v>
       </c>
       <c r="D53" s="5">
         <v>3.0</v>
@@ -3970,10 +4235,10 @@
         <v>6</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>249</v>
+        <v>291</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>250</v>
+        <v>292</v>
       </c>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
@@ -3996,13 +4261,13 @@
     </row>
     <row r="54">
       <c r="A54" s="5" t="s">
-        <v>251</v>
+        <v>293</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>108</v>
+        <v>151</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="D54" s="5">
         <v>2.5</v>
@@ -4012,10 +4277,10 @@
         <v>5</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>252</v>
+        <v>294</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>253</v>
+        <v>295</v>
       </c>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
@@ -4038,13 +4303,13 @@
     </row>
     <row r="55">
       <c r="A55" s="5" t="s">
-        <v>254</v>
+        <v>296</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>163</v>
+        <v>205</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>178</v>
+        <v>220</v>
       </c>
       <c r="D55" s="5">
         <v>2.5</v>
@@ -4054,10 +4319,10 @@
         <v>5</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>255</v>
+        <v>297</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>86</v>
+        <v>129</v>
       </c>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
@@ -4080,13 +4345,13 @@
     </row>
     <row r="56">
       <c r="A56" s="5" t="s">
-        <v>256</v>
+        <v>298</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>257</v>
+        <v>299</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="D56" s="5">
         <v>1.5</v>
@@ -4096,10 +4361,10 @@
         <v>3</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>258</v>
+        <v>300</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>259</v>
+        <v>301</v>
       </c>
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
@@ -4122,13 +4387,13 @@
     </row>
     <row r="57">
       <c r="A57" s="5" t="s">
-        <v>260</v>
+        <v>302</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>261</v>
+        <v>303</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="D57" s="5">
         <v>0.5</v>
@@ -4138,10 +4403,10 @@
         <v>1</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>262</v>
+        <v>304</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>263</v>
+        <v>305</v>
       </c>
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
@@ -4164,13 +4429,13 @@
     </row>
     <row r="58">
       <c r="A58" s="5" t="s">
-        <v>264</v>
+        <v>306</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>108</v>
+        <v>151</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="D58" s="5">
         <v>0.5</v>
@@ -4180,10 +4445,10 @@
         <v>1</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>265</v>
+        <v>307</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>266</v>
+        <v>308</v>
       </c>
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
@@ -4205,7 +4470,7 @@
       <c r="Z58" s="4"/>
     </row>
     <row r="59">
-      <c r="A59" s="4"/>
+      <c r="A59" s="5"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
@@ -29666,22 +29931,22 @@
         <v>8</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
@@ -29704,13 +29969,13 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>267</v>
+        <v>309</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>268</v>
+        <v>310</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>81</v>
+        <v>124</v>
       </c>
       <c r="D2" s="5">
         <v>4.0</v>
@@ -29720,10 +29985,10 @@
         <v>8</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>269</v>
+        <v>311</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>237</v>
+        <v>279</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
@@ -29746,13 +30011,13 @@
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
-        <v>270</v>
+        <v>312</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>271</v>
+        <v>313</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>121</v>
+        <v>164</v>
       </c>
       <c r="D3" s="5">
         <v>4.0</v>
@@ -29762,10 +30027,10 @@
         <v>8</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>272</v>
+        <v>314</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>273</v>
+        <v>315</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
@@ -29788,13 +30053,13 @@
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
-        <v>274</v>
+        <v>316</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>275</v>
+        <v>317</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="D4" s="1">
         <v>4.0</v>
@@ -29804,10 +30069,10 @@
         <v>8</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>276</v>
+        <v>318</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>277</v>
+        <v>319</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
@@ -29830,13 +30095,13 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>278</v>
+        <v>320</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>279</v>
+        <v>321</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>81</v>
+        <v>124</v>
       </c>
       <c r="D5" s="1">
         <v>4.0</v>
@@ -29846,21 +30111,21 @@
         <v>8</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>280</v>
+        <v>322</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>281</v>
+        <v>323</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>282</v>
+        <v>324</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>268</v>
+        <v>310</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>206</v>
+        <v>248</v>
       </c>
       <c r="D6" s="5">
         <v>3.5</v>
@@ -29870,21 +30135,21 @@
         <v>7</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>283</v>
+        <v>325</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>284</v>
+        <v>326</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>285</v>
+        <v>327</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>275</v>
+        <v>317</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>81</v>
+        <v>124</v>
       </c>
       <c r="D7" s="1">
         <v>3.0</v>
@@ -29894,21 +30159,21 @@
         <v>6</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>286</v>
+        <v>328</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>287</v>
+        <v>329</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>288</v>
+        <v>330</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>271</v>
+        <v>313</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="D8" s="1">
         <v>3.0</v>
@@ -29918,21 +30183,21 @@
         <v>6</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>289</v>
+        <v>331</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>290</v>
+        <v>332</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
-        <v>291</v>
+        <v>333</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>275</v>
+        <v>317</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="D9" s="1">
         <v>2.5</v>
@@ -29942,21 +30207,21 @@
         <v>5</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>292</v>
+        <v>334</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>86</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
-        <v>293</v>
+        <v>335</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>294</v>
+        <v>336</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>178</v>
+        <v>220</v>
       </c>
       <c r="D10" s="1">
         <v>2.0</v>
@@ -29966,21 +30231,21 @@
         <v>4</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>295</v>
+        <v>337</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>86</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>296</v>
+        <v>338</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>271</v>
+        <v>313</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="D11" s="1">
         <v>2.0</v>
@@ -29990,21 +30255,21 @@
         <v>4</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>297</v>
+        <v>339</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>86</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>298</v>
+        <v>340</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>271</v>
+        <v>313</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>178</v>
+        <v>220</v>
       </c>
       <c r="D12" s="1">
         <v>3.0</v>
@@ -30014,10 +30279,10 @@
         <v>6</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>299</v>
+        <v>341</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>300</v>
+        <v>342</v>
       </c>
     </row>
   </sheetData>
@@ -30048,22 +30313,22 @@
         <v>8</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
@@ -30086,13 +30351,13 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>301</v>
+        <v>343</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>302</v>
+        <v>344</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="D2" s="1">
         <v>4.5</v>
@@ -30102,21 +30367,21 @@
         <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>303</v>
+        <v>345</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>304</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>305</v>
+        <v>347</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>306</v>
+        <v>348</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="D3" s="1">
         <v>4.0</v>
@@ -30126,21 +30391,21 @@
         <v>8</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>307</v>
+        <v>349</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>308</v>
+        <v>350</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>309</v>
+        <v>351</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>306</v>
+        <v>348</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>81</v>
+        <v>124</v>
       </c>
       <c r="D4" s="1">
         <v>4.0</v>
@@ -30150,21 +30415,21 @@
         <v>8</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>310</v>
+        <v>352</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>311</v>
+        <v>353</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>312</v>
+        <v>354</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>313</v>
+        <v>355</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>314</v>
+        <v>356</v>
       </c>
       <c r="D5" s="1">
         <v>4.0</v>
@@ -30174,21 +30439,21 @@
         <v>8</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>315</v>
+        <v>357</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>316</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>317</v>
+        <v>358</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>302</v>
+        <v>344</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>314</v>
+        <v>356</v>
       </c>
       <c r="D6" s="1">
         <v>4.0</v>
@@ -30198,15 +30463,15 @@
         <v>8</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>318</v>
+        <v>359</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>319</v>
+        <v>360</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>302</v>
+        <v>344</v>
       </c>
       <c r="D7" s="1">
         <v>4.0</v>
@@ -30216,15 +30481,15 @@
         <v>8</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>320</v>
+        <v>361</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>321</v>
+        <v>362</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>302</v>
+        <v>344</v>
       </c>
       <c r="D8" s="1">
         <v>4.0</v>
@@ -30234,18 +30499,18 @@
         <v>8</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>322</v>
+        <v>363</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>323</v>
+        <v>364</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>302</v>
+        <v>344</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>314</v>
+        <v>356</v>
       </c>
       <c r="D9" s="1">
         <v>4.0</v>
@@ -30255,18 +30520,18 @@
         <v>8</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>324</v>
+        <v>365</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>325</v>
+        <v>366</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>302</v>
+        <v>344</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>314</v>
+        <v>356</v>
       </c>
       <c r="D10" s="1">
         <v>3.5</v>
@@ -30276,18 +30541,18 @@
         <v>7</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>326</v>
+        <v>367</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>327</v>
+        <v>368</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>306</v>
+        <v>348</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="D11" s="1">
         <v>3.5</v>
@@ -30297,21 +30562,21 @@
         <v>7</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>328</v>
+        <v>369</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>329</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>330</v>
+        <v>370</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>331</v>
+        <v>371</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>332</v>
+        <v>106</v>
       </c>
       <c r="D12" s="1">
         <v>3.5</v>
@@ -30319,6 +30584,9 @@
       <c r="E12" s="4">
         <f t="shared" si="1"/>
         <v>7</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>372</v>
       </c>
     </row>
   </sheetData>
@@ -30350,21 +30618,21 @@
         <v>8</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>333</v>
+        <v>373</v>
       </c>
       <c r="B2" s="1">
         <v>4.5</v>
@@ -30374,15 +30642,15 @@
         <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>334</v>
+        <v>374</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>335</v>
+        <v>375</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>336</v>
+        <v>376</v>
       </c>
       <c r="B3" s="1">
         <v>4.0</v>
@@ -30392,15 +30660,15 @@
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>337</v>
+        <v>377</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>338</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>339</v>
+        <v>378</v>
       </c>
       <c r="B4" s="1">
         <v>4.0</v>
@@ -30410,15 +30678,15 @@
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>340</v>
+        <v>379</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>341</v>
+        <v>380</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>342</v>
+        <v>381</v>
       </c>
       <c r="B5" s="1">
         <v>4.0</v>
@@ -30428,15 +30696,15 @@
         <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>343</v>
+        <v>382</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>344</v>
+        <v>383</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>345</v>
+        <v>384</v>
       </c>
       <c r="B6" s="1">
         <v>4.0</v>
@@ -30446,15 +30714,15 @@
         <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>346</v>
+        <v>385</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>347</v>
+        <v>386</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>348</v>
+        <v>387</v>
       </c>
       <c r="B7" s="1">
         <v>4.0</v>
@@ -30464,15 +30732,15 @@
         <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>349</v>
+        <v>388</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>350</v>
+        <v>389</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>351</v>
+        <v>390</v>
       </c>
       <c r="B8" s="1">
         <v>4.0</v>
@@ -30482,15 +30750,15 @@
         <v>8</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>352</v>
+        <v>391</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>353</v>
+        <v>392</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>354</v>
+        <v>393</v>
       </c>
       <c r="B9" s="1">
         <v>4.0</v>
@@ -30500,15 +30768,15 @@
         <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>355</v>
+        <v>394</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>356</v>
+        <v>395</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>357</v>
+        <v>396</v>
       </c>
       <c r="B10" s="1">
         <v>3.5</v>
@@ -30518,15 +30786,15 @@
         <v>7</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>358</v>
+        <v>397</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>359</v>
+        <v>398</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>360</v>
+        <v>399</v>
       </c>
       <c r="B11" s="1">
         <v>3.5</v>
@@ -30536,15 +30804,15 @@
         <v>7</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>361</v>
+        <v>400</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>362</v>
+        <v>401</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>363</v>
+        <v>402</v>
       </c>
       <c r="B12" s="1">
         <v>3.5</v>
@@ -30554,15 +30822,15 @@
         <v>7</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>364</v>
+        <v>403</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>218</v>
+        <v>260</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>365</v>
+        <v>404</v>
       </c>
       <c r="B13" s="1">
         <v>3.0</v>
@@ -30572,15 +30840,15 @@
         <v>6</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>366</v>
+        <v>405</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>367</v>
+        <v>406</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>368</v>
+        <v>407</v>
       </c>
       <c r="B14" s="1">
         <v>3.0</v>
@@ -30590,15 +30858,15 @@
         <v>6</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>369</v>
+        <v>408</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>149</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>370</v>
+        <v>409</v>
       </c>
       <c r="B15" s="1">
         <v>2.5</v>
@@ -30608,7 +30876,7 @@
         <v>5</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>371</v>
+        <v>410</v>
       </c>
     </row>
   </sheetData>

--- a/ATL-Food-and-Drink-Review-List.xlsx
+++ b/ATL-Food-and-Drink-Review-List.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="459">
   <si>
     <t>The designations of "Vegan" are used to roughly quantify the percentage of the menu items that are vegan:</t>
   </si>
@@ -74,7 +74,7 @@
     <t>Bahel Ethipoian Restaurant</t>
   </si>
   <si>
-    <t>3125 Briarcliff Rd NE ste c, Atlanta, GA 30329</t>
+    <t>3125 Briarcliff Rd NE, Atlanta, GA 30329</t>
   </si>
   <si>
     <t>Maepole</t>
@@ -89,1152 +89,1284 @@
     <t>1302 W Peachtree St NW, Atlanta, GA 30309</t>
   </si>
   <si>
+    <t>Sweet Water Brewing</t>
+  </si>
+  <si>
+    <t>Bars</t>
+  </si>
+  <si>
+    <t>195 Ottley Drive Northeast, Atlanta, GA 30324</t>
+  </si>
+  <si>
+    <t>Three Taverns Imaginarium</t>
+  </si>
+  <si>
+    <t>777 Memorial Dr SE Suite B103, Atlanta, GA 30316</t>
+  </si>
+  <si>
+    <t>The Rooftop at Clermont</t>
+  </si>
+  <si>
+    <t>789 Ponce De Leon Ave NE, Atlanta, GA 30306</t>
+  </si>
+  <si>
+    <t>Ranger Station Speakeasy</t>
+  </si>
+  <si>
+    <t>684 John Wesley Dobbs Ave NE Unit J, Atlanta, GA 30312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tabla </t>
+  </si>
+  <si>
+    <t>77 12th St NE, Atlanta, GA 30309</t>
+  </si>
+  <si>
+    <t>Yakitori Kona</t>
+  </si>
+  <si>
+    <t>1004 Virginia Ave NE, Atlanta, GA 30306</t>
+  </si>
+  <si>
+    <t>Vegan Food Social (ATL utility works)</t>
+  </si>
+  <si>
+    <t>2903 RN Martin St, East Point, GA 30344</t>
+  </si>
+  <si>
+    <t>Cafe Sunflower</t>
+  </si>
+  <si>
+    <t>2140 Peachtree Rd, Atlanta, GA 30309</t>
+  </si>
+  <si>
+    <t>Coyote's Mexican Grill</t>
+  </si>
+  <si>
+    <t>105 Sycamore Pl, Decatur, GA 30030</t>
+  </si>
+  <si>
+    <t>Arepa Mia</t>
+  </si>
+  <si>
+    <t>10 N Clarendon Ave Suite A, Avondale Estates, GA 30002</t>
+  </si>
+  <si>
+    <t>Chai Pani</t>
+  </si>
+  <si>
+    <t>406 W Ponce de Leon Ave, Decatur, GA 30030</t>
+  </si>
+  <si>
+    <t>Ruby Chow</t>
+  </si>
+  <si>
+    <t>620 Glen Iris Dr NE, Atlanta, GA 30308</t>
+  </si>
+  <si>
+    <t>Masterpiece</t>
+  </si>
+  <si>
+    <t>3940 Buford Hwy, Duluth, GA 30096</t>
+  </si>
+  <si>
+    <t>Whoopsies</t>
+  </si>
+  <si>
+    <t>1 Moreland Ave SE, Atlanta, GA 30316</t>
+  </si>
+  <si>
+    <t>Estrellita Filipino</t>
+  </si>
+  <si>
+    <t>580 Woodward Ave SE, Atlanta, GA 30312</t>
+  </si>
+  <si>
+    <t>Bacelona Wine Bar</t>
+  </si>
+  <si>
+    <t>240 North Highland Avenue Northeast, Atlanta, GA 30307</t>
+  </si>
+  <si>
+    <t>Pho Bac</t>
+  </si>
+  <si>
+    <t>4897 Buford Hwy, Chamblee, GA 30341</t>
+  </si>
+  <si>
+    <t>Kamayan ATL - Filipino Restaurant</t>
+  </si>
+  <si>
+    <t>5150 Buford Hwy, Doraville, GA 30340</t>
+  </si>
+  <si>
+    <t>VeGreen Vegan Fusion Restaurant</t>
+  </si>
+  <si>
+    <t>3780 Old Norcross Rd, Duluth, GA 30096</t>
+  </si>
+  <si>
+    <t>Lee's Bakery</t>
+  </si>
+  <si>
+    <t>4005 Buford Hwy Suite C, Atlanta, GA 30345</t>
+  </si>
+  <si>
+    <t>Chat Patti Indian Vegetarian Restaurant</t>
+  </si>
+  <si>
+    <t>1707 Church St, Decatur, GA 30033</t>
+  </si>
+  <si>
+    <t>Desi Spice Indian Cuisine</t>
+  </si>
+  <si>
+    <t>Midtown Promenade, 931 Monroe Dr NE, Atlanta, GA 30308</t>
+  </si>
+  <si>
+    <t>Bakaris Pizza</t>
+  </si>
+  <si>
+    <t>576 Lee St SW, Atlanta, GA 30310</t>
+  </si>
+  <si>
+    <t>Shoya Izakaya</t>
+  </si>
+  <si>
+    <t>6035 Peachtree Rd, Doraville, GA 30340</t>
+  </si>
+  <si>
+    <t>My Parents Basement</t>
+  </si>
+  <si>
+    <t>22 N Avondale Rd, Avondale Estates, GA 30002</t>
+  </si>
+  <si>
+    <t>Moonlight</t>
+  </si>
+  <si>
+    <t>800 Rankin St NE, Atlanta, GA 30308</t>
+  </si>
+  <si>
+    <t>Stereo</t>
+  </si>
+  <si>
+    <t>900 DeKalb Ave NE suite f, Atlanta, GA 30307</t>
+  </si>
+  <si>
+    <t>Your DeKalb Farmers Market</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grocery store </t>
+  </si>
+  <si>
+    <t>3000 E Ponce de Leon Ave, Decatur, GA 30030</t>
+  </si>
+  <si>
+    <t>TESO Life</t>
+  </si>
+  <si>
+    <t>Grocery store</t>
+  </si>
+  <si>
+    <t>2180 Pleasant Hill Rd SUITE F, Duluth, GA 30096</t>
+  </si>
+  <si>
+    <t>Lov'n it live</t>
+  </si>
+  <si>
+    <t>2796 E Point St, East Point, GA 30344</t>
+  </si>
+  <si>
+    <t>Planted soul</t>
+  </si>
+  <si>
+    <t>3569 Main St, College Park, GA 30337</t>
+  </si>
+  <si>
+    <t>Yalda</t>
+  </si>
+  <si>
+    <t>980 Howell Mill Rd Suite 4, Atlanta, GA 30318</t>
+  </si>
+  <si>
+    <t>Madre Selva</t>
+  </si>
+  <si>
+    <t>570 Main St, Atlanta, GA 30324</t>
+  </si>
+  <si>
+    <t>Okiboru Tsukemen &amp; Ramen</t>
+  </si>
+  <si>
+    <t>2277 Peachtree Rd NE, Atlanta, GA 30309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mellow Mushroom </t>
+  </si>
+  <si>
+    <t>931 Monroe Dr NE, Atlanta, GA 30308</t>
+  </si>
+  <si>
+    <t>La Hacienda Midtown</t>
+  </si>
+  <si>
+    <t>900 Monroe Dr NE, Atlanta, GA 30308</t>
+  </si>
+  <si>
+    <t>Redacted</t>
+  </si>
+  <si>
+    <t>63b Georgia Avenue, Atlanta, GA 30312</t>
+  </si>
+  <si>
+    <t>7th House</t>
+  </si>
+  <si>
+    <t>565 Northside Dr SW suite a103, Atlanta, GA 30310</t>
+  </si>
+  <si>
+    <t>NFA Burger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Restaurants </t>
+  </si>
+  <si>
+    <t>5465 Chamblee Dunwoody Rd, Dunwoody, GA 30338</t>
+  </si>
+  <si>
+    <t>Homegrown Restaurant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Restaurant </t>
+  </si>
+  <si>
+    <t>968 Memorial Dr SE, Atlanta, GA 30316</t>
+  </si>
+  <si>
+    <t>Gaja Korean Bar</t>
+  </si>
+  <si>
+    <t>Restaurant</t>
+  </si>
+  <si>
+    <t>491 Flat Shoals Ave SE, Atlanta, GA 30316</t>
+  </si>
+  <si>
+    <t>So So Fed</t>
+  </si>
+  <si>
+    <t>714 Moreland Ave SE Suite D, Atlanta, GA 30316</t>
+  </si>
+  <si>
+    <t>Glide Pizza</t>
+  </si>
+  <si>
+    <t>659 Auburn Ave NE, Atlanta, GA 30312, USA</t>
+  </si>
+  <si>
+    <t>Psito</t>
+  </si>
+  <si>
+    <t>25 Georgia Ave, Atlanta, GA 30312</t>
+  </si>
+  <si>
+    <t>E+ROSE Wellness Cafe</t>
+  </si>
+  <si>
+    <t>1100 Howell Mill Rd NW, Atlanta, GA 30318</t>
+  </si>
+  <si>
+    <t>Yuji Modern Japanese</t>
+  </si>
+  <si>
+    <t>667 Auburn Ave NE suite 122, Atlanta, GA 30312</t>
+  </si>
+  <si>
+    <t>Dips Kitchen</t>
+  </si>
+  <si>
+    <t>99 Krog St NE, Atlanta, GA 30307</t>
+  </si>
+  <si>
+    <t>LanZhou Ramen</t>
+  </si>
+  <si>
+    <t>5231 Buford Hwy, Doraville, GA 30340</t>
+  </si>
+  <si>
+    <t>El Rey Del Taco</t>
+  </si>
+  <si>
+    <t>5288 Buford Hwy, Doraville, GA 30340</t>
+  </si>
+  <si>
+    <t>Stone Bowl House</t>
+  </si>
+  <si>
+    <t>Restuarant</t>
+  </si>
+  <si>
+    <t>5953 Buford Hwy, Doraville, GA 30340</t>
+  </si>
+  <si>
+    <t>MF Sushi</t>
+  </si>
+  <si>
+    <t>299 North Highland Avenue Northeast, Atlanta, GA 30307</t>
+  </si>
+  <si>
+    <t>Cuisine</t>
+  </si>
+  <si>
+    <t>Vegan</t>
+  </si>
+  <si>
+    <t>Stars (of 5)</t>
+  </si>
+  <si>
+    <t>Stars (of 10)</t>
+  </si>
+  <si>
+    <t>Additional Notes</t>
+  </si>
+  <si>
+    <t>Delbar (Inman Park)</t>
+  </si>
+  <si>
+    <t>Persian</t>
+  </si>
+  <si>
+    <t>Partially</t>
+  </si>
+  <si>
+    <t>870 Inman Villge Pkwy NE Suite 1, Atlanta, GA 30307</t>
+  </si>
+  <si>
+    <t>Little Bear</t>
+  </si>
+  <si>
+    <t>Rotating</t>
+  </si>
+  <si>
+    <t>creative and inventive food</t>
+  </si>
+  <si>
+    <t>71 Georgia Ave SE Unit A, Atlanta, GA 30312</t>
+  </si>
+  <si>
+    <t>Talat Market</t>
+  </si>
+  <si>
+    <t>Thai</t>
+  </si>
+  <si>
+    <t>Partially/Minimally</t>
+  </si>
+  <si>
+    <t>flavorful fancy Thai, vegan accomidating</t>
+  </si>
+  <si>
+    <t>112 Ormond St SE, Atlanta, GA 30315</t>
+  </si>
+  <si>
+    <t>Banshee</t>
+  </si>
+  <si>
+    <t>New American</t>
+  </si>
+  <si>
+    <t>Minimally</t>
+  </si>
+  <si>
+    <t>drinks, atmosphere, and food were all really good. Service was surprisingly fantastic. Had for food Beet-pistachio terrine (V) was rally good, yellowedge grouper. Stately Hag drink was a riff on a marg</t>
+  </si>
+  <si>
+    <t>1271 Glenwood Ave SE, Atlanta, GA 30316</t>
+  </si>
+  <si>
+    <t>Herban Fix</t>
+  </si>
+  <si>
+    <t>Asian</t>
+  </si>
+  <si>
+    <t>Fully</t>
+  </si>
+  <si>
+    <t>Closed down :(</t>
+  </si>
+  <si>
+    <t>565 Peachtree St NE, Atlanta, GA 30308</t>
+  </si>
+  <si>
+    <t>Botiwalla (By Chai Pani)</t>
+  </si>
+  <si>
+    <t>Indian</t>
+  </si>
+  <si>
+    <t>haven't had a bad item yet!</t>
+  </si>
+  <si>
+    <t>Ponce City Market, 675 Ponce De Leon Ave NE, Atlanta, GA 30308</t>
+  </si>
+  <si>
+    <t>bomb biscuits</t>
+  </si>
+  <si>
+    <t>Southern</t>
+  </si>
+  <si>
+    <t>fully plant based biscuit egg sausage sandwiches, homemade plant-based sausage. Really good</t>
+  </si>
+  <si>
+    <t>668 North Highland Avenue Northeast, Atlanta, GA 30312</t>
+  </si>
+  <si>
+    <t>Quoc Huong Banh Mi</t>
+  </si>
+  <si>
+    <t>Vietnamese</t>
+  </si>
+  <si>
+    <t>$4-5 for a Bahn Mi. Super cheap. Best Bahn Mi i've had (Joe) in a long time.</t>
+  </si>
+  <si>
+    <t>Desta</t>
+  </si>
+  <si>
+    <t>Ethiopian</t>
+  </si>
+  <si>
+    <t>lots of food at a good price, great spot</t>
+  </si>
+  <si>
+    <t>2566 Briarcliff Rd Suite 101, Atlanta, GA 30329</t>
+  </si>
+  <si>
+    <t>Northern China Eatery</t>
+  </si>
+  <si>
+    <t>Chinese</t>
+  </si>
+  <si>
+    <t>good soup dumpling and eggplant</t>
+  </si>
+  <si>
+    <t>5141 Buford Hwy Suite C, Doraville, GA 30340</t>
+  </si>
+  <si>
+    <t>Vegan House of Pancakes</t>
+  </si>
+  <si>
+    <t>Breakfast</t>
+  </si>
+  <si>
+    <t>Pancakes were big and delicious, and additions were good as well</t>
+  </si>
+  <si>
+    <t>1367 Cleveland Ave, East Point, GA 30344</t>
+  </si>
+  <si>
+    <t>El Santo Gallo</t>
+  </si>
+  <si>
+    <t>Mexican</t>
+  </si>
+  <si>
+    <t>would be 4 with vegan protein option, Pastor costra burrito tasty! Seemingly small operation (out of a lot of stuff when we went!)</t>
+  </si>
+  <si>
+    <t>950 West Marietta St NW, Atlanta, GA 30318</t>
+  </si>
+  <si>
+    <t>OK Yaki</t>
+  </si>
+  <si>
+    <t>Japanese</t>
+  </si>
+  <si>
+    <t>Okonomiyaki was good! good ambience, drink menu looked fun</t>
+  </si>
+  <si>
+    <t>Tyde Tate Kitchen</t>
+  </si>
+  <si>
+    <t>solid Thai, medium spice was HOT fyi</t>
+  </si>
+  <si>
+    <t>229 Mitchell St SW, Atlanta, GA 30303</t>
+  </si>
+  <si>
+    <t>La Semilla</t>
+  </si>
+  <si>
+    <t>Latin</t>
+  </si>
+  <si>
+    <t>good for amenable non-vegans to dive into plant based food</t>
+  </si>
+  <si>
+    <t>780 Memorial Dr SE Unit 4A, Atlanta, GA 30316</t>
+  </si>
+  <si>
+    <t>Recess</t>
+  </si>
+  <si>
+    <t>Salad Bowls</t>
+  </si>
+  <si>
+    <t>Mostly</t>
+  </si>
+  <si>
+    <t>Typical choose your adventure spot</t>
+  </si>
+  <si>
+    <t>99 Krog St NE Suite P, Atlanta, GA 30307</t>
+  </si>
+  <si>
+    <t>El Super Pan</t>
+  </si>
+  <si>
+    <t>loaded sandwiches/cubanos. Less traditonal but good</t>
+  </si>
+  <si>
+    <t>Elektra</t>
+  </si>
+  <si>
+    <t>Mediterranean</t>
+  </si>
+  <si>
+    <t>vibes were high, French fries and mussels were a good value</t>
+  </si>
+  <si>
+    <t>Argosy</t>
+  </si>
+  <si>
+    <t>American</t>
+  </si>
+  <si>
+    <t>bar was cool, food not bad</t>
+  </si>
+  <si>
+    <t>470 Flat Shoals Ave SE, Atlanta, GA 30316</t>
+  </si>
+  <si>
+    <t>Papi's Cuban Cuisine</t>
+  </si>
+  <si>
+    <t>Cuban</t>
+  </si>
+  <si>
+    <t>Minimally/None</t>
+  </si>
+  <si>
+    <t>solid traditional cubano and tres leches</t>
+  </si>
+  <si>
+    <t>Ela</t>
+  </si>
+  <si>
+    <t>pita not vegan and no alternative</t>
+  </si>
+  <si>
+    <t>1186 North Highland Avenue Northeast, Atlanta, GA 30306</t>
+  </si>
+  <si>
+    <t>Mushi Ni</t>
+  </si>
+  <si>
+    <t>Bao</t>
+  </si>
+  <si>
+    <t>Tofu Bao was tasty</t>
+  </si>
+  <si>
+    <t>1235 Chattahoochee Ave, Suite 130 Atlanta, GA 30318</t>
+  </si>
+  <si>
+    <t>Calaveritas Taqueria Vegana</t>
+  </si>
+  <si>
+    <t>solid vegan street tacos</t>
+  </si>
+  <si>
+    <t>3795 Presidential Pkwy, Atlanta, GA 30340</t>
+  </si>
+  <si>
+    <t>El Tesoro</t>
+  </si>
+  <si>
+    <t>pretty good soy chorizo and quesadillas</t>
+  </si>
+  <si>
+    <t>1010 White St SW, Atlanta, GA 30310</t>
+  </si>
+  <si>
+    <t>Ton Ton Ramen</t>
+  </si>
+  <si>
+    <t>Ramen</t>
+  </si>
+  <si>
+    <t>tasty ramen, nothing spectacular but solid</t>
+  </si>
+  <si>
+    <t>675 Ponce De Leon Ave NE, Atlanta, GA 30308</t>
+  </si>
+  <si>
+    <t>Food Terminal</t>
+  </si>
+  <si>
+    <t>Malaysian</t>
+  </si>
+  <si>
+    <t>massive menu of eats, curry laksa is the move</t>
+  </si>
+  <si>
+    <t>5000 Buford Hwy, Chamblee, GA 30341</t>
+  </si>
+  <si>
+    <t>Kitty Dare</t>
+  </si>
+  <si>
+    <t>Mediterranean Fusion</t>
+  </si>
+  <si>
+    <t>eggplant was tasty but mains were lackluster</t>
+  </si>
+  <si>
+    <t>1029 Edgewood Ave NE, Atlanta, GA 30307</t>
+  </si>
+  <si>
+    <t>Pizza Verdura Sincera</t>
+  </si>
+  <si>
+    <t>Pizza</t>
+  </si>
+  <si>
+    <t>solid vegan pizza, desserts are a scam</t>
+  </si>
+  <si>
+    <t>377 Moreland Ave NE, Atlanta, GA 30307</t>
+  </si>
+  <si>
+    <t>JenChan's</t>
+  </si>
+  <si>
+    <t>Chinese/Pizza</t>
+  </si>
+  <si>
+    <t>pretty good Chinese nearby</t>
+  </si>
+  <si>
+    <t>186 Carroll St SE, Atlanta, GA 30312</t>
+  </si>
+  <si>
+    <t>Nam Phuong</t>
+  </si>
+  <si>
+    <t>tasty Vietnamese but tofu dish barely had any tofu, Pho is supposed to be the best in ATL but didn't have</t>
+  </si>
+  <si>
+    <t>4051 Buford Hwy, Atlanta, GA 30345</t>
+  </si>
+  <si>
+    <t>Harmony Vegetarian</t>
+  </si>
+  <si>
+    <t>good Chinese vegetarian spot with more vegan options and better prices than other options on the list (e.g. Northern China eatery)</t>
+  </si>
+  <si>
+    <t>4897 Buford Hwy #109, Chamblee, GA 30341</t>
+  </si>
+  <si>
+    <t>Woody’s Cheesesteaks</t>
+  </si>
+  <si>
+    <t>Go Birds</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>good philly replica, good price per size</t>
+  </si>
+  <si>
+    <t>981 Monroe Dr NE, Atlanta, GA 30308</t>
+  </si>
+  <si>
+    <t>Tasili's Raw Vegan</t>
+  </si>
+  <si>
+    <t>Wraps</t>
+  </si>
+  <si>
+    <t>very good wrap full of spicy kale, we got the wrap at sevananda</t>
+  </si>
+  <si>
+    <t>1059 Ralph David Abernathy Blvd, Atlanta, GA 30310</t>
+  </si>
+  <si>
+    <t>Rina</t>
+  </si>
+  <si>
+    <t>good falafel, fries, and hummus. A bit too pricy though</t>
+  </si>
+  <si>
+    <t>699 Ponce De Leon Ave NE suite 9, Atlanta, GA 30308</t>
+  </si>
+  <si>
+    <t>Victory Sandwich Bar (Inman Park)</t>
+  </si>
+  <si>
+    <t>good all around vibes, drinks, food</t>
+  </si>
+  <si>
+    <t>913 Bernina Ave NE, Atlanta, GA 30307</t>
+  </si>
+  <si>
+    <t>Mediterranea Restaurant &amp; Bakery</t>
+  </si>
+  <si>
+    <t>good drink menu with lots of NA options, pizza was good</t>
+  </si>
+  <si>
+    <t>332 Ormond St SE ste 101, Atlanta, GA 30315</t>
+  </si>
+  <si>
+    <t>Surina Thai</t>
+  </si>
+  <si>
+    <t>garlic brocc with tofu solid, house special Kao Cook Kapi tasted authentic and flavorful</t>
+  </si>
+  <si>
+    <t>2390 Chamblee Tucker Rd, Chamblee, GA 30341</t>
+  </si>
+  <si>
+    <t>Muchacho</t>
+  </si>
+  <si>
+    <t>Mexican/Brunch</t>
+  </si>
+  <si>
+    <t>cute atmosphere, nice patio, food was just average</t>
+  </si>
+  <si>
+    <t>904 Memorial Dr SE, Atlanta, GA 30316</t>
+  </si>
+  <si>
+    <t>Antiguo Lobo</t>
+  </si>
+  <si>
+    <t>guac was fresco (i.e. avocado chunks), had hibuscus taco (vegan) which was different, food was solid</t>
+  </si>
+  <si>
+    <t>5370 Peachtree Rd Suite A, Chamblee, GA 30341</t>
+  </si>
+  <si>
+    <t>Te Quiero, Tacos</t>
+  </si>
+  <si>
+    <t>Pop-up at HC Biergarten, Solid street taco and burrito</t>
+  </si>
+  <si>
+    <t>640 Reed St SE, Atlanta, GA 30312</t>
+  </si>
+  <si>
+    <t>Flower Child Westside Provisions</t>
+  </si>
+  <si>
+    <t>Health Food</t>
+  </si>
+  <si>
+    <t>Good wraps, kung pow cauliflower</t>
+  </si>
+  <si>
+    <t>1170 Howell Mill Rd, Atlanta, GA 30318</t>
+  </si>
+  <si>
+    <t>Barbacoa</t>
+  </si>
+  <si>
+    <t>Tapas</t>
+  </si>
+  <si>
+    <t>Minmally</t>
+  </si>
+  <si>
+    <t>OK tacos in VaHi</t>
+  </si>
+  <si>
+    <t>1000 Virginia Ave NE, Atlanta, GA 30306</t>
+  </si>
+  <si>
+    <t>Superica (Krog St Market)</t>
+  </si>
+  <si>
+    <t>Tex-Mex</t>
+  </si>
+  <si>
+    <t>Mininmally</t>
+  </si>
+  <si>
+    <t>really slow service, food was fine</t>
+  </si>
+  <si>
+    <t>Soul Vegetarian No. 2</t>
+  </si>
+  <si>
+    <t>Avoid Corn bread at all costs! bit pricey, rest was good</t>
+  </si>
+  <si>
+    <t>652 North Highland Avenue Northeast, Atlanta, GA 30306</t>
+  </si>
+  <si>
+    <t>Vice Taco Truck</t>
+  </si>
+  <si>
+    <t>(Tuesday Popup at 97 Estoria) solid street tacos</t>
+  </si>
+  <si>
+    <t>727 Wylie St SE, Atlanta, GA 30316</t>
+  </si>
+  <si>
+    <t>Freds Meat &amp; Bread</t>
+  </si>
+  <si>
+    <t>Sandwich Shop</t>
+  </si>
+  <si>
+    <t>bread on korean cheesesteak was stale, filling was really good</t>
+  </si>
+  <si>
+    <t>Krog Street Market, 99 Krog St NE, Atlanta, GA 30307</t>
+  </si>
+  <si>
+    <t>Bird &amp; Brew</t>
+  </si>
+  <si>
+    <t>Massive wings, tasty</t>
+  </si>
+  <si>
+    <t>1355 Clairmont Rd, Decatur, GA 30033</t>
+  </si>
+  <si>
+    <t>Planta</t>
+  </si>
+  <si>
+    <t>Asian/Pizza</t>
+  </si>
+  <si>
+    <t>vibes high, good location, food mediocre, happy hour looks cool</t>
+  </si>
+  <si>
+    <t>99 Krog St NE, Suite Y, Atlanta, GA 30307</t>
+  </si>
+  <si>
+    <t>Hippie Hibachi</t>
+  </si>
+  <si>
+    <t>Hibachi</t>
+  </si>
+  <si>
+    <t>1235 Chattahoochee Ave NW Suite 130, Atlanta, GA 30318</t>
+  </si>
+  <si>
+    <t>Plant Based Pizzeria</t>
+  </si>
+  <si>
+    <t>spelt crust was different, overall okay, supplier of Jaime's Cookies</t>
+  </si>
+  <si>
+    <t>730 Barnett St NE, Atlanta, GA 30306</t>
+  </si>
+  <si>
+    <t>Chicheria Mexican Kitchen</t>
+  </si>
+  <si>
+    <t>tacos were OK, margs were pretty good</t>
+  </si>
+  <si>
+    <t>202 Chattahoochee Row NW suite c, Atlanta, GA 30318</t>
+  </si>
+  <si>
+    <t>Mamak Vegan Kitchen</t>
+  </si>
+  <si>
+    <t>2390 Chamblee Tucker Rd Ste 101, Chamblee, GA 30341</t>
+  </si>
+  <si>
+    <t>just okay</t>
+  </si>
+  <si>
+    <t>Indaco</t>
+  </si>
+  <si>
+    <t>Italian</t>
+  </si>
+  <si>
+    <t>Fine italian food, pricey</t>
+  </si>
+  <si>
+    <t>725 Ponce De Leon Ave NE Suite 250, Atlanta, GA 30306</t>
+  </si>
+  <si>
+    <t>Waffl Taco</t>
+  </si>
+  <si>
+    <t>filling was really good, waffle was just fine. Expensive. (located within Union Fitness Hub)</t>
+  </si>
+  <si>
+    <t>828 Ralph McGill Blvd NE, Atlanta, GA 30306</t>
+  </si>
+  <si>
+    <t>Vietvana</t>
+  </si>
+  <si>
+    <t>(Ponce location closed) only had bahn mi which was a bit bland</t>
+  </si>
+  <si>
+    <t>Rreal Tacos (Buckhead)</t>
+  </si>
+  <si>
+    <t>lots of options but too chainy</t>
+  </si>
+  <si>
+    <t>3365 Piedmont Rd NE Suite 1120, Atlanta, GA 30305</t>
+  </si>
+  <si>
+    <t>Pizza Jean</t>
+  </si>
+  <si>
+    <t>okay, very overpriced, only order through TooGoodToGo</t>
+  </si>
+  <si>
+    <t>Buena Vida Tapas Bar</t>
+  </si>
+  <si>
+    <t>Latin/Tapas</t>
+  </si>
+  <si>
+    <t>went for brunch, few options and bland</t>
+  </si>
+  <si>
+    <t>385 N Angier Ave NE Suite 100, Atlanta, GA 30308</t>
+  </si>
+  <si>
+    <t>Suzy Suis Bao</t>
+  </si>
+  <si>
+    <t>Taiwanese/Korean</t>
+  </si>
+  <si>
+    <t>all rice, no flavor</t>
+  </si>
+  <si>
+    <t>Krog Street Market, 99 Krog St NE UNIT J, Atlanta, GA 30307</t>
+  </si>
+  <si>
+    <t>Creme de la Crepe Westend Atlanta</t>
+  </si>
+  <si>
+    <t>Mexican?? Not crepe, really not that good</t>
+  </si>
+  <si>
+    <t>1020 White St SW Stall 13, Atlanta, GA 30310</t>
+  </si>
+  <si>
+    <t>Jaime's Cookie Dough</t>
+  </si>
+  <si>
+    <t>Cookies</t>
+  </si>
+  <si>
+    <t>lots of options, sold at Plant Based Pizzeria, no storefront</t>
+  </si>
+  <si>
+    <t>Revolution Donuts</t>
+  </si>
+  <si>
+    <t>Donuts</t>
+  </si>
+  <si>
+    <t>lots of vegan donuts, fav in ATL, delicious vanilla bean yeast donut</t>
+  </si>
+  <si>
+    <t>745 Edgewood Ave NE, Atlanta, GA 30307</t>
+  </si>
+  <si>
+    <t>Big Softie</t>
+  </si>
+  <si>
+    <t>Ice Cream</t>
+  </si>
+  <si>
+    <t>love me some soft serve (Emilia), vegan crunchywich is great</t>
+  </si>
+  <si>
+    <t>632 North Highland Avenue Northeast, Atlanta, GA 30306</t>
+  </si>
+  <si>
+    <t>Buttafly Kisses</t>
+  </si>
+  <si>
+    <t>Variety</t>
+  </si>
+  <si>
+    <t>tasty cake pops (we get them at sevananda)</t>
+  </si>
+  <si>
+    <t>3999 Austell Rd Ste 355 Austell, GA 30106</t>
+  </si>
+  <si>
+    <t>Munster Cravings</t>
+  </si>
+  <si>
+    <t>great cookie, vegan options</t>
+  </si>
+  <si>
+    <t>1235 Chattahoochee Ave NW, Atlanta, GA 30318</t>
+  </si>
+  <si>
+    <t>Creamy Spot</t>
+  </si>
+  <si>
+    <t>scoop was icy but might be worth going back for a shake</t>
+  </si>
+  <si>
+    <t>1036 White St SW, Atlanta, GA 30310</t>
+  </si>
+  <si>
+    <t>The Salty</t>
+  </si>
+  <si>
+    <t>donut was okay, not many vegan options</t>
+  </si>
+  <si>
+    <t>124 Krog St NE Suite A120, Atlanta, GA 30307</t>
+  </si>
+  <si>
+    <t>Honeysuckle Gelato</t>
+  </si>
+  <si>
+    <t>mediocre and overpriced</t>
+  </si>
+  <si>
+    <t>Cake Culture</t>
+  </si>
+  <si>
+    <t>Crepe Cakes</t>
+  </si>
+  <si>
+    <t>bland, expensive</t>
+  </si>
+  <si>
+    <t>5 Daughters Bakery</t>
+  </si>
+  <si>
+    <t>vegan donuts were not better than a grocery store</t>
+  </si>
+  <si>
+    <t>Donnies Donuts</t>
+  </si>
+  <si>
+    <t>chocolate cake w/ PB, solid, nothing amazing</t>
+  </si>
+  <si>
+    <t>701-5 Highland Ave NE, Atlanta, GA 30312</t>
+  </si>
+  <si>
+    <t>Ash</t>
+  </si>
+  <si>
+    <t>Coffee</t>
+  </si>
+  <si>
+    <t>good coffee, loads of vegan pastries</t>
+  </si>
+  <si>
+    <t>1189 Virginia Ave NE, Atlanta, GA 30306</t>
+  </si>
+  <si>
+    <t>Colette Bake and Breadshop</t>
+  </si>
+  <si>
+    <t>Baked Goods</t>
+  </si>
+  <si>
+    <t>only bread is vegan</t>
+  </si>
+  <si>
+    <t>636 North Highland Avenue Northeast, Atlanta, GA 30306</t>
+  </si>
+  <si>
+    <t>Flour &amp; Time</t>
+  </si>
+  <si>
+    <t>tasty apple pie</t>
+  </si>
+  <si>
+    <t>1133 Huff Rd NW suite f, Atlanta, GA 30318</t>
+  </si>
+  <si>
+    <t>Bar Premio</t>
+  </si>
+  <si>
+    <t>Coffee/Bar</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>the bar outside the steakhouse</t>
+  </si>
+  <si>
+    <t>Finca to Filter O4W</t>
+  </si>
+  <si>
+    <t>652 Angier Ave NE Suite A, Atlanta, GA 30308</t>
+  </si>
+  <si>
+    <t>Chrome Yellow</t>
+  </si>
+  <si>
+    <t>501 Edgewood Ave SE, Atlanta, GA 30312</t>
+  </si>
+  <si>
+    <t>Dancing Goat</t>
+  </si>
+  <si>
+    <t>650 North Avenue NE, Atlanta, GA 30308</t>
+  </si>
+  <si>
+    <t>Bellwood Coffee</t>
+  </si>
+  <si>
+    <t>1336 Glenwood Ave SE, Atlanta, GA 30316</t>
+  </si>
+  <si>
+    <t>East Pole Coffee Co</t>
+  </si>
+  <si>
+    <t>676 North Highland Avenue Northeast, Atlanta, GA 30306</t>
+  </si>
+  <si>
+    <t>Sweet Hut</t>
+  </si>
+  <si>
+    <t>only had nutella bun, but good</t>
+  </si>
+  <si>
+    <t>Cafe Maiko</t>
+  </si>
+  <si>
+    <t>Match Tea</t>
+  </si>
+  <si>
+    <t>5306 Buford Hwy, Atlanta, GA 30340</t>
+  </si>
+  <si>
+    <t>Monday Night Brewing - The Garage</t>
+  </si>
+  <si>
+    <t>100% good beer</t>
+  </si>
+  <si>
+    <t>933 Lee St SW, Atlanta, GA 30310</t>
+  </si>
+  <si>
+    <t>Ladybird Grove &amp; Mess Hall</t>
+  </si>
+  <si>
+    <t>good vibes, great frozen lemonade</t>
+  </si>
+  <si>
+    <t>Strangers in Paradise</t>
+  </si>
+  <si>
+    <t>great vibes tiki bar</t>
+  </si>
+  <si>
+    <t>1020 White St SW Suite B1, Atlanta, GA 30310</t>
+  </si>
+  <si>
+    <t>Breaker Breaker</t>
+  </si>
+  <si>
+    <t>high vibes, others liked the food</t>
+  </si>
+  <si>
+    <t>921 Wylie St SE, Atlanta, GA 30316</t>
+  </si>
+  <si>
+    <t>Duke's Hideaway at McCray's</t>
+  </si>
+  <si>
+    <t>good location tiki bar</t>
+  </si>
+  <si>
+    <t>670 DeKalb Ave NE Suite 101, Atlanta, GA 30307</t>
+  </si>
+  <si>
+    <t>Burle's Bar</t>
+  </si>
+  <si>
+    <t>good vibes, nice bevs</t>
+  </si>
+  <si>
+    <t>505 N Angier Ave NE Suite 500, Atlanta, GA 30308</t>
+  </si>
+  <si>
+    <t>Bantam Pub</t>
+  </si>
+  <si>
+    <t>great neighborhood dive bar with $7 mixed drinks</t>
+  </si>
+  <si>
+    <t>737 Ralph McGill Blvd NE, Atlanta, GA 30312</t>
+  </si>
+  <si>
+    <t>Dad's</t>
+  </si>
+  <si>
+    <t>good drinks and vibe, young crowd</t>
+  </si>
+  <si>
+    <t>870 North Highland Avenue Northeast, Atlanta, GA 30306</t>
+  </si>
+  <si>
+    <t>Sister Louisa's Church of the Living Room &amp; Ping Pong Emporium</t>
+  </si>
+  <si>
+    <t>fun and quirky, darts and pong</t>
+  </si>
+  <si>
+    <t>466 Edgewood Ave SE, Atlanta, GA 30312</t>
+  </si>
+  <si>
     <t>HC Biergarten</t>
   </si>
   <si>
-    <t>Bars</t>
-  </si>
-  <si>
-    <t>640 Reed St SE, Atlanta, GA 30312</t>
-  </si>
-  <si>
-    <t>Sweet Water Brewing</t>
-  </si>
-  <si>
-    <t>195 Ottley Drive Northeast, Atlanta, GA 30324</t>
-  </si>
-  <si>
-    <t>Three Taverns Imaginarium</t>
-  </si>
-  <si>
-    <t>777 Memorial Dr SE Suite B103, Atlanta, GA 30316</t>
-  </si>
-  <si>
-    <t>The Rooftop at Clermont</t>
-  </si>
-  <si>
-    <t>789 Ponce De Leon Ave NE, Atlanta, GA 30306</t>
-  </si>
-  <si>
-    <t>Ranger Station Speakeasy</t>
-  </si>
-  <si>
-    <t>684 John Wesley Dobbs Ave NE Unit J, Atlanta, GA 30312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tabla </t>
-  </si>
-  <si>
-    <t>77 12th St NE #2, Atlanta, GA 30309</t>
-  </si>
-  <si>
-    <t>Yakitori Kona</t>
-  </si>
-  <si>
-    <t>1004 Virginia Ave NE, Atlanta, GA 30306</t>
-  </si>
-  <si>
-    <t>Vegan Food Social (ATL utility works)</t>
-  </si>
-  <si>
-    <t>2903 RN Martin St, East Point, GA 30344</t>
-  </si>
-  <si>
-    <t>Cafe Sunflower</t>
-  </si>
-  <si>
-    <t>2140 Peachtree Rd, Atlanta, GA 30309</t>
-  </si>
-  <si>
-    <t>Coyote's Mexican Grill</t>
-  </si>
-  <si>
-    <t>105 Sycamore Pl, Decatur, GA 30030</t>
-  </si>
-  <si>
-    <t>Arepa Mia</t>
-  </si>
-  <si>
-    <t>10 N Clarendon Ave suite a, Avondale Estates, GA 30002</t>
-  </si>
-  <si>
-    <t>Chai Pani</t>
-  </si>
-  <si>
-    <t>406 W Ponce de Leon Ave, Decatur, GA 30030</t>
-  </si>
-  <si>
-    <t>Ruby Chow</t>
-  </si>
-  <si>
-    <t>620 Glen Iris Dr NE Unit C-1, Atlanta, GA 30308</t>
-  </si>
-  <si>
-    <t>Masterpiece</t>
-  </si>
-  <si>
-    <t>3940 Buford Hwy, Duluth, GA 30096</t>
-  </si>
-  <si>
-    <t>Whoopsies</t>
-  </si>
-  <si>
-    <t>1 Moreland Ave SE suite c, Atlanta, GA 30316</t>
-  </si>
-  <si>
-    <t>Estrellita Filipino</t>
-  </si>
-  <si>
-    <t>580 Woodward Ave SE, Atlanta, GA 30312</t>
-  </si>
-  <si>
-    <t>Bacelona Wine Bar</t>
-  </si>
-  <si>
-    <t>240 North Highland Avenue Northeast, Atlanta, GA 30307</t>
-  </si>
-  <si>
-    <t>Pho Bac</t>
-  </si>
-  <si>
-    <t>4897 Buford Hwy suite 106, Chamblee, GA 30341</t>
-  </si>
-  <si>
-    <t>Kamayan ATL - Filipino Restaurant</t>
-  </si>
-  <si>
-    <t>5150 Buford Hwy A230, Doraville, GA 30340</t>
-  </si>
-  <si>
-    <t>VeGreen Vegan Fusion Restaurant</t>
-  </si>
-  <si>
-    <t>3780 Old Norcross Rd #106, Duluth, GA 30096</t>
-  </si>
-  <si>
-    <t>Lee's Bakery</t>
-  </si>
-  <si>
-    <t>4005 Buford Hwy Suite C, Atlanta, GA 30345</t>
-  </si>
-  <si>
-    <t>Chat Patti Indian Vegetarian Restaurant</t>
-  </si>
-  <si>
-    <t>1707 Church St, Decatur, GA 30033</t>
-  </si>
-  <si>
-    <t>Desi Spice Indian Cuisine</t>
-  </si>
-  <si>
-    <t>Promenade, 931 Monroe Dr NE, Atlanta, GA 30308</t>
-  </si>
-  <si>
-    <t>Bakaris Pizza</t>
-  </si>
-  <si>
-    <t>576 Lee St SW, Atlanta, GA 30310</t>
-  </si>
-  <si>
-    <t>Shoya Izakaya</t>
-  </si>
-  <si>
-    <t>6035 Peachtree Rd A101, Doraville, GA 30340</t>
-  </si>
-  <si>
-    <t>My Parents Basement</t>
-  </si>
-  <si>
-    <t>22 N Avondale Rd, Avondale Estates, GA 30002</t>
-  </si>
-  <si>
-    <t>Moonlight</t>
-  </si>
-  <si>
-    <t>800 Rankin St NE, Atlanta, GA 30308</t>
-  </si>
-  <si>
-    <t>Stereo</t>
-  </si>
-  <si>
-    <t>900 DeKalb Ave NE suite f, Atlanta, GA 30307</t>
-  </si>
-  <si>
-    <t>Your DeKalb Farmers Market</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grocery store </t>
-  </si>
-  <si>
-    <t>3000 E Ponce de Leon Ave, Decatur, GA 30030</t>
-  </si>
-  <si>
-    <t>TESO Life</t>
-  </si>
-  <si>
-    <t>Grocery store</t>
-  </si>
-  <si>
-    <t>2180 Pleasant Hill Rd SUITE F, Duluth, GA 30096</t>
-  </si>
-  <si>
-    <t>Lov'n it live</t>
-  </si>
-  <si>
-    <t>2796 E Point St, East Point, GA 30344</t>
-  </si>
-  <si>
-    <t>Planted soul</t>
-  </si>
-  <si>
-    <t>3569 Main St, College Park, GA 30337</t>
-  </si>
-  <si>
-    <t>Yalda</t>
-  </si>
-  <si>
-    <t>980 Howell Mill Rd Suite 4, Atlanta, GA 30318</t>
-  </si>
-  <si>
-    <t>Madre Selva</t>
-  </si>
-  <si>
-    <t>570 Main St NE, Atlanta, GA 30324</t>
-  </si>
-  <si>
-    <t>Okiboru Tsukemen &amp; Ramen</t>
-  </si>
-  <si>
-    <t>2277 Peachtree Rd NE B, Atlanta, GA 30309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mellow Mushroom </t>
-  </si>
-  <si>
-    <t>931 Monroe Dr NE, Atlanta, GA 30308</t>
-  </si>
-  <si>
-    <t>La Hacienda Midtown</t>
-  </si>
-  <si>
-    <t>900 Monroe Dr NE, Atlanta, GA 30308</t>
-  </si>
-  <si>
-    <t>Cuisine</t>
-  </si>
-  <si>
-    <t>Vegan</t>
-  </si>
-  <si>
-    <t>Stars (of 5)</t>
-  </si>
-  <si>
-    <t>Stars (of 10)</t>
-  </si>
-  <si>
-    <t>Additional Notes</t>
-  </si>
-  <si>
-    <t>Delbar (Inman Park)</t>
-  </si>
-  <si>
-    <t>Persian</t>
-  </si>
-  <si>
-    <t>Partially</t>
-  </si>
-  <si>
-    <t>870 Inman Villge Pkwy NE Suite 1, Atlanta, GA 30307</t>
-  </si>
-  <si>
-    <t>Little Bear</t>
-  </si>
-  <si>
-    <t>Rotating</t>
-  </si>
-  <si>
-    <t>creative and inventive food</t>
-  </si>
-  <si>
-    <t>71 Georgia Ave SE Unit A, Atlanta, GA 30312</t>
-  </si>
-  <si>
-    <t>Talat Market</t>
-  </si>
-  <si>
-    <t>Thai</t>
-  </si>
-  <si>
-    <t>Partially/Minimally</t>
-  </si>
-  <si>
-    <t>flavorful fancy Thai, vegan accomidating</t>
-  </si>
-  <si>
-    <t>112 Ormond St SE, Atlanta, GA 30315</t>
-  </si>
-  <si>
-    <t>Banshee</t>
-  </si>
-  <si>
-    <t>New American</t>
-  </si>
-  <si>
-    <t>Minimally</t>
-  </si>
-  <si>
-    <t>drinks, atmosphere, and food were all really good. Service was surprisingly fantastic. Had for food Beet-pistachio terrine (V) was rally good, yellowedge grouper. Stately Hag drink was a riff on a marg</t>
-  </si>
-  <si>
-    <t>1271 Glenwood Ave SE, Atlanta, GA 30316</t>
-  </si>
-  <si>
-    <t>Herban Fix</t>
-  </si>
-  <si>
-    <t>Asian</t>
-  </si>
-  <si>
-    <t>Fully</t>
-  </si>
-  <si>
-    <t>565 Peachtree St NE, Atlanta, GA 30308</t>
-  </si>
-  <si>
-    <t>Botiwalla (By Chai Pani)</t>
-  </si>
-  <si>
-    <t>Indian</t>
-  </si>
-  <si>
-    <t>haven't had a bad item yet!</t>
-  </si>
-  <si>
-    <t>Ponce City Market, 675 Ponce De Leon Ave NE, Atlanta, GA 30308</t>
-  </si>
-  <si>
-    <t>bomb biscuits</t>
-  </si>
-  <si>
-    <t>Southern</t>
-  </si>
-  <si>
-    <t>biscuit egg sandwiches</t>
-  </si>
-  <si>
-    <t>668 North Highland Avenue Northeast, Atlanta, GA 30312</t>
-  </si>
-  <si>
-    <t>Quoc Huong Banh Mi</t>
-  </si>
-  <si>
-    <t>Vietnamese</t>
-  </si>
-  <si>
-    <t>$4-5 for a Bahn Mi. Super cheap. Best Bahn Mi i've had (Joe) in a long time.</t>
-  </si>
-  <si>
-    <t>5150 Buford Hwy, Doraville, GA 30340</t>
-  </si>
-  <si>
-    <t>Desta</t>
-  </si>
-  <si>
-    <t>Ethiopian</t>
-  </si>
-  <si>
-    <t>lots of food at a good price, great spot</t>
-  </si>
-  <si>
-    <t>2566 Briarcliff Rd Suite 101, Atlanta, GA 30329</t>
-  </si>
-  <si>
-    <t>Northern China Eatery</t>
-  </si>
-  <si>
-    <t>Chinese</t>
-  </si>
-  <si>
-    <t>good soup dumpling and eggplant</t>
-  </si>
-  <si>
-    <t>5141 Buford Hwy Suite C, Doraville, GA 30340</t>
-  </si>
-  <si>
-    <t>Vegan House of Pancakes</t>
-  </si>
-  <si>
-    <t>Breakfast</t>
-  </si>
-  <si>
-    <t>prices kind of steep, but good food</t>
-  </si>
-  <si>
-    <t>1367 Cleveland Ave, East Point, GA 30344</t>
-  </si>
-  <si>
-    <t>El Santo Gallo</t>
-  </si>
-  <si>
-    <t>Mexican</t>
-  </si>
-  <si>
-    <t>would be 4 with tofu option, Pastor costra burrito tasty! Seemingly small operation (out of a lot of stuff when we went!)</t>
-  </si>
-  <si>
-    <t>950 West Marietta St NW, Atlanta, GA 30318</t>
-  </si>
-  <si>
-    <t>OK Yaki</t>
-  </si>
-  <si>
-    <t>Japanese</t>
-  </si>
-  <si>
-    <t>Okonomiyaki was good! good ambience, drink menu looked fun</t>
-  </si>
-  <si>
-    <t>714 Moreland Ave SE Suite D, Atlanta, GA 30316</t>
-  </si>
-  <si>
-    <t>La Semilla</t>
-  </si>
-  <si>
-    <t>Latin</t>
-  </si>
-  <si>
-    <t>good for amenable non-vegans to dive into plant based food</t>
-  </si>
-  <si>
-    <t>780 Memorial Dr SE Unit 4A, Atlanta, GA 30316</t>
-  </si>
-  <si>
-    <t>Recess</t>
-  </si>
-  <si>
-    <t>Salad Bowls</t>
-  </si>
-  <si>
-    <t>Mostly</t>
-  </si>
-  <si>
-    <t>99 Krog St NE Suite P, Atlanta, GA 30307</t>
-  </si>
-  <si>
-    <t>El Super Pan</t>
-  </si>
-  <si>
-    <t>loaded sandwiches/cubanos. Less traditonal but good</t>
-  </si>
-  <si>
-    <t>Elektra</t>
-  </si>
-  <si>
-    <t>Mediterranean</t>
-  </si>
-  <si>
-    <t>vibes were high, French fries and mussels were a good value</t>
-  </si>
-  <si>
-    <t>Argosy</t>
-  </si>
-  <si>
-    <t>American</t>
-  </si>
-  <si>
-    <t>bar was cool, food not bad</t>
-  </si>
-  <si>
-    <t>470 Flat Shoals Ave SE, Atlanta, GA 30316</t>
-  </si>
-  <si>
-    <t>Papi's Cuban Cuisine</t>
-  </si>
-  <si>
-    <t>Cuban</t>
-  </si>
-  <si>
-    <t>Minimally/None</t>
-  </si>
-  <si>
-    <t>solid traditional cubano and tres leches</t>
-  </si>
-  <si>
-    <t>99 Krog St NE, Atlanta, GA 30307</t>
-  </si>
-  <si>
-    <t>Ela</t>
-  </si>
-  <si>
-    <t>pita not vegan and no alternative</t>
-  </si>
-  <si>
-    <t>1186 North Highland Avenue Northeast, Atlanta, GA 30306</t>
-  </si>
-  <si>
-    <t>Mushi Ni</t>
-  </si>
-  <si>
-    <t>Bao</t>
-  </si>
-  <si>
-    <t>1235 Chattahoochee Ave, Suite 130 Atlanta, GA 30318</t>
-  </si>
-  <si>
-    <t>Calaveritas Taqueria Vegana</t>
-  </si>
-  <si>
-    <t>solid vegan street tacos</t>
-  </si>
-  <si>
-    <t>3795 Presidential Pkwy, Atlanta, GA 30340</t>
-  </si>
-  <si>
-    <t>El Tesoro</t>
-  </si>
-  <si>
-    <t>pretty good soy chorizo and quesadillas</t>
-  </si>
-  <si>
-    <t>1010 White St SW, Atlanta, GA 30310</t>
-  </si>
-  <si>
-    <t>Ton Ton Ramen</t>
-  </si>
-  <si>
-    <t>Ramen</t>
-  </si>
-  <si>
-    <t>tasty ramen, nothing spectacular but solid</t>
-  </si>
-  <si>
-    <t>675 Ponce De Leon Ave NE, Atlanta, GA 30308</t>
-  </si>
-  <si>
-    <t>Food Terminal</t>
-  </si>
-  <si>
-    <t>Malaysian</t>
-  </si>
-  <si>
-    <t>massive menu of eats, curry laksa is the move</t>
-  </si>
-  <si>
-    <t>5000 Buford Hwy, Chamblee, GA 30341</t>
-  </si>
-  <si>
-    <t>Kitty Dare</t>
-  </si>
-  <si>
-    <t>Mediterranean Fusion</t>
-  </si>
-  <si>
-    <t>eggplant was tasty but mains were lackluster</t>
-  </si>
-  <si>
-    <t>1029 Edgewood Ave NE, Atlanta, GA 30307</t>
-  </si>
-  <si>
-    <t>Pizza Verdura Sincera</t>
-  </si>
-  <si>
-    <t>Pizza</t>
-  </si>
-  <si>
-    <t>solid vegan pizza, desserts are a scam</t>
-  </si>
-  <si>
-    <t>377 Moreland Ave NE, Atlanta, GA 30307</t>
-  </si>
-  <si>
-    <t>JenChan's</t>
-  </si>
-  <si>
-    <t>Chinese/Pizza</t>
-  </si>
-  <si>
-    <t>pretty good Chinese nearby</t>
-  </si>
-  <si>
-    <t>186 Carroll St SE, Atlanta, GA 30312</t>
-  </si>
-  <si>
-    <t>Nam Phuong</t>
-  </si>
-  <si>
-    <t>tasty Vietnamese but tofu dish barely had any tofu, Pho is supposed to be the best in ATL but didn't have</t>
-  </si>
-  <si>
-    <t>4051 Buford Hwy, Atlanta, GA 30345</t>
-  </si>
-  <si>
-    <t>Harmony Vegetarian</t>
-  </si>
-  <si>
-    <t>good Chinese vegetarian spot with more vegan options and better prices than other options on the list (e.g. Northern China eatery)</t>
-  </si>
-  <si>
-    <t>Orient Center Shopping Plaza, 4897 Buford Hwy #109, Chamblee, GA 30341</t>
-  </si>
-  <si>
-    <t>Woody’s Cheesesteaks</t>
-  </si>
-  <si>
-    <t>Go Birds</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>good philly replica, good price per size</t>
-  </si>
-  <si>
-    <t>981 Monroe Dr NE, Atlanta, GA 30308</t>
-  </si>
-  <si>
-    <t>Tasili's Raw Vegan</t>
-  </si>
-  <si>
-    <t>Wraps</t>
-  </si>
-  <si>
-    <t>very good wrap full of spicy kale, we got the wrap at sevananda</t>
-  </si>
-  <si>
-    <t>1059 Ralph David Abernathy Blvd, Atlanta, GA 30310</t>
-  </si>
-  <si>
-    <t>Rina</t>
-  </si>
-  <si>
-    <t>good falafel, fries, and hummus. A bit too pricy though</t>
-  </si>
-  <si>
-    <t>699 Ponce De Leon Ave NE suite 9, Atlanta, GA 30308</t>
-  </si>
-  <si>
-    <t>Victory Sandwich Bar (Inman Park)</t>
-  </si>
-  <si>
-    <t>good all around vibes, drinks, food</t>
-  </si>
-  <si>
-    <t>913 Bernina Ave NE, Atlanta, GA 30307</t>
-  </si>
-  <si>
-    <t>Mediterranea Restaurant &amp; Bakery</t>
-  </si>
-  <si>
-    <t>good drink menu with lots of NA options, pizza was good</t>
-  </si>
-  <si>
-    <t>332 Ormond St SE ste 101, Atlanta, GA 30315</t>
-  </si>
-  <si>
-    <t>Surina Thai</t>
-  </si>
-  <si>
-    <t>garlic brocc with tofu solid, house special Kao Cook Kapi tasted authentic and flavorful</t>
-  </si>
-  <si>
-    <t>2390 Chamblee Tucker Rd, Chamblee, GA 30341</t>
-  </si>
-  <si>
-    <t>Muchacho</t>
-  </si>
-  <si>
-    <t>Mexican/Brunch</t>
-  </si>
-  <si>
-    <t>cute atmosphere, nice patio, food was just average</t>
-  </si>
-  <si>
-    <t>904 Memorial Dr SE, Atlanta, GA 30316</t>
-  </si>
-  <si>
-    <t>Antiguo Lobo</t>
-  </si>
-  <si>
-    <t>guac was fresco (i.e. avocado chunks), had hibuscus taco (vegan) which was different, food was solid</t>
-  </si>
-  <si>
-    <t>5370 Peachtree Rd Suite A, Chamblee, GA 30341</t>
-  </si>
-  <si>
-    <t>Barbacoa</t>
-  </si>
-  <si>
-    <t>Tapas</t>
-  </si>
-  <si>
-    <t>Minmally</t>
-  </si>
-  <si>
-    <t>OK tacos in VaHi</t>
-  </si>
-  <si>
-    <t>1000 Virginia Ave NE, Atlanta, GA 30306</t>
-  </si>
-  <si>
-    <t>Superica (Krog St Market)</t>
-  </si>
-  <si>
-    <t>Tex-Mex</t>
-  </si>
-  <si>
-    <t>Mininmally</t>
-  </si>
-  <si>
-    <t>really slow service, food was fine</t>
-  </si>
-  <si>
-    <t>Soul Vegetarian No. 2</t>
-  </si>
-  <si>
-    <t>Corn bread avoid at all costs, bit pricey, rest was good</t>
-  </si>
-  <si>
-    <t>652 North Highland Avenue Northeast, Atlanta, GA 30306</t>
-  </si>
-  <si>
-    <t>Vice Taco Truck</t>
-  </si>
-  <si>
-    <t>(Tuesday Popup at 97 Estoria) solid street tacos</t>
-  </si>
-  <si>
-    <t>727 Wylie St SE, Atlanta, GA 30316</t>
-  </si>
-  <si>
-    <t>Freds Meat &amp; Bread</t>
-  </si>
-  <si>
-    <t>Sandwich Shop</t>
-  </si>
-  <si>
-    <t>bread on cheesesteak was stale</t>
-  </si>
-  <si>
-    <t>Krog Street Market, 99 Krog St NE, Atlanta, GA 30307</t>
-  </si>
-  <si>
-    <t>Bird &amp; Brew</t>
-  </si>
-  <si>
-    <t>Massive wings, tasty</t>
-  </si>
-  <si>
-    <t>1355 Clairmont Rd, Decatur, GA 30033</t>
-  </si>
-  <si>
-    <t>Vietvana</t>
-  </si>
-  <si>
-    <t>only had bahn mi, which was okay</t>
-  </si>
-  <si>
-    <t>Planta</t>
-  </si>
-  <si>
-    <t>Asian/Pizza</t>
-  </si>
-  <si>
-    <t>vibes high, good location, food mediocre, happy hour looks cool</t>
-  </si>
-  <si>
-    <t>99 Krog St NE, Suite Y, Atlanta, GA 30307</t>
-  </si>
-  <si>
-    <t>Hippie Hibachi</t>
-  </si>
-  <si>
-    <t>Hibachi</t>
-  </si>
-  <si>
-    <t>1235 Chattahoochee Ave NW Suite 130, Atlanta, GA 30318</t>
-  </si>
-  <si>
-    <t>Plant Based Pizzeria</t>
-  </si>
-  <si>
-    <t>pizza was fine, appreciate that they are fully vegan and have loads of cookies (from Jaime's Cookies)</t>
-  </si>
-  <si>
-    <t>730 Barnett St NE, Atlanta, GA 30306</t>
-  </si>
-  <si>
-    <t>Chicheria Mexican Kitchen</t>
-  </si>
-  <si>
-    <t>tacos were OK, margs were pretty good</t>
-  </si>
-  <si>
-    <t>202 Chattahoochee Row NW suite c, Atlanta, GA 30318</t>
-  </si>
-  <si>
-    <t>Mamak Vegan Kitchen</t>
-  </si>
-  <si>
-    <t>2390 Chamblee Tucker Rd Ste 101, Chamblee, GA 30341</t>
-  </si>
-  <si>
-    <t>just okay</t>
-  </si>
-  <si>
-    <t>Indaco</t>
-  </si>
-  <si>
-    <t>Italian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fine, overpriced </t>
-  </si>
-  <si>
-    <t>725 Ponce De Leon Ave NE Suite 250, Atlanta, GA 30306</t>
-  </si>
-  <si>
-    <t>Waffl Taco</t>
-  </si>
-  <si>
-    <t>filling was really good, waffle was just fine. Expensive. (located within Union Fitness Hub)</t>
-  </si>
-  <si>
-    <t>828 Ralph McGill Blvd NE, Atlanta, GA 30306</t>
-  </si>
-  <si>
-    <t>Rreal Tacos (Buckhead)</t>
-  </si>
-  <si>
-    <t>lots of options but too chainy</t>
-  </si>
-  <si>
-    <t>3365 Piedmont Rd NE Suite 1120, Atlanta, GA 30305</t>
-  </si>
-  <si>
-    <t>Pizza Jean</t>
-  </si>
-  <si>
-    <t>okay, very overpriced, only order through TooGoodToGo</t>
-  </si>
-  <si>
-    <t>Buena Vida Tapas Bar</t>
-  </si>
-  <si>
-    <t>Latin/Tapas</t>
-  </si>
-  <si>
-    <t>went for brunch, few options and bland</t>
-  </si>
-  <si>
-    <t>385 N Angier Ave NE Suite 100, Atlanta, GA 30308</t>
-  </si>
-  <si>
-    <t>Suzy Suis Bao</t>
-  </si>
-  <si>
-    <t>Taiwanese/Korean</t>
-  </si>
-  <si>
-    <t>all rice, no flavor</t>
-  </si>
-  <si>
-    <t>Krog Street Market, 99 Krog St NE UNIT J, Atlanta, GA 30307</t>
-  </si>
-  <si>
-    <t>Creme de la Crepe Westend Atlanta</t>
-  </si>
-  <si>
-    <t>Mexican?? Not crepe, really not that good</t>
-  </si>
-  <si>
-    <t>1020 White St SW Stall 13, Atlanta, GA 30310</t>
-  </si>
-  <si>
-    <t>Jaime's Cookie Dough</t>
-  </si>
-  <si>
-    <t>Cookies</t>
-  </si>
-  <si>
-    <t>lots of options, sold at Plant Based Pizzeria, no storefront</t>
-  </si>
-  <si>
-    <t>Revolution Donuts</t>
-  </si>
-  <si>
-    <t>Donuts</t>
-  </si>
-  <si>
-    <t>lots of vegan donuts, fav in ATL, delicious vanilla bean yeast donut</t>
-  </si>
-  <si>
-    <t>745 Edgewood Ave NE, Atlanta, GA 30307</t>
-  </si>
-  <si>
-    <t>Big Softie</t>
-  </si>
-  <si>
-    <t>Ice Cream</t>
-  </si>
-  <si>
-    <t>love me some soft serve (Emilia), vegan crunchywich is great</t>
-  </si>
-  <si>
-    <t>632 North Highland Avenue Northeast, Atlanta, GA 30306</t>
-  </si>
-  <si>
-    <t>Buttafly Kisses</t>
-  </si>
-  <si>
-    <t>Variety</t>
-  </si>
-  <si>
-    <t>tasty cake pops (we get them at sevananda)</t>
-  </si>
-  <si>
-    <t>3999 Austell Rd Ste 355 Austell, GA 30106</t>
-  </si>
-  <si>
-    <t>Munster Cravings</t>
-  </si>
-  <si>
-    <t>great cookie, vegan options</t>
-  </si>
-  <si>
-    <t>1235 Chattahoochee Ave NW, Atlanta, GA 30318</t>
-  </si>
-  <si>
-    <t>Creamy Spot</t>
-  </si>
-  <si>
-    <t>scoop was icy but might be worth going back for a shake</t>
-  </si>
-  <si>
-    <t>1036 White St SW, Atlanta, GA 30310</t>
-  </si>
-  <si>
-    <t>The Salty</t>
-  </si>
-  <si>
-    <t>donut was okay, not many vegan options</t>
-  </si>
-  <si>
-    <t>124 Krog St NE Suite A120, Atlanta, GA 30307</t>
-  </si>
-  <si>
-    <t>Honeysuckle Gelato</t>
-  </si>
-  <si>
-    <t>mediocre and overpriced</t>
-  </si>
-  <si>
-    <t>Cake Culture</t>
-  </si>
-  <si>
-    <t>Crepe Cakes</t>
-  </si>
-  <si>
-    <t>bland, expensive</t>
-  </si>
-  <si>
-    <t>5 Daughters Bakery</t>
-  </si>
-  <si>
-    <t>vegan donuts were not better than a grocery store</t>
-  </si>
-  <si>
-    <t>Donnies Donuts</t>
-  </si>
-  <si>
-    <t>chocolate cake w/ PB, solid, nothing amazing</t>
-  </si>
-  <si>
-    <t>701-5 Highland Ave NE, Atlanta, GA 30312</t>
-  </si>
-  <si>
-    <t>Ash</t>
-  </si>
-  <si>
-    <t>Coffee</t>
-  </si>
-  <si>
-    <t>good coffee, loads of vegan pastries</t>
-  </si>
-  <si>
-    <t>1189 Virginia Ave NE, Atlanta, GA 30306</t>
-  </si>
-  <si>
-    <t>Colette Bake and Breadshop</t>
-  </si>
-  <si>
-    <t>Baked Goods</t>
-  </si>
-  <si>
-    <t>only bread is vegan</t>
-  </si>
-  <si>
-    <t>636 North Highland Avenue Northeast, Atlanta, GA 30306</t>
-  </si>
-  <si>
-    <t>Flour &amp; Time</t>
-  </si>
-  <si>
-    <t>tasty apple pie</t>
-  </si>
-  <si>
-    <t>1133 Huff Rd NW suite f, Atlanta, GA 30318</t>
-  </si>
-  <si>
-    <t>Bar Premio</t>
-  </si>
-  <si>
-    <t>Coffee/Bar</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>the bar outside the steakhouse</t>
-  </si>
-  <si>
-    <t>Finca to Filter O4W</t>
-  </si>
-  <si>
-    <t>652 Angier Ave NE Suite A, Atlanta, GA 30308</t>
-  </si>
-  <si>
-    <t>Chrome Yellow</t>
-  </si>
-  <si>
-    <t>501 Edgewood Ave SE, Atlanta, GA 30312</t>
-  </si>
-  <si>
-    <t>Dancing Goat</t>
-  </si>
-  <si>
-    <t>650 North Avenue NE, Atlanta, GA 30308</t>
-  </si>
-  <si>
-    <t>Bellwood Coffee</t>
-  </si>
-  <si>
-    <t>1336 Glenwood Ave SE, Atlanta, GA 30316</t>
-  </si>
-  <si>
-    <t>East Pole Coffee Co</t>
-  </si>
-  <si>
-    <t>676 North Highland Avenue Northeast, Atlanta, GA 30306</t>
-  </si>
-  <si>
-    <t>Sweet Hut</t>
-  </si>
-  <si>
-    <t>only had nutella bun, but good</t>
-  </si>
-  <si>
-    <t>Cafe Maiko</t>
-  </si>
-  <si>
-    <t>Match Tea</t>
-  </si>
-  <si>
-    <t>5306 Buford Hwy, Atlanta, GA 30340</t>
-  </si>
-  <si>
-    <t>Monday Night Brewing - The Garage</t>
-  </si>
-  <si>
-    <t>100% good beer</t>
-  </si>
-  <si>
-    <t>933 Lee St SW, Atlanta, GA 30310</t>
-  </si>
-  <si>
-    <t>Ladybird Grove &amp; Mess Hall</t>
-  </si>
-  <si>
-    <t>good vibes, great frozen lemonade</t>
-  </si>
-  <si>
-    <t>Strangers in Paradise</t>
-  </si>
-  <si>
-    <t>great vibes tiki bar</t>
-  </si>
-  <si>
-    <t>1020 White St SW Suite B1, Atlanta, GA 30310</t>
-  </si>
-  <si>
-    <t>Breaker Breaker</t>
-  </si>
-  <si>
-    <t>high vibes, others liked the food</t>
-  </si>
-  <si>
-    <t>921 Wylie St SE, Atlanta, GA 30316</t>
-  </si>
-  <si>
-    <t>Duke's Hideaway at McCray's</t>
-  </si>
-  <si>
-    <t>good location tiki bar</t>
-  </si>
-  <si>
-    <t>670 DeKalb Ave NE Suite 101, Atlanta, GA 30307</t>
-  </si>
-  <si>
-    <t>Burle's Bar</t>
-  </si>
-  <si>
-    <t>good vibes, nice bevs</t>
-  </si>
-  <si>
-    <t>505 N Angier Ave NE Suite 500, Atlanta, GA 30308</t>
-  </si>
-  <si>
-    <t>Bantam Pub</t>
-  </si>
-  <si>
-    <t>great neighborhood dive bar with $7 mixed drinks</t>
-  </si>
-  <si>
-    <t>737 Ralph McGill Blvd NE, Atlanta, GA 30312</t>
-  </si>
-  <si>
-    <t>Dad's</t>
-  </si>
-  <si>
-    <t>good drinks and vibe, young crowd</t>
-  </si>
-  <si>
-    <t>870 North Highland Avenue Northeast, Atlanta, GA 30306</t>
-  </si>
-  <si>
-    <t>Sister Louisa's Church of the Living Room &amp; Ping Pong Emporium</t>
-  </si>
-  <si>
-    <t>fun and quirky, darts and pong</t>
-  </si>
-  <si>
-    <t>466 Edgewood Ave SE, Atlanta, GA 30312</t>
-  </si>
-  <si>
-    <t>Joystick Gamebar</t>
-  </si>
-  <si>
-    <t>mellow with games</t>
+    <t xml:space="preserve">Drinks okay, very nice outdoor space, kid and dog friendly </t>
+  </si>
+  <si>
+    <t>97 Estoria</t>
+  </si>
+  <si>
+    <t>dive bar, taco popup, vegan food items on menu</t>
+  </si>
+  <si>
+    <t>Joystick Game Bar</t>
+  </si>
+  <si>
+    <t>mellow dive bar with arcade games</t>
   </si>
   <si>
     <t>427 Edgewood Ave SE, Atlanta, GA 30312</t>
   </si>
   <si>
-    <t>97 Estoria</t>
-  </si>
-  <si>
-    <t>dive bar, taco popup, vegan food items on menu</t>
-  </si>
-  <si>
     <t>New Realm Brewing Co.</t>
   </si>
   <si>
@@ -1253,7 +1385,19 @@
     <t>Bold Monk Brewing Co.</t>
   </si>
   <si>
+    <t>"Award winning" Belgian beers, otherwise eh</t>
+  </si>
+  <si>
     <t>1737 Ellsworth Industrial Blvd NW, Atlanta, GA 30318</t>
+  </si>
+  <si>
+    <t>Wild Leap Brew Co</t>
+  </si>
+  <si>
+    <t>good drinks (beer, cocktails, slushies) and a nice blend of indoor and outdoor space to hang</t>
+  </si>
+  <si>
+    <t>125 Ted Turner Dr SW, Atlanta, GA 30313</t>
   </si>
 </sst>
 </file>
@@ -1722,7 +1866,7 @@
         <v>31</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>32</v>
@@ -1942,7 +2086,7 @@
         <v>71</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>72</v>
@@ -1975,29 +2119,29 @@
         <v>77</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>84</v>
@@ -2074,10 +2218,164 @@
         <v>97</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>98</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2104,19 +2402,19 @@
         <v>8</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>10</v>
@@ -2142,13 +2440,13 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="D2" s="5">
         <v>4.5</v>
@@ -2159,7 +2457,7 @@
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="5" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
@@ -2182,13 +2480,13 @@
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="D3" s="5">
         <v>4.5</v>
@@ -2198,10 +2496,10 @@
         <v>9</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
@@ -2224,13 +2522,13 @@
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
-        <v>112</v>
+        <v>144</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>113</v>
+        <v>145</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>114</v>
+        <v>146</v>
       </c>
       <c r="D4" s="5">
         <v>4.5</v>
@@ -2240,10 +2538,10 @@
         <v>9</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>115</v>
+        <v>147</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
@@ -2266,13 +2564,13 @@
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
-        <v>117</v>
+        <v>149</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>118</v>
+        <v>150</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="D5" s="5">
         <v>4.5</v>
@@ -2282,10 +2580,10 @@
         <v>9</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>120</v>
+        <v>152</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>121</v>
+        <v>153</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
@@ -2308,13 +2606,13 @@
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>122</v>
+        <v>154</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>123</v>
+        <v>155</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>124</v>
+        <v>156</v>
       </c>
       <c r="D6" s="5">
         <v>4.0</v>
@@ -2323,9 +2621,11 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="F6" s="4"/>
+      <c r="F6" s="5" t="s">
+        <v>157</v>
+      </c>
       <c r="G6" s="5" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -2348,13 +2648,13 @@
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>126</v>
+        <v>159</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>127</v>
+        <v>160</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="D7" s="5">
         <v>4.0</v>
@@ -2364,10 +2664,10 @@
         <v>8</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>128</v>
+        <v>161</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>129</v>
+        <v>162</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -2390,13 +2690,13 @@
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>130</v>
+        <v>163</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>131</v>
+        <v>164</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="D8" s="5">
         <v>4.0</v>
@@ -2406,10 +2706,10 @@
         <v>8</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>132</v>
+        <v>165</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>133</v>
+        <v>166</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -2432,13 +2732,13 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
-        <v>134</v>
+        <v>167</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>135</v>
+        <v>168</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="D9" s="5">
         <v>4.0</v>
@@ -2448,10 +2748,10 @@
         <v>8</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>136</v>
+        <v>169</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>137</v>
+        <v>58</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -2474,13 +2774,13 @@
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>138</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>106</v>
       </c>
       <c r="D10" s="5">
         <v>4.0</v>
@@ -2490,10 +2790,10 @@
         <v>8</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>141</v>
+        <v>173</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -2516,13 +2816,13 @@
     </row>
     <row r="11">
       <c r="A11" s="5" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="D11" s="5">
         <v>3.75</v>
@@ -2532,10 +2832,10 @@
         <v>7.5</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
@@ -2558,13 +2858,13 @@
     </row>
     <row r="12">
       <c r="A12" s="5" t="s">
-        <v>146</v>
+        <v>178</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>147</v>
+        <v>179</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>124</v>
+        <v>156</v>
       </c>
       <c r="D12" s="5">
         <v>3.75</v>
@@ -2574,10 +2874,10 @@
         <v>7.5</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -2600,13 +2900,13 @@
     </row>
     <row r="13">
       <c r="A13" s="5" t="s">
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>151</v>
+        <v>183</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="D13" s="5">
         <v>3.75</v>
@@ -2616,10 +2916,10 @@
         <v>7.5</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>152</v>
+        <v>184</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
@@ -2642,26 +2942,26 @@
     </row>
     <row r="14">
       <c r="A14" s="5" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="D14" s="5">
         <v>3.75</v>
       </c>
       <c r="E14" s="4">
-        <f t="shared" ref="E14:E41" si="2">D14*2</f>
+        <f t="shared" ref="E14:E44" si="2">D14*2</f>
         <v>7.5</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>157</v>
+        <v>111</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
@@ -2684,13 +2984,13 @@
     </row>
     <row r="15">
       <c r="A15" s="5" t="s">
-        <v>158</v>
+        <v>189</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="D15" s="5">
         <v>3.5</v>
@@ -2700,10 +3000,10 @@
         <v>7</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>161</v>
+        <v>191</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
@@ -2726,13 +3026,13 @@
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
-        <v>162</v>
+        <v>192</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>163</v>
+        <v>193</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="D16" s="5">
         <v>3.5</v>
@@ -2741,9 +3041,11 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="F16" s="4"/>
+      <c r="F16" s="5" t="s">
+        <v>194</v>
+      </c>
       <c r="G16" s="5" t="s">
-        <v>165</v>
+        <v>195</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
@@ -2766,13 +3068,13 @@
     </row>
     <row r="17">
       <c r="A17" s="5" t="s">
-        <v>166</v>
+        <v>196</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>159</v>
+        <v>197</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>119</v>
+        <v>198</v>
       </c>
       <c r="D17" s="5">
         <v>3.5</v>
@@ -2782,10 +3084,10 @@
         <v>7</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>167</v>
+        <v>199</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>129</v>
+        <v>200</v>
       </c>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
@@ -2808,13 +3110,13 @@
     </row>
     <row r="18">
       <c r="A18" s="5" t="s">
-        <v>168</v>
+        <v>201</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>106</v>
+        <v>151</v>
       </c>
       <c r="D18" s="5">
         <v>3.5</v>
@@ -2824,10 +3126,10 @@
         <v>7</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>76</v>
+        <v>202</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>162</v>
       </c>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
@@ -2850,13 +3152,13 @@
     </row>
     <row r="19">
       <c r="A19" s="5" t="s">
-        <v>171</v>
+        <v>203</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>172</v>
+        <v>204</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="D19" s="5">
         <v>3.5</v>
@@ -2866,10 +3168,10 @@
         <v>7</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>173</v>
+        <v>205</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>174</v>
+        <v>74</v>
       </c>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
@@ -2892,13 +3194,13 @@
     </row>
     <row r="20">
       <c r="A20" s="5" t="s">
-        <v>175</v>
+        <v>206</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>176</v>
+        <v>207</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>177</v>
+        <v>151</v>
       </c>
       <c r="D20" s="5">
         <v>3.5</v>
@@ -2908,10 +3210,10 @@
         <v>7</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>178</v>
+        <v>208</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>179</v>
+        <v>209</v>
       </c>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
@@ -2934,13 +3236,13 @@
     </row>
     <row r="21">
       <c r="A21" s="5" t="s">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>169</v>
+        <v>211</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>119</v>
+        <v>212</v>
       </c>
       <c r="D21" s="5">
         <v>3.5</v>
@@ -2950,10 +3252,10 @@
         <v>7</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>181</v>
+        <v>213</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>182</v>
+        <v>121</v>
       </c>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
@@ -2976,13 +3278,13 @@
     </row>
     <row r="22">
       <c r="A22" s="5" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>106</v>
+        <v>151</v>
       </c>
       <c r="D22" s="5">
         <v>3.5</v>
@@ -2991,9 +3293,11 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="F22" s="4"/>
+      <c r="F22" s="5" t="s">
+        <v>215</v>
+      </c>
       <c r="G22" s="1" t="s">
-        <v>185</v>
+        <v>216</v>
       </c>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
@@ -3016,13 +3320,13 @@
     </row>
     <row r="23">
       <c r="A23" s="5" t="s">
-        <v>186</v>
+        <v>217</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>151</v>
+        <v>218</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="D23" s="5">
         <v>3.5</v>
@@ -3032,10 +3336,10 @@
         <v>7</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>187</v>
+        <v>219</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>188</v>
+        <v>220</v>
       </c>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
@@ -3058,13 +3362,13 @@
     </row>
     <row r="24">
       <c r="A24" s="5" t="s">
-        <v>189</v>
+        <v>221</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>151</v>
+        <v>183</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>106</v>
+        <v>156</v>
       </c>
       <c r="D24" s="5">
         <v>3.5</v>
@@ -3074,10 +3378,10 @@
         <v>7</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
@@ -3100,13 +3404,13 @@
     </row>
     <row r="25">
       <c r="A25" s="5" t="s">
-        <v>192</v>
+        <v>224</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="D25" s="5">
         <v>3.5</v>
@@ -3116,10 +3420,10 @@
         <v>7</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>194</v>
+        <v>225</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>195</v>
+        <v>226</v>
       </c>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
@@ -3142,13 +3446,13 @@
     </row>
     <row r="26">
       <c r="A26" s="5" t="s">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>197</v>
+        <v>228</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>106</v>
+        <v>151</v>
       </c>
       <c r="D26" s="5">
         <v>3.5</v>
@@ -3158,10 +3462,10 @@
         <v>7</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>198</v>
+        <v>229</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>199</v>
+        <v>230</v>
       </c>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
@@ -3184,13 +3488,13 @@
     </row>
     <row r="27">
       <c r="A27" s="5" t="s">
-        <v>200</v>
+        <v>231</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>201</v>
+        <v>232</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="D27" s="5">
         <v>3.5</v>
@@ -3200,10 +3504,10 @@
         <v>7</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
@@ -3226,13 +3530,13 @@
     </row>
     <row r="28">
       <c r="A28" s="5" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="D28" s="5">
         <v>3.5</v>
@@ -3242,10 +3546,10 @@
         <v>7</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
@@ -3268,13 +3572,13 @@
     </row>
     <row r="29">
       <c r="A29" s="5" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>209</v>
+        <v>240</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>119</v>
+        <v>156</v>
       </c>
       <c r="D29" s="5">
         <v>3.5</v>
@@ -3284,10 +3588,10 @@
         <v>7</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>210</v>
+        <v>241</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>211</v>
+        <v>242</v>
       </c>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
@@ -3310,13 +3614,13 @@
     </row>
     <row r="30">
       <c r="A30" s="5" t="s">
-        <v>212</v>
+        <v>243</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>135</v>
+        <v>244</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="D30" s="5">
         <v>3.5</v>
@@ -3326,10 +3630,10 @@
         <v>7</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>213</v>
+        <v>245</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>214</v>
+        <v>246</v>
       </c>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
@@ -3352,13 +3656,13 @@
     </row>
     <row r="31">
       <c r="A31" s="5" t="s">
-        <v>215</v>
+        <v>247</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="D31" s="5">
         <v>3.5</v>
@@ -3368,10 +3672,10 @@
         <v>7</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>216</v>
+        <v>248</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>217</v>
+        <v>249</v>
       </c>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
@@ -3394,13 +3698,13 @@
     </row>
     <row r="32">
       <c r="A32" s="5" t="s">
-        <v>218</v>
+        <v>250</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>219</v>
+        <v>175</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="D32" s="5">
         <v>3.5</v>
@@ -3410,10 +3714,10 @@
         <v>7</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>221</v>
+        <v>251</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>222</v>
+        <v>252</v>
       </c>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
@@ -3435,27 +3739,27 @@
       <c r="Z32" s="4"/>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D33" s="1">
+      <c r="A33" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="D33" s="5">
         <v>3.5</v>
       </c>
       <c r="E33" s="4">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>225</v>
+      <c r="F33" s="5" t="s">
+        <v>256</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>226</v>
+        <v>257</v>
       </c>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
@@ -3478,13 +3782,13 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>227</v>
+        <v>258</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>169</v>
+        <v>259</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>106</v>
+        <v>156</v>
       </c>
       <c r="D34" s="1">
         <v>3.5</v>
@@ -3494,10 +3798,10 @@
         <v>7</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>228</v>
+        <v>260</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>229</v>
+        <v>261</v>
       </c>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
@@ -3520,13 +3824,13 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>230</v>
+        <v>262</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>172</v>
+        <v>204</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="D35" s="1">
         <v>3.5</v>
@@ -3536,10 +3840,10 @@
         <v>7</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
@@ -3561,27 +3865,27 @@
       <c r="Z35" s="4"/>
     </row>
     <row r="36">
-      <c r="A36" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="D36" s="5">
+      <c r="A36" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D36" s="1">
         <v>3.5</v>
       </c>
       <c r="E36" s="4">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="F36" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>235</v>
+      <c r="F36" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
@@ -3604,13 +3908,13 @@
     </row>
     <row r="37">
       <c r="A37" s="5" t="s">
-        <v>236</v>
+        <v>268</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>113</v>
+        <v>204</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="D37" s="5">
         <v>3.5</v>
@@ -3620,10 +3924,10 @@
         <v>7</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>238</v>
+        <v>269</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>270</v>
       </c>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
@@ -3646,13 +3950,13 @@
     </row>
     <row r="38">
       <c r="A38" s="5" t="s">
-        <v>239</v>
+        <v>271</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>240</v>
+        <v>145</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="D38" s="5">
         <v>3.5</v>
@@ -3662,10 +3966,10 @@
         <v>7</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>241</v>
+        <v>272</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>242</v>
+        <v>273</v>
       </c>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
@@ -3688,13 +3992,13 @@
     </row>
     <row r="39">
       <c r="A39" s="5" t="s">
-        <v>243</v>
+        <v>274</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>151</v>
+        <v>275</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="D39" s="5">
         <v>3.5</v>
@@ -3704,10 +4008,10 @@
         <v>7</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>244</v>
+        <v>276</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
@@ -3730,26 +4034,26 @@
     </row>
     <row r="40">
       <c r="A40" s="5" t="s">
-        <v>246</v>
+        <v>278</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>247</v>
+        <v>183</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>248</v>
+        <v>151</v>
       </c>
       <c r="D40" s="5">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="E40" s="4">
         <f t="shared" si="2"/>
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>249</v>
+        <v>279</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
@@ -3772,26 +4076,26 @@
     </row>
     <row r="41">
       <c r="A41" s="5" t="s">
-        <v>251</v>
+        <v>281</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>252</v>
+        <v>183</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>253</v>
+        <v>151</v>
       </c>
       <c r="D41" s="5">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="E41" s="4">
         <f t="shared" si="2"/>
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>254</v>
+        <v>282</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>179</v>
+        <v>283</v>
       </c>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
@@ -3814,26 +4118,26 @@
     </row>
     <row r="42">
       <c r="A42" s="5" t="s">
-        <v>255</v>
+        <v>284</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>131</v>
+        <v>285</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="D42" s="5">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="E42" s="4">
-        <f>D42*2</f>
-        <v>6.5</v>
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>256</v>
+        <v>286</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>257</v>
+        <v>287</v>
       </c>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
@@ -3856,26 +4160,26 @@
     </row>
     <row r="43">
       <c r="A43" s="5" t="s">
-        <v>258</v>
+        <v>288</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>151</v>
+        <v>289</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>119</v>
+        <v>290</v>
       </c>
       <c r="D43" s="5">
         <v>3.25</v>
       </c>
       <c r="E43" s="4">
-        <f t="shared" ref="E43:E58" si="3">D43*2</f>
+        <f t="shared" si="2"/>
         <v>6.5</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>260</v>
+        <v>291</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>292</v>
       </c>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
@@ -3898,26 +4202,26 @@
     </row>
     <row r="44">
       <c r="A44" s="5" t="s">
-        <v>261</v>
+        <v>293</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>262</v>
+        <v>294</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>177</v>
+        <v>295</v>
       </c>
       <c r="D44" s="5">
         <v>3.25</v>
       </c>
       <c r="E44" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6.5</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>263</v>
+        <v>296</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>264</v>
+        <v>121</v>
       </c>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
@@ -3940,95 +4244,98 @@
     </row>
     <row r="45">
       <c r="A45" s="5" t="s">
-        <v>265</v>
+        <v>297</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="D45" s="5">
         <v>3.25</v>
       </c>
       <c r="E45" s="4">
+        <f>D45*2</f>
+        <v>6.5</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D46" s="5">
+        <v>3.25</v>
+      </c>
+      <c r="E46" s="4">
+        <f t="shared" ref="E46:E61" si="3">D46*2</f>
+        <v>6.5</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="D47" s="5">
+        <v>3.25</v>
+      </c>
+      <c r="E47" s="4">
         <f t="shared" si="3"/>
         <v>6.5</v>
       </c>
-      <c r="F45" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="D46" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="E46" s="4">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="D47" s="5">
-        <v>3.0</v>
-      </c>
-      <c r="E47" s="4">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
       <c r="F47" s="5" t="s">
-        <v>272</v>
+        <v>305</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>273</v>
+        <v>306</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="5" t="s">
-        <v>274</v>
+        <v>307</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>275</v>
+        <v>207</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>124</v>
+        <v>212</v>
       </c>
       <c r="D48" s="5">
-        <v>3.0</v>
+        <v>3.25</v>
       </c>
       <c r="E48" s="4">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>6.5</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>308</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>276</v>
+        <v>309</v>
       </c>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
@@ -4051,13 +4358,13 @@
     </row>
     <row r="49">
       <c r="A49" s="5" t="s">
-        <v>277</v>
+        <v>310</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>205</v>
+        <v>311</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>124</v>
+        <v>156</v>
       </c>
       <c r="D49" s="5">
         <v>3.0</v>
@@ -4067,10 +4374,10 @@
         <v>6</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>278</v>
+        <v>312</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>279</v>
+        <v>313</v>
       </c>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
@@ -4093,13 +4400,13 @@
     </row>
     <row r="50">
       <c r="A50" s="5" t="s">
-        <v>280</v>
+        <v>314</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>151</v>
+        <v>315</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>106</v>
+        <v>156</v>
       </c>
       <c r="D50" s="5">
         <v>3.0</v>
@@ -4108,11 +4415,8 @@
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="F50" s="5" t="s">
-        <v>281</v>
-      </c>
       <c r="G50" s="1" t="s">
-        <v>282</v>
+        <v>316</v>
       </c>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
@@ -4135,13 +4439,13 @@
     </row>
     <row r="51">
       <c r="A51" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>284</v>
+        <v>317</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>240</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>124</v>
+        <v>156</v>
       </c>
       <c r="D51" s="5">
         <v>3.0</v>
@@ -4151,10 +4455,10 @@
         <v>6</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>285</v>
+        <v>318</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>284</v>
+        <v>319</v>
       </c>
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
@@ -4177,13 +4481,13 @@
     </row>
     <row r="52">
       <c r="A52" s="5" t="s">
-        <v>286</v>
+        <v>320</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>287</v>
+        <v>183</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>177</v>
+        <v>138</v>
       </c>
       <c r="D52" s="5">
         <v>3.0</v>
@@ -4193,10 +4497,10 @@
         <v>6</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>288</v>
+        <v>321</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>289</v>
+        <v>322</v>
       </c>
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
@@ -4219,13 +4523,13 @@
     </row>
     <row r="53">
       <c r="A53" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>151</v>
+        <v>323</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>324</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>124</v>
+        <v>156</v>
       </c>
       <c r="D53" s="5">
         <v>3.0</v>
@@ -4235,10 +4539,10 @@
         <v>6</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>291</v>
+        <v>325</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>292</v>
+        <v>324</v>
       </c>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
@@ -4261,26 +4565,26 @@
     </row>
     <row r="54">
       <c r="A54" s="5" t="s">
-        <v>293</v>
+        <v>326</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>151</v>
+        <v>327</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>106</v>
+        <v>212</v>
       </c>
       <c r="D54" s="5">
-        <v>2.5</v>
+        <v>3.0</v>
       </c>
       <c r="E54" s="4">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="G54" s="5" t="s">
-        <v>295</v>
+        <v>328</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>329</v>
       </c>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
@@ -4303,26 +4607,26 @@
     </row>
     <row r="55">
       <c r="A55" s="5" t="s">
-        <v>296</v>
+        <v>330</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>220</v>
+        <v>156</v>
       </c>
       <c r="D55" s="5">
-        <v>2.5</v>
+        <v>3.0</v>
       </c>
       <c r="E55" s="4">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="G55" s="5" t="s">
-        <v>129</v>
+        <v>331</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>332</v>
       </c>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
@@ -4345,26 +4649,26 @@
     </row>
     <row r="56">
       <c r="A56" s="5" t="s">
-        <v>298</v>
+        <v>333</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>299</v>
+        <v>168</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="D56" s="5">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="E56" s="4">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="G56" s="5" t="s">
-        <v>301</v>
+        <v>334</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>162</v>
       </c>
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
@@ -4387,26 +4691,26 @@
     </row>
     <row r="57">
       <c r="A57" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>303</v>
+        <v>335</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>183</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="D57" s="5">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="E57" s="4">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>305</v>
+        <v>336</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>337</v>
       </c>
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
@@ -4429,26 +4733,26 @@
     </row>
     <row r="58">
       <c r="A58" s="5" t="s">
-        <v>306</v>
+        <v>338</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>151</v>
+        <v>240</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>119</v>
+        <v>255</v>
       </c>
       <c r="D58" s="5">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="E58" s="4">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>308</v>
+        <v>339</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>162</v>
       </c>
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
@@ -4470,13 +4774,28 @@
       <c r="Z58" s="4"/>
     </row>
     <row r="59">
-      <c r="A59" s="5"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
+      <c r="A59" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D59" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="E59" s="4">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>343</v>
+      </c>
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
       <c r="K59" s="4"/>
@@ -4497,13 +4816,28 @@
       <c r="Z59" s="4"/>
     </row>
     <row r="60">
-      <c r="A60" s="4"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
+      <c r="A60" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D60" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E60" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>347</v>
+      </c>
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
@@ -4524,13 +4858,28 @@
       <c r="Z60" s="4"/>
     </row>
     <row r="61">
-      <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
+      <c r="A61" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D61" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E61" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>350</v>
+      </c>
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
       <c r="K61" s="4"/>
@@ -29931,19 +30280,19 @@
         <v>8</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>10</v>
@@ -29969,13 +30318,13 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>309</v>
+        <v>351</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>310</v>
+        <v>352</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>124</v>
+        <v>156</v>
       </c>
       <c r="D2" s="5">
         <v>4.0</v>
@@ -29985,10 +30334,10 @@
         <v>8</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>311</v>
+        <v>353</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>279</v>
+        <v>319</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
@@ -30011,13 +30360,13 @@
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
-        <v>312</v>
+        <v>354</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>313</v>
+        <v>355</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>164</v>
+        <v>198</v>
       </c>
       <c r="D3" s="5">
         <v>4.0</v>
@@ -30027,10 +30376,10 @@
         <v>8</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>314</v>
+        <v>356</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>315</v>
+        <v>357</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
@@ -30053,13 +30402,13 @@
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
-        <v>316</v>
+        <v>358</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>317</v>
+        <v>359</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="D4" s="1">
         <v>4.0</v>
@@ -30069,10 +30418,10 @@
         <v>8</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>318</v>
+        <v>360</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>319</v>
+        <v>361</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
@@ -30095,13 +30444,13 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>320</v>
+        <v>362</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>321</v>
+        <v>363</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>124</v>
+        <v>156</v>
       </c>
       <c r="D5" s="1">
         <v>4.0</v>
@@ -30111,21 +30460,21 @@
         <v>8</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>322</v>
+        <v>364</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>323</v>
+        <v>365</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>324</v>
+        <v>366</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>310</v>
+        <v>352</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>248</v>
+        <v>290</v>
       </c>
       <c r="D6" s="5">
         <v>3.5</v>
@@ -30135,21 +30484,21 @@
         <v>7</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>325</v>
+        <v>367</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>326</v>
+        <v>368</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>327</v>
+        <v>369</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>317</v>
+        <v>359</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>124</v>
+        <v>156</v>
       </c>
       <c r="D7" s="1">
         <v>3.0</v>
@@ -30159,21 +30508,21 @@
         <v>6</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>328</v>
+        <v>370</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>329</v>
+        <v>371</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>330</v>
+        <v>372</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>313</v>
+        <v>355</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="D8" s="1">
         <v>3.0</v>
@@ -30183,21 +30532,21 @@
         <v>6</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>331</v>
+        <v>373</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>332</v>
+        <v>374</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
-        <v>333</v>
+        <v>375</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>317</v>
+        <v>359</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="D9" s="1">
         <v>2.5</v>
@@ -30207,21 +30556,21 @@
         <v>5</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>334</v>
+        <v>376</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>129</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
-        <v>335</v>
+        <v>377</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>336</v>
+        <v>378</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>220</v>
+        <v>255</v>
       </c>
       <c r="D10" s="1">
         <v>2.0</v>
@@ -30231,21 +30580,21 @@
         <v>4</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>337</v>
+        <v>379</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>129</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>338</v>
+        <v>380</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>313</v>
+        <v>355</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="D11" s="1">
         <v>2.0</v>
@@ -30255,21 +30604,21 @@
         <v>4</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>339</v>
+        <v>381</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>129</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>340</v>
+        <v>382</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>313</v>
+        <v>355</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>220</v>
+        <v>255</v>
       </c>
       <c r="D12" s="1">
         <v>3.0</v>
@@ -30279,10 +30628,10 @@
         <v>6</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>341</v>
+        <v>383</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>342</v>
+        <v>384</v>
       </c>
     </row>
   </sheetData>
@@ -30313,19 +30662,19 @@
         <v>8</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>10</v>
@@ -30351,13 +30700,13 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>343</v>
+        <v>385</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>344</v>
+        <v>386</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="D2" s="1">
         <v>4.5</v>
@@ -30367,21 +30716,21 @@
         <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>345</v>
+        <v>387</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>346</v>
+        <v>388</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>347</v>
+        <v>389</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>348</v>
+        <v>390</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="D3" s="1">
         <v>4.0</v>
@@ -30391,21 +30740,21 @@
         <v>8</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>349</v>
+        <v>391</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>350</v>
+        <v>392</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>351</v>
+        <v>393</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>348</v>
+        <v>390</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>124</v>
+        <v>156</v>
       </c>
       <c r="D4" s="1">
         <v>4.0</v>
@@ -30415,21 +30764,21 @@
         <v>8</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>352</v>
+        <v>394</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>353</v>
+        <v>395</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>354</v>
+        <v>396</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>355</v>
+        <v>397</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>356</v>
+        <v>398</v>
       </c>
       <c r="D5" s="1">
         <v>4.0</v>
@@ -30439,21 +30788,21 @@
         <v>8</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>357</v>
+        <v>399</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>358</v>
+        <v>400</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>344</v>
+        <v>386</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>356</v>
+        <v>398</v>
       </c>
       <c r="D6" s="1">
         <v>4.0</v>
@@ -30463,15 +30812,15 @@
         <v>8</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>359</v>
+        <v>401</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>360</v>
+        <v>402</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>344</v>
+        <v>386</v>
       </c>
       <c r="D7" s="1">
         <v>4.0</v>
@@ -30481,15 +30830,15 @@
         <v>8</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>361</v>
+        <v>403</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>362</v>
+        <v>404</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>344</v>
+        <v>386</v>
       </c>
       <c r="D8" s="1">
         <v>4.0</v>
@@ -30499,18 +30848,18 @@
         <v>8</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>363</v>
+        <v>405</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>364</v>
+        <v>406</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>344</v>
+        <v>386</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>356</v>
+        <v>398</v>
       </c>
       <c r="D9" s="1">
         <v>4.0</v>
@@ -30520,18 +30869,18 @@
         <v>8</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>365</v>
+        <v>407</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>366</v>
+        <v>408</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>344</v>
+        <v>386</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>356</v>
+        <v>398</v>
       </c>
       <c r="D10" s="1">
         <v>3.5</v>
@@ -30541,18 +30890,18 @@
         <v>7</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>367</v>
+        <v>409</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>368</v>
+        <v>410</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>348</v>
+        <v>390</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="D11" s="1">
         <v>3.5</v>
@@ -30562,21 +30911,21 @@
         <v>7</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>369</v>
+        <v>411</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>137</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>370</v>
+        <v>412</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>371</v>
+        <v>413</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="D12" s="1">
         <v>3.5</v>
@@ -30586,7 +30935,7 @@
         <v>7</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>372</v>
+        <v>414</v>
       </c>
     </row>
   </sheetData>
@@ -30618,13 +30967,13 @@
         <v>8</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>10</v>
@@ -30632,25 +30981,25 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>373</v>
+        <v>415</v>
       </c>
       <c r="B2" s="1">
         <v>4.5</v>
       </c>
       <c r="C2" s="6">
-        <f t="shared" ref="C2:C15" si="1">B2*2</f>
+        <f t="shared" ref="C2:C17" si="1">B2*2</f>
         <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>374</v>
+        <v>416</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>375</v>
+        <v>417</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>376</v>
+        <v>418</v>
       </c>
       <c r="B3" s="1">
         <v>4.0</v>
@@ -30660,15 +31009,15 @@
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>377</v>
+        <v>419</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>378</v>
+        <v>420</v>
       </c>
       <c r="B4" s="1">
         <v>4.0</v>
@@ -30678,15 +31027,15 @@
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>379</v>
+        <v>421</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>381</v>
+        <v>423</v>
       </c>
       <c r="B5" s="1">
         <v>4.0</v>
@@ -30696,15 +31045,15 @@
         <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>382</v>
+        <v>424</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>383</v>
+        <v>425</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>384</v>
+        <v>426</v>
       </c>
       <c r="B6" s="1">
         <v>4.0</v>
@@ -30714,15 +31063,15 @@
         <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>385</v>
+        <v>427</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>386</v>
+        <v>428</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>387</v>
+        <v>429</v>
       </c>
       <c r="B7" s="1">
         <v>4.0</v>
@@ -30732,15 +31081,15 @@
         <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>388</v>
+        <v>430</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>389</v>
+        <v>431</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>390</v>
+        <v>432</v>
       </c>
       <c r="B8" s="1">
         <v>4.0</v>
@@ -30750,15 +31099,15 @@
         <v>8</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>391</v>
+        <v>433</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>392</v>
+        <v>434</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>393</v>
+        <v>435</v>
       </c>
       <c r="B9" s="1">
         <v>4.0</v>
@@ -30768,87 +31117,87 @@
         <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>394</v>
+        <v>436</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>395</v>
+        <v>437</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>396</v>
+        <v>438</v>
       </c>
       <c r="B10" s="1">
-        <v>3.5</v>
+        <v>4.0</v>
       </c>
       <c r="C10" s="6">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>397</v>
+        <v>439</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>398</v>
+        <v>440</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>399</v>
+        <v>441</v>
       </c>
       <c r="B11" s="1">
-        <v>3.5</v>
+        <v>4.0</v>
       </c>
       <c r="C11" s="6">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>400</v>
+        <v>442</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>401</v>
+        <v>283</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>402</v>
+        <v>443</v>
       </c>
       <c r="B12" s="1">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="C12" s="6">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>403</v>
+        <v>444</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>260</v>
+        <v>302</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>404</v>
+        <v>445</v>
       </c>
       <c r="B13" s="1">
-        <v>3.0</v>
+        <v>3.5</v>
       </c>
       <c r="C13" s="6">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>405</v>
+        <v>446</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>406</v>
+        <v>447</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>407</v>
+        <v>448</v>
       </c>
       <c r="B14" s="1">
         <v>3.0</v>
@@ -30858,25 +31207,64 @@
         <v>6</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>408</v>
+        <v>449</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>191</v>
+        <v>450</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>409</v>
+        <v>451</v>
       </c>
       <c r="B15" s="1">
-        <v>2.5</v>
+        <v>3.0</v>
       </c>
       <c r="C15" s="6">
         <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B16" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="C16" s="6">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>410</v>
+      <c r="D16" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B17" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="C17" s="6">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>458</v>
       </c>
     </row>
   </sheetData>

--- a/ATL-Food-and-Drink-Review-List.xlsx
+++ b/ATL-Food-and-Drink-Review-List.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="521">
   <si>
     <t>The designations of "Vegan" are used to roughly quantify the percentage of the menu items that are vegan:</t>
   </si>
@@ -41,10 +41,10 @@
     <t>None: 0%</t>
   </si>
   <si>
-    <t>Star ratings are based on a variety of factors, mainly taste of food food. But can also be influenced by interior aesthetic and ambiance and price</t>
-  </si>
-  <si>
-    <t>It is worth noting some places may have really good non-vegan dishes that were simply not tried. Ratings may be biased to plant-based dishes</t>
+    <t>*NOTE: Star ratings are based on a variety of factors, mainly taste of food. But are also influenced by value (i.e. is the price of the food worth equal to its taste), interior aesthetic and/or ambiance</t>
+  </si>
+  <si>
+    <t>*NOTE: some places may have really good non-vegan dishes that were simply not tried. Ratings may be biased to plant-based dishes</t>
   </si>
   <si>
     <t>Name</t>
@@ -77,880 +77,1057 @@
     <t>3125 Briarcliff Rd NE, Atlanta, GA 30329</t>
   </si>
   <si>
+    <t>La Moon</t>
+  </si>
+  <si>
+    <t>1040 North Highland Avenue Northeast, Atlanta, GA 30306</t>
+  </si>
+  <si>
+    <t>Pom Court @ Hotel Granada</t>
+  </si>
+  <si>
+    <t>1302 W Peachtree St NW, Atlanta, GA 30309</t>
+  </si>
+  <si>
+    <t>Sweet Water Brewing</t>
+  </si>
+  <si>
+    <t>Bars</t>
+  </si>
+  <si>
+    <t>195 Ottley Drive Northeast, Atlanta, GA 30324</t>
+  </si>
+  <si>
+    <t>Three Taverns Imaginarium</t>
+  </si>
+  <si>
+    <t>777 Memorial Dr SE Suite B103, Atlanta, GA 30316</t>
+  </si>
+  <si>
+    <t>The Rooftop at Clermont</t>
+  </si>
+  <si>
+    <t>789 Ponce De Leon Ave NE, Atlanta, GA 30306</t>
+  </si>
+  <si>
+    <t>Ranger Station Speakeasy</t>
+  </si>
+  <si>
+    <t>684 John Wesley Dobbs Ave NE Unit J, Atlanta, GA 30312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tabla </t>
+  </si>
+  <si>
+    <t>77 12th St NE, Atlanta, GA 30309</t>
+  </si>
+  <si>
+    <t>Yakitori Kona</t>
+  </si>
+  <si>
+    <t>1004 Virginia Ave NE, Atlanta, GA 30306</t>
+  </si>
+  <si>
+    <t>Vegan Food Social (ATL utility works)</t>
+  </si>
+  <si>
+    <t>2903 RN Martin St, East Point, GA 30344</t>
+  </si>
+  <si>
+    <t>Cafe Sunflower</t>
+  </si>
+  <si>
+    <t>2140 Peachtree Rd, Atlanta, GA 30309</t>
+  </si>
+  <si>
+    <t>Coyote's Mexican Grill</t>
+  </si>
+  <si>
+    <t>105 Sycamore Pl, Decatur, GA 30030</t>
+  </si>
+  <si>
+    <t>Arepa Mia</t>
+  </si>
+  <si>
+    <t>10 N Clarendon Ave Suite A, Avondale Estates, GA 30002</t>
+  </si>
+  <si>
+    <t>Chai Pani</t>
+  </si>
+  <si>
+    <t>406 W Ponce de Leon Ave, Decatur, GA 30030</t>
+  </si>
+  <si>
+    <t>Ruby Chow</t>
+  </si>
+  <si>
+    <t>620 Glen Iris Dr NE, Atlanta, GA 30308</t>
+  </si>
+  <si>
+    <t>Masterpiece</t>
+  </si>
+  <si>
+    <t>3940 Buford Hwy, Duluth, GA 30096</t>
+  </si>
+  <si>
+    <t>Whoopsies</t>
+  </si>
+  <si>
+    <t>1 Moreland Ave SE, Atlanta, GA 30316</t>
+  </si>
+  <si>
+    <t>Estrellita Filipino</t>
+  </si>
+  <si>
+    <t>580 Woodward Ave SE, Atlanta, GA 30312</t>
+  </si>
+  <si>
+    <t>Bacelona Wine Bar</t>
+  </si>
+  <si>
+    <t>240 North Highland Avenue Northeast, Atlanta, GA 30307</t>
+  </si>
+  <si>
+    <t>Pho Bac</t>
+  </si>
+  <si>
+    <t>4897 Buford Hwy, Chamblee, GA 30341</t>
+  </si>
+  <si>
+    <t>Kamayan ATL - Filipino Restaurant</t>
+  </si>
+  <si>
+    <t>5150 Buford Hwy, Doraville, GA 30340</t>
+  </si>
+  <si>
+    <t>VeGreen Vegan Fusion Restaurant</t>
+  </si>
+  <si>
+    <t>3780 Old Norcross Rd, Duluth, GA 30096</t>
+  </si>
+  <si>
+    <t>Lee's Bakery</t>
+  </si>
+  <si>
+    <t>4005 Buford Hwy Suite C, Atlanta, GA 30345</t>
+  </si>
+  <si>
+    <t>Chat Patti Indian Vegetarian Restaurant</t>
+  </si>
+  <si>
+    <t>1707 Church St, Decatur, GA 30033</t>
+  </si>
+  <si>
+    <t>Desi Spice Indian Cuisine</t>
+  </si>
+  <si>
+    <t>Midtown Promenade, 931 Monroe Dr NE, Atlanta, GA 30308</t>
+  </si>
+  <si>
+    <t>Bakaris Pizza</t>
+  </si>
+  <si>
+    <t>576 Lee St SW, Atlanta, GA 30310</t>
+  </si>
+  <si>
+    <t>Shoya Izakaya</t>
+  </si>
+  <si>
+    <t>6035 Peachtree Rd, Doraville, GA 30340</t>
+  </si>
+  <si>
+    <t>My Parents Basement</t>
+  </si>
+  <si>
+    <t>22 N Avondale Rd, Avondale Estates, GA 30002</t>
+  </si>
+  <si>
+    <t>Moonlight</t>
+  </si>
+  <si>
+    <t>800 Rankin St NE, Atlanta, GA 30308</t>
+  </si>
+  <si>
+    <t>Stereo</t>
+  </si>
+  <si>
+    <t>900 DeKalb Ave NE suite f, Atlanta, GA 30307</t>
+  </si>
+  <si>
+    <t>Your DeKalb Farmers Market</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grocery store </t>
+  </si>
+  <si>
+    <t>3000 E Ponce de Leon Ave, Decatur, GA 30030</t>
+  </si>
+  <si>
+    <t>TESO Life</t>
+  </si>
+  <si>
+    <t>Grocery store</t>
+  </si>
+  <si>
+    <t>2180 Pleasant Hill Rd SUITE F, Duluth, GA 30096</t>
+  </si>
+  <si>
+    <t>Lov'n it live</t>
+  </si>
+  <si>
+    <t>2796 E Point St, East Point, GA 30344</t>
+  </si>
+  <si>
+    <t>Planted soul</t>
+  </si>
+  <si>
+    <t>3569 Main St, College Park, GA 30337</t>
+  </si>
+  <si>
+    <t>Yalda</t>
+  </si>
+  <si>
+    <t>980 Howell Mill Rd Suite 4, Atlanta, GA 30318</t>
+  </si>
+  <si>
+    <t>Madre Selva</t>
+  </si>
+  <si>
+    <t>570 Main St, Atlanta, GA 30324</t>
+  </si>
+  <si>
+    <t>Okiboru Tsukemen &amp; Ramen</t>
+  </si>
+  <si>
+    <t>2277 Peachtree Rd NE, Atlanta, GA 30309</t>
+  </si>
+  <si>
+    <t>La Hacienda Midtown</t>
+  </si>
+  <si>
+    <t>900 Monroe Dr NE, Atlanta, GA 30308</t>
+  </si>
+  <si>
+    <t>Redacted</t>
+  </si>
+  <si>
+    <t>63b Georgia Avenue, Atlanta, GA 30312</t>
+  </si>
+  <si>
+    <t>7th House</t>
+  </si>
+  <si>
+    <t>565 Northside Dr SW suite a103, Atlanta, GA 30310</t>
+  </si>
+  <si>
+    <t>NFA Burger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Restaurants </t>
+  </si>
+  <si>
+    <t>5465 Chamblee Dunwoody Rd, Dunwoody, GA 30338</t>
+  </si>
+  <si>
+    <t>Homegrown Restaurant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Restaurant </t>
+  </si>
+  <si>
+    <t>968 Memorial Dr SE, Atlanta, GA 30316</t>
+  </si>
+  <si>
+    <t>So So Fed</t>
+  </si>
+  <si>
+    <t>Restaurant</t>
+  </si>
+  <si>
+    <t>714 Moreland Ave SE Suite D, Atlanta, GA 30316</t>
+  </si>
+  <si>
+    <t>Glide Pizza</t>
+  </si>
+  <si>
+    <t>659 Auburn Ave NE, Atlanta, GA 30312, USA</t>
+  </si>
+  <si>
+    <t>Psito</t>
+  </si>
+  <si>
+    <t>25 Georgia Ave, Atlanta, GA 30312</t>
+  </si>
+  <si>
+    <t>E+ROSE Wellness Cafe</t>
+  </si>
+  <si>
+    <t>1100 Howell Mill Rd NW, Atlanta, GA 30318</t>
+  </si>
+  <si>
+    <t>Yuji Modern Japanese</t>
+  </si>
+  <si>
+    <t>667 Auburn Ave NE suite 122, Atlanta, GA 30312</t>
+  </si>
+  <si>
+    <t>Dips Kitchen</t>
+  </si>
+  <si>
+    <t>99 Krog St NE, Atlanta, GA 30307</t>
+  </si>
+  <si>
+    <t>LanZhou Ramen</t>
+  </si>
+  <si>
+    <t>5231 Buford Hwy, Doraville, GA 30340</t>
+  </si>
+  <si>
+    <t>El Rey Del Taco</t>
+  </si>
+  <si>
+    <t>5288 Buford Hwy, Doraville, GA 30340</t>
+  </si>
+  <si>
+    <t>Stone Bowl House</t>
+  </si>
+  <si>
+    <t>Restuarant</t>
+  </si>
+  <si>
+    <t>5953 Buford Hwy, Doraville, GA 30340</t>
+  </si>
+  <si>
+    <t>MF Sushi</t>
+  </si>
+  <si>
+    <t>299 North Highland Avenue Northeast, Atlanta, GA 30307</t>
+  </si>
+  <si>
+    <t>Oaxaca ATL</t>
+  </si>
+  <si>
+    <t>5255 Peachtree Boulevard Suite 105, Chamblee, GA 30341</t>
+  </si>
+  <si>
+    <t>Hawkers Asian Street Food</t>
+  </si>
+  <si>
+    <t>661 Auburn Ave NE UNIT 180, Atlanta, GA 30312</t>
+  </si>
+  <si>
+    <t>Lotta Frutta</t>
+  </si>
+  <si>
+    <t>590 Auburn Ave NE, Atlanta, GA 30312</t>
+  </si>
+  <si>
+    <t>Umma Kitchen</t>
+  </si>
+  <si>
+    <t>Mission Burger Co.</t>
+  </si>
+  <si>
+    <t>2065 Defoors Ferry Rd NW, Atlanta, GA 30318</t>
+  </si>
+  <si>
+    <t>Dulce Vegan Bakery &amp; Cafe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bakery </t>
+  </si>
+  <si>
+    <t>1994 Hosea L Williams Dr NE, Atlanta, GA 30317</t>
+  </si>
+  <si>
+    <t>Pollo Primo</t>
+  </si>
+  <si>
+    <t>792 Moreland Ave SE, Atlanta, GA 30316</t>
+  </si>
+  <si>
+    <t>So Ba Vietnamese Restaurant</t>
+  </si>
+  <si>
+    <t>560 Gresham Ave SE, Atlanta, GA 30316</t>
+  </si>
+  <si>
+    <t>Havana Sandwich Shop</t>
+  </si>
+  <si>
+    <t>2905 Buford Hwy NE, Atlanta, GA 30329</t>
+  </si>
+  <si>
+    <t>Reuben's Deli</t>
+  </si>
+  <si>
+    <t>57 Broad St NW, Atlanta, GA 30303</t>
+  </si>
+  <si>
+    <t>Bona Fide Deluxe</t>
+  </si>
+  <si>
+    <t>1454 La France Street Northeast Ste 110, Atlanta, GA 30307</t>
+  </si>
+  <si>
+    <t>Varasano's Pizzeria - Buckhead</t>
+  </si>
+  <si>
+    <t>2171 Peachtree Rd NE UNIT 100, Atlanta, GA 30309</t>
+  </si>
+  <si>
+    <t>BUFFALO BAR</t>
+  </si>
+  <si>
+    <t>1269 Northside Dr NW Suite 720, Atlanta, GA 30318</t>
+  </si>
+  <si>
+    <t>The Red Eyed Mule</t>
+  </si>
+  <si>
+    <t>430 South Marietta Pkwy SE, Marietta, GA 30060</t>
+  </si>
+  <si>
+    <t>Howdy ATL Biscuit Cafe</t>
+  </si>
+  <si>
+    <t>753 Cherokee Ave SE, Atlanta, GA 30315</t>
+  </si>
+  <si>
+    <t>RHW Retail &amp; Vegan Cafe</t>
+  </si>
+  <si>
+    <t>371 Boulevard SE Suite 4, Atlanta, GA 30312</t>
+  </si>
+  <si>
+    <t>White Windmill Bakery and Cafe</t>
+  </si>
+  <si>
+    <t>Baked Goods</t>
+  </si>
+  <si>
+    <t>5881 Buford Hwy NE, Doraville, GA 30340</t>
+  </si>
+  <si>
+    <t>Cuisine</t>
+  </si>
+  <si>
+    <t>Vegan</t>
+  </si>
+  <si>
+    <t>Stars (of 5)</t>
+  </si>
+  <si>
+    <t>Stars (of 10)</t>
+  </si>
+  <si>
+    <t>Additional Notes</t>
+  </si>
+  <si>
+    <t>Delbar (Inman Park)</t>
+  </si>
+  <si>
+    <t>Persian</t>
+  </si>
+  <si>
+    <t>Partially</t>
+  </si>
+  <si>
+    <t>everything is fantastic, roasted cauliflower with zhoug is a gem</t>
+  </si>
+  <si>
+    <t>870 Inman Villge Pkwy NE Suite 1, Atlanta, GA 30307</t>
+  </si>
+  <si>
+    <t>Little Bear</t>
+  </si>
+  <si>
+    <t>Rotating</t>
+  </si>
+  <si>
+    <t>creative and inventive food</t>
+  </si>
+  <si>
+    <t>71 Georgia Ave SE Unit A, Atlanta, GA 30312</t>
+  </si>
+  <si>
+    <t>Talat Market</t>
+  </si>
+  <si>
+    <t>Thai</t>
+  </si>
+  <si>
+    <t>Partially/Minimally</t>
+  </si>
+  <si>
+    <t>flavorful fancy Thai, vegan accomidating</t>
+  </si>
+  <si>
+    <t>112 Ormond St SE, Atlanta, GA 30315</t>
+  </si>
+  <si>
+    <t>Banshee</t>
+  </si>
+  <si>
+    <t>New American</t>
+  </si>
+  <si>
+    <t>Minimally</t>
+  </si>
+  <si>
+    <t>drinks, atmosphere, and food were all really good. Service was surprisingly fantastic. Had for food Beet-pistachio terrine (V) was rally good, yellowedge grouper. Stately Hag drink was a riff on a marg</t>
+  </si>
+  <si>
+    <t>1271 Glenwood Ave SE, Atlanta, GA 30316</t>
+  </si>
+  <si>
+    <t>Herban Fix</t>
+  </si>
+  <si>
+    <t>Asian</t>
+  </si>
+  <si>
+    <t>Fully</t>
+  </si>
+  <si>
+    <t>Closed down :(</t>
+  </si>
+  <si>
+    <t>565 Peachtree St NE, Atlanta, GA 30308</t>
+  </si>
+  <si>
+    <t>Botiwalla (By Chai Pani)</t>
+  </si>
+  <si>
+    <t>Indian</t>
+  </si>
+  <si>
+    <t>haven't had a bad item yet!</t>
+  </si>
+  <si>
+    <t>Ponce City Market, 675 Ponce De Leon Ave NE, Atlanta, GA 30308</t>
+  </si>
+  <si>
+    <t>bomb biscuits</t>
+  </si>
+  <si>
+    <t>Southern</t>
+  </si>
+  <si>
+    <t>fully plant based biscuit egg sausage sandwiches, homemade plant-based sausage. Really good</t>
+  </si>
+  <si>
+    <t>668 North Highland Avenue Northeast, Atlanta, GA 30312</t>
+  </si>
+  <si>
+    <t>Quoc Huong Banh Mi</t>
+  </si>
+  <si>
+    <t>Vietnamese</t>
+  </si>
+  <si>
+    <t>$4-5 for a Bahn Mi. Super cheap. Best Bahn Mi i've had (Joe) in a long time.</t>
+  </si>
+  <si>
+    <t>Desta</t>
+  </si>
+  <si>
+    <t>Ethiopian</t>
+  </si>
+  <si>
+    <t>lots of food at a good price, great spot</t>
+  </si>
+  <si>
+    <t>2566 Briarcliff Rd Suite 101, Atlanta, GA 30329</t>
+  </si>
+  <si>
+    <t>Northern China Eatery</t>
+  </si>
+  <si>
+    <t>Chinese</t>
+  </si>
+  <si>
+    <t>good soup dumpling and eggplant</t>
+  </si>
+  <si>
+    <t>5141 Buford Hwy Suite C, Doraville, GA 30340</t>
+  </si>
+  <si>
+    <t>Vegan House of Pancakes</t>
+  </si>
+  <si>
+    <t>Breakfast</t>
+  </si>
+  <si>
+    <t>Pancakes were big and delicious, and additions were good as well</t>
+  </si>
+  <si>
+    <t>1367 Cleveland Ave, East Point, GA 30344</t>
+  </si>
+  <si>
+    <t>El Santo Gallo</t>
+  </si>
+  <si>
+    <t>Mexican</t>
+  </si>
+  <si>
+    <t>would be 4 with vegan protein option, Pastor costra burrito tasty! Seemingly small operation (out of a lot of stuff when we went!)</t>
+  </si>
+  <si>
+    <t>950 West Marietta St NW, Atlanta, GA 30318</t>
+  </si>
+  <si>
+    <t>OK Yaki</t>
+  </si>
+  <si>
+    <t>Japanese</t>
+  </si>
+  <si>
+    <t>Okonomiyaki was good! good ambience, drink menu looked fun</t>
+  </si>
+  <si>
+    <t>Gaja Korean Bar</t>
+  </si>
+  <si>
+    <t>Korean</t>
+  </si>
+  <si>
+    <t>food solid all around, had fried chicken and tofu bowl. Drink prices great! Vibes great!</t>
+  </si>
+  <si>
+    <t>491 Flat Shoals Ave SE, Atlanta, GA 30316</t>
+  </si>
+  <si>
+    <t>The Local</t>
+  </si>
+  <si>
+    <t>American</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best wings i've had in ATL so far! Wings sold out by 8pm on Wednesday. Graduated frat bar vibes </t>
+  </si>
+  <si>
+    <t>758 Ponce De Leon Ave NE, Atlanta, GA 30306</t>
+  </si>
+  <si>
+    <t>Cuddlefish</t>
+  </si>
+  <si>
+    <t>Went shortly after opening, service was struggling, got orders wrong. BUT! Eggplant and sweet potato tamaki were good! Pastries were also solid. Bit pricey</t>
+  </si>
+  <si>
+    <t>290 High St, Dunwoody, GA 30346</t>
+  </si>
+  <si>
+    <t>Tyde Tate Kitchen</t>
+  </si>
+  <si>
+    <t>solid Thai, medium spice was HOT fyi</t>
+  </si>
+  <si>
+    <t>229 Mitchell St SW, Atlanta, GA 30303</t>
+  </si>
+  <si>
+    <t>La Semilla</t>
+  </si>
+  <si>
+    <t>Latin</t>
+  </si>
+  <si>
+    <t>good for amenable non-vegans to dive into plant based food</t>
+  </si>
+  <si>
+    <t>780 Memorial Dr SE Unit 4A, Atlanta, GA 30316</t>
+  </si>
+  <si>
+    <t>El Super Pan</t>
+  </si>
+  <si>
+    <t>loaded sandwiches/cubanos. Less traditonal but good</t>
+  </si>
+  <si>
+    <t>Elektra</t>
+  </si>
+  <si>
+    <t>Mediterranean</t>
+  </si>
+  <si>
+    <t>vibes were high, French fries and mussels were a good value</t>
+  </si>
+  <si>
+    <t>Argosy</t>
+  </si>
+  <si>
+    <t>bar was cool, food not bad</t>
+  </si>
+  <si>
+    <t>470 Flat Shoals Ave SE, Atlanta, GA 30316</t>
+  </si>
+  <si>
+    <t>Papi's Cuban Cuisine</t>
+  </si>
+  <si>
+    <t>Cuban</t>
+  </si>
+  <si>
+    <t>Minimally/None</t>
+  </si>
+  <si>
+    <t>solid traditional cubano and tres leches</t>
+  </si>
+  <si>
+    <t>Ela</t>
+  </si>
+  <si>
+    <t>pita not vegan and no alternative</t>
+  </si>
+  <si>
+    <t>1186 North Highland Avenue Northeast, Atlanta, GA 30306</t>
+  </si>
+  <si>
+    <t>Mushi Ni</t>
+  </si>
+  <si>
+    <t>Bao</t>
+  </si>
+  <si>
+    <t>Tofu Bao was tasty</t>
+  </si>
+  <si>
+    <t>1235 Chattahoochee Ave, Suite 130 Atlanta, GA 30318</t>
+  </si>
+  <si>
+    <t>Calaveritas Taqueria Vegana</t>
+  </si>
+  <si>
+    <t>solid vegan street tacos</t>
+  </si>
+  <si>
+    <t>3795 Presidential Pkwy, Atlanta, GA 30340</t>
+  </si>
+  <si>
+    <t>El Tesoro</t>
+  </si>
+  <si>
+    <t>pretty good soy chorizo and quesadillas</t>
+  </si>
+  <si>
+    <t>1010 White St SW, Atlanta, GA 30310</t>
+  </si>
+  <si>
+    <t>Ton Ton Ramen</t>
+  </si>
+  <si>
+    <t>Ramen</t>
+  </si>
+  <si>
+    <t>tasty ramen, nothing spectacular but solid</t>
+  </si>
+  <si>
+    <t>675 Ponce De Leon Ave NE, Atlanta, GA 30308</t>
+  </si>
+  <si>
+    <t>Food Terminal</t>
+  </si>
+  <si>
+    <t>Malaysian</t>
+  </si>
+  <si>
+    <t>massive menu of eats, curry laksa is the move</t>
+  </si>
+  <si>
+    <t>5000 Buford Hwy, Chamblee, GA 30341</t>
+  </si>
+  <si>
+    <t>Kitty Dare</t>
+  </si>
+  <si>
+    <t>Mediterranean Fusion</t>
+  </si>
+  <si>
+    <t>eggplant was tasty but mains were lackluster</t>
+  </si>
+  <si>
+    <t>1029 Edgewood Ave NE, Atlanta, GA 30307</t>
+  </si>
+  <si>
+    <t>Pizza Verdura Sincera</t>
+  </si>
+  <si>
+    <t>Pizza</t>
+  </si>
+  <si>
+    <t>solid vegan pizza, desserts are a scam</t>
+  </si>
+  <si>
+    <t>377 Moreland Ave NE, Atlanta, GA 30307</t>
+  </si>
+  <si>
+    <t>JenChan's</t>
+  </si>
+  <si>
+    <t>Chinese/Pizza</t>
+  </si>
+  <si>
+    <t>pretty good Chinese nearby</t>
+  </si>
+  <si>
+    <t>186 Carroll St SE, Atlanta, GA 30312</t>
+  </si>
+  <si>
+    <t>Nam Phuong</t>
+  </si>
+  <si>
+    <t>tasty Vietnamese but tofu dish barely had any tofu, Pho is supposed to be the best in ATL but didn't have</t>
+  </si>
+  <si>
+    <t>4051 Buford Hwy, Atlanta, GA 30345</t>
+  </si>
+  <si>
+    <t>Harmony Vegetarian</t>
+  </si>
+  <si>
+    <t>Mostly</t>
+  </si>
+  <si>
+    <t>good Chinese vegetarian spot with more vegan options and better prices than other options on the list (e.g. Northern China eatery)</t>
+  </si>
+  <si>
+    <t>4897 Buford Hwy #109, Chamblee, GA 30341</t>
+  </si>
+  <si>
+    <t>Woody’s Cheesesteaks</t>
+  </si>
+  <si>
+    <t>Go Birds</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>good philly replica, good price per size</t>
+  </si>
+  <si>
+    <t>981 Monroe Dr NE, Atlanta, GA 30308</t>
+  </si>
+  <si>
+    <t>Tasili's Raw Vegan</t>
+  </si>
+  <si>
+    <t>Wraps</t>
+  </si>
+  <si>
+    <t>very good wrap full of spicy kale, we got the wrap at sevananda</t>
+  </si>
+  <si>
+    <t>1059 Ralph David Abernathy Blvd, Atlanta, GA 30310</t>
+  </si>
+  <si>
+    <t>Rina</t>
+  </si>
+  <si>
+    <t>good falafel, fries, and hummus. A bit too pricy though</t>
+  </si>
+  <si>
+    <t>699 Ponce De Leon Ave NE suite 9, Atlanta, GA 30308</t>
+  </si>
+  <si>
+    <t>Victory Sandwich Bar (Inman Park)</t>
+  </si>
+  <si>
+    <t>good all around vibes, drinks, food</t>
+  </si>
+  <si>
+    <t>913 Bernina Ave NE, Atlanta, GA 30307</t>
+  </si>
+  <si>
+    <t>Mediterranea Restaurant &amp; Bakery</t>
+  </si>
+  <si>
+    <t>good drink menu with lots of NA options, pizza was good</t>
+  </si>
+  <si>
+    <t>332 Ormond St SE ste 101, Atlanta, GA 30315</t>
+  </si>
+  <si>
+    <t>Surina Thai</t>
+  </si>
+  <si>
+    <t>garlic brocc with tofu solid, house special Kao Cook Kapi tasted authentic and flavorful</t>
+  </si>
+  <si>
+    <t>2390 Chamblee Tucker Rd, Chamblee, GA 30341</t>
+  </si>
+  <si>
+    <t>Muchacho</t>
+  </si>
+  <si>
+    <t>Mexican/Brunch</t>
+  </si>
+  <si>
+    <t>cute atmosphere, nice patio, food was just average</t>
+  </si>
+  <si>
+    <t>904 Memorial Dr SE, Atlanta, GA 30316</t>
+  </si>
+  <si>
+    <t>Antiguo Lobo</t>
+  </si>
+  <si>
+    <t>guac was fresco (i.e. avocado chunks), had hibuscus taco (vegan) which was different, food was solid</t>
+  </si>
+  <si>
+    <t>5370 Peachtree Rd Suite A, Chamblee, GA 30341</t>
+  </si>
+  <si>
+    <t>Te Quiero, Tacos</t>
+  </si>
+  <si>
+    <t>Pop-up at HC Biergarten, Solid street taco and burrito</t>
+  </si>
+  <si>
+    <t>640 Reed St SE, Atlanta, GA 30312</t>
+  </si>
+  <si>
+    <t>Flower Child Westside Provisions</t>
+  </si>
+  <si>
+    <t>Health Food</t>
+  </si>
+  <si>
+    <t>Good wraps, kung pow cauliflower</t>
+  </si>
+  <si>
+    <t>1170 Howell Mill Rd, Atlanta, GA 30318</t>
+  </si>
+  <si>
+    <t>Sweet Auburn BBQ</t>
+  </si>
+  <si>
+    <t>BBQ</t>
+  </si>
+  <si>
+    <t>BBQ (wings, brisket, ribs) were tender, tofu plate was just kinda covered in sauce. Sides were okay. Overall not great but not bad!</t>
+  </si>
+  <si>
+    <t>656 North Highland Avenue Northeast, Atlanta, GA 30306</t>
+  </si>
+  <si>
+    <t>Recess</t>
+  </si>
+  <si>
+    <t>Salad Bowls</t>
+  </si>
+  <si>
+    <t>Typical choose your adventure spot</t>
+  </si>
+  <si>
+    <t>99 Krog St NE Suite P, Atlanta, GA 30307</t>
+  </si>
+  <si>
+    <t>Barbacoa</t>
+  </si>
+  <si>
+    <t>Tapas</t>
+  </si>
+  <si>
+    <t>Minmally</t>
+  </si>
+  <si>
+    <t>OK tacos in VaHi</t>
+  </si>
+  <si>
+    <t>1000 Virginia Ave NE, Atlanta, GA 30306</t>
+  </si>
+  <si>
+    <t>Superica (Krog St Market)</t>
+  </si>
+  <si>
+    <t>Tex-Mex</t>
+  </si>
+  <si>
+    <t>Mininmally</t>
+  </si>
+  <si>
+    <t>really slow service, food was fine</t>
+  </si>
+  <si>
+    <t>Soul Vegetarian No. 2</t>
+  </si>
+  <si>
+    <t>Avoid Corn bread at all costs! bit pricey, rest was good</t>
+  </si>
+  <si>
+    <t>652 North Highland Avenue Northeast, Atlanta, GA 30306</t>
+  </si>
+  <si>
+    <t>Vice Taco Truck</t>
+  </si>
+  <si>
+    <t>(Tuesday Popup at 97 Estoria) solid street tacos</t>
+  </si>
+  <si>
+    <t>727 Wylie St SE, Atlanta, GA 30316</t>
+  </si>
+  <si>
+    <t>Freds Meat &amp; Bread</t>
+  </si>
+  <si>
+    <t>Sandwich Shop</t>
+  </si>
+  <si>
+    <t>bread on korean cheesesteak was stale, filling was really good</t>
+  </si>
+  <si>
+    <t>Krog Street Market, 99 Krog St NE, Atlanta, GA 30307</t>
+  </si>
+  <si>
+    <t>Bird &amp; Brew</t>
+  </si>
+  <si>
+    <t>Massive wings, tasty</t>
+  </si>
+  <si>
+    <t>1355 Clairmont Rd, Decatur, GA 30033</t>
+  </si>
+  <si>
     <t>Maepole</t>
   </si>
   <si>
+    <t>good price point, tofu and green beans/onions good!</t>
+  </si>
+  <si>
     <t>72 Georgia Ave SE Unit 500, Atlanta, GA 30312</t>
   </si>
   <si>
-    <t>Pom Court @ Hotel Granada</t>
-  </si>
-  <si>
-    <t>1302 W Peachtree St NW, Atlanta, GA 30309</t>
-  </si>
-  <si>
-    <t>Sweet Water Brewing</t>
-  </si>
-  <si>
-    <t>Bars</t>
-  </si>
-  <si>
-    <t>195 Ottley Drive Northeast, Atlanta, GA 30324</t>
-  </si>
-  <si>
-    <t>Three Taverns Imaginarium</t>
-  </si>
-  <si>
-    <t>777 Memorial Dr SE Suite B103, Atlanta, GA 30316</t>
-  </si>
-  <si>
-    <t>The Rooftop at Clermont</t>
-  </si>
-  <si>
-    <t>789 Ponce De Leon Ave NE, Atlanta, GA 30306</t>
-  </si>
-  <si>
-    <t>Ranger Station Speakeasy</t>
-  </si>
-  <si>
-    <t>684 John Wesley Dobbs Ave NE Unit J, Atlanta, GA 30312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tabla </t>
-  </si>
-  <si>
-    <t>77 12th St NE, Atlanta, GA 30309</t>
-  </si>
-  <si>
-    <t>Yakitori Kona</t>
-  </si>
-  <si>
-    <t>1004 Virginia Ave NE, Atlanta, GA 30306</t>
-  </si>
-  <si>
-    <t>Vegan Food Social (ATL utility works)</t>
-  </si>
-  <si>
-    <t>2903 RN Martin St, East Point, GA 30344</t>
-  </si>
-  <si>
-    <t>Cafe Sunflower</t>
-  </si>
-  <si>
-    <t>2140 Peachtree Rd, Atlanta, GA 30309</t>
-  </si>
-  <si>
-    <t>Coyote's Mexican Grill</t>
-  </si>
-  <si>
-    <t>105 Sycamore Pl, Decatur, GA 30030</t>
-  </si>
-  <si>
-    <t>Arepa Mia</t>
-  </si>
-  <si>
-    <t>10 N Clarendon Ave Suite A, Avondale Estates, GA 30002</t>
-  </si>
-  <si>
-    <t>Chai Pani</t>
-  </si>
-  <si>
-    <t>406 W Ponce de Leon Ave, Decatur, GA 30030</t>
-  </si>
-  <si>
-    <t>Ruby Chow</t>
-  </si>
-  <si>
-    <t>620 Glen Iris Dr NE, Atlanta, GA 30308</t>
-  </si>
-  <si>
-    <t>Masterpiece</t>
-  </si>
-  <si>
-    <t>3940 Buford Hwy, Duluth, GA 30096</t>
-  </si>
-  <si>
-    <t>Whoopsies</t>
-  </si>
-  <si>
-    <t>1 Moreland Ave SE, Atlanta, GA 30316</t>
-  </si>
-  <si>
-    <t>Estrellita Filipino</t>
-  </si>
-  <si>
-    <t>580 Woodward Ave SE, Atlanta, GA 30312</t>
-  </si>
-  <si>
-    <t>Bacelona Wine Bar</t>
-  </si>
-  <si>
-    <t>240 North Highland Avenue Northeast, Atlanta, GA 30307</t>
-  </si>
-  <si>
-    <t>Pho Bac</t>
-  </si>
-  <si>
-    <t>4897 Buford Hwy, Chamblee, GA 30341</t>
-  </si>
-  <si>
-    <t>Kamayan ATL - Filipino Restaurant</t>
-  </si>
-  <si>
-    <t>5150 Buford Hwy, Doraville, GA 30340</t>
-  </si>
-  <si>
-    <t>VeGreen Vegan Fusion Restaurant</t>
-  </si>
-  <si>
-    <t>3780 Old Norcross Rd, Duluth, GA 30096</t>
-  </si>
-  <si>
-    <t>Lee's Bakery</t>
-  </si>
-  <si>
-    <t>4005 Buford Hwy Suite C, Atlanta, GA 30345</t>
-  </si>
-  <si>
-    <t>Chat Patti Indian Vegetarian Restaurant</t>
-  </si>
-  <si>
-    <t>1707 Church St, Decatur, GA 30033</t>
-  </si>
-  <si>
-    <t>Desi Spice Indian Cuisine</t>
-  </si>
-  <si>
-    <t>Midtown Promenade, 931 Monroe Dr NE, Atlanta, GA 30308</t>
-  </si>
-  <si>
-    <t>Bakaris Pizza</t>
-  </si>
-  <si>
-    <t>576 Lee St SW, Atlanta, GA 30310</t>
-  </si>
-  <si>
-    <t>Shoya Izakaya</t>
-  </si>
-  <si>
-    <t>6035 Peachtree Rd, Doraville, GA 30340</t>
-  </si>
-  <si>
-    <t>My Parents Basement</t>
-  </si>
-  <si>
-    <t>22 N Avondale Rd, Avondale Estates, GA 30002</t>
-  </si>
-  <si>
-    <t>Moonlight</t>
-  </si>
-  <si>
-    <t>800 Rankin St NE, Atlanta, GA 30308</t>
-  </si>
-  <si>
-    <t>Stereo</t>
-  </si>
-  <si>
-    <t>900 DeKalb Ave NE suite f, Atlanta, GA 30307</t>
-  </si>
-  <si>
-    <t>Your DeKalb Farmers Market</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grocery store </t>
-  </si>
-  <si>
-    <t>3000 E Ponce de Leon Ave, Decatur, GA 30030</t>
-  </si>
-  <si>
-    <t>TESO Life</t>
-  </si>
-  <si>
-    <t>Grocery store</t>
-  </si>
-  <si>
-    <t>2180 Pleasant Hill Rd SUITE F, Duluth, GA 30096</t>
-  </si>
-  <si>
-    <t>Lov'n it live</t>
-  </si>
-  <si>
-    <t>2796 E Point St, East Point, GA 30344</t>
-  </si>
-  <si>
-    <t>Planted soul</t>
-  </si>
-  <si>
-    <t>3569 Main St, College Park, GA 30337</t>
-  </si>
-  <si>
-    <t>Yalda</t>
-  </si>
-  <si>
-    <t>980 Howell Mill Rd Suite 4, Atlanta, GA 30318</t>
-  </si>
-  <si>
-    <t>Madre Selva</t>
-  </si>
-  <si>
-    <t>570 Main St, Atlanta, GA 30324</t>
-  </si>
-  <si>
-    <t>Okiboru Tsukemen &amp; Ramen</t>
-  </si>
-  <si>
-    <t>2277 Peachtree Rd NE, Atlanta, GA 30309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mellow Mushroom </t>
+    <t>Mellow Mushroom</t>
+  </si>
+  <si>
+    <t>Had it before (chain). Solid, only one vegan pizza option. Grant Park location is supposedly cheaper</t>
   </si>
   <si>
     <t>931 Monroe Dr NE, Atlanta, GA 30308</t>
   </si>
   <si>
-    <t>La Hacienda Midtown</t>
-  </si>
-  <si>
-    <t>900 Monroe Dr NE, Atlanta, GA 30308</t>
-  </si>
-  <si>
-    <t>Redacted</t>
-  </si>
-  <si>
-    <t>63b Georgia Avenue, Atlanta, GA 30312</t>
-  </si>
-  <si>
-    <t>7th House</t>
-  </si>
-  <si>
-    <t>565 Northside Dr SW suite a103, Atlanta, GA 30310</t>
-  </si>
-  <si>
-    <t>NFA Burger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Restaurants </t>
-  </si>
-  <si>
-    <t>5465 Chamblee Dunwoody Rd, Dunwoody, GA 30338</t>
-  </si>
-  <si>
-    <t>Homegrown Restaurant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Restaurant </t>
-  </si>
-  <si>
-    <t>968 Memorial Dr SE, Atlanta, GA 30316</t>
-  </si>
-  <si>
-    <t>Gaja Korean Bar</t>
-  </si>
-  <si>
-    <t>Restaurant</t>
-  </si>
-  <si>
-    <t>491 Flat Shoals Ave SE, Atlanta, GA 30316</t>
-  </si>
-  <si>
-    <t>So So Fed</t>
-  </si>
-  <si>
-    <t>714 Moreland Ave SE Suite D, Atlanta, GA 30316</t>
-  </si>
-  <si>
-    <t>Glide Pizza</t>
-  </si>
-  <si>
-    <t>659 Auburn Ave NE, Atlanta, GA 30312, USA</t>
-  </si>
-  <si>
-    <t>Psito</t>
-  </si>
-  <si>
-    <t>25 Georgia Ave, Atlanta, GA 30312</t>
-  </si>
-  <si>
-    <t>E+ROSE Wellness Cafe</t>
-  </si>
-  <si>
-    <t>1100 Howell Mill Rd NW, Atlanta, GA 30318</t>
-  </si>
-  <si>
-    <t>Yuji Modern Japanese</t>
-  </si>
-  <si>
-    <t>667 Auburn Ave NE suite 122, Atlanta, GA 30312</t>
-  </si>
-  <si>
-    <t>Dips Kitchen</t>
-  </si>
-  <si>
-    <t>99 Krog St NE, Atlanta, GA 30307</t>
-  </si>
-  <si>
-    <t>LanZhou Ramen</t>
-  </si>
-  <si>
-    <t>5231 Buford Hwy, Doraville, GA 30340</t>
-  </si>
-  <si>
-    <t>El Rey Del Taco</t>
-  </si>
-  <si>
-    <t>5288 Buford Hwy, Doraville, GA 30340</t>
-  </si>
-  <si>
-    <t>Stone Bowl House</t>
-  </si>
-  <si>
-    <t>Restuarant</t>
-  </si>
-  <si>
-    <t>5953 Buford Hwy, Doraville, GA 30340</t>
-  </si>
-  <si>
-    <t>MF Sushi</t>
-  </si>
-  <si>
-    <t>299 North Highland Avenue Northeast, Atlanta, GA 30307</t>
-  </si>
-  <si>
-    <t>Cuisine</t>
-  </si>
-  <si>
-    <t>Vegan</t>
-  </si>
-  <si>
-    <t>Stars (of 5)</t>
-  </si>
-  <si>
-    <t>Stars (of 10)</t>
-  </si>
-  <si>
-    <t>Additional Notes</t>
-  </si>
-  <si>
-    <t>Delbar (Inman Park)</t>
-  </si>
-  <si>
-    <t>Persian</t>
-  </si>
-  <si>
-    <t>Partially</t>
-  </si>
-  <si>
-    <t>870 Inman Villge Pkwy NE Suite 1, Atlanta, GA 30307</t>
-  </si>
-  <si>
-    <t>Little Bear</t>
-  </si>
-  <si>
-    <t>Rotating</t>
-  </si>
-  <si>
-    <t>creative and inventive food</t>
-  </si>
-  <si>
-    <t>71 Georgia Ave SE Unit A, Atlanta, GA 30312</t>
-  </si>
-  <si>
-    <t>Talat Market</t>
-  </si>
-  <si>
-    <t>Thai</t>
-  </si>
-  <si>
-    <t>Partially/Minimally</t>
-  </si>
-  <si>
-    <t>flavorful fancy Thai, vegan accomidating</t>
-  </si>
-  <si>
-    <t>112 Ormond St SE, Atlanta, GA 30315</t>
-  </si>
-  <si>
-    <t>Banshee</t>
-  </si>
-  <si>
-    <t>New American</t>
-  </si>
-  <si>
-    <t>Minimally</t>
-  </si>
-  <si>
-    <t>drinks, atmosphere, and food were all really good. Service was surprisingly fantastic. Had for food Beet-pistachio terrine (V) was rally good, yellowedge grouper. Stately Hag drink was a riff on a marg</t>
-  </si>
-  <si>
-    <t>1271 Glenwood Ave SE, Atlanta, GA 30316</t>
-  </si>
-  <si>
-    <t>Herban Fix</t>
-  </si>
-  <si>
-    <t>Asian</t>
-  </si>
-  <si>
-    <t>Fully</t>
-  </si>
-  <si>
-    <t>Closed down :(</t>
-  </si>
-  <si>
-    <t>565 Peachtree St NE, Atlanta, GA 30308</t>
-  </si>
-  <si>
-    <t>Botiwalla (By Chai Pani)</t>
-  </si>
-  <si>
-    <t>Indian</t>
-  </si>
-  <si>
-    <t>haven't had a bad item yet!</t>
-  </si>
-  <si>
-    <t>Ponce City Market, 675 Ponce De Leon Ave NE, Atlanta, GA 30308</t>
-  </si>
-  <si>
-    <t>bomb biscuits</t>
-  </si>
-  <si>
-    <t>Southern</t>
-  </si>
-  <si>
-    <t>fully plant based biscuit egg sausage sandwiches, homemade plant-based sausage. Really good</t>
-  </si>
-  <si>
-    <t>668 North Highland Avenue Northeast, Atlanta, GA 30312</t>
-  </si>
-  <si>
-    <t>Quoc Huong Banh Mi</t>
-  </si>
-  <si>
-    <t>Vietnamese</t>
-  </si>
-  <si>
-    <t>$4-5 for a Bahn Mi. Super cheap. Best Bahn Mi i've had (Joe) in a long time.</t>
-  </si>
-  <si>
-    <t>Desta</t>
-  </si>
-  <si>
-    <t>Ethiopian</t>
-  </si>
-  <si>
-    <t>lots of food at a good price, great spot</t>
-  </si>
-  <si>
-    <t>2566 Briarcliff Rd Suite 101, Atlanta, GA 30329</t>
-  </si>
-  <si>
-    <t>Northern China Eatery</t>
-  </si>
-  <si>
-    <t>Chinese</t>
-  </si>
-  <si>
-    <t>good soup dumpling and eggplant</t>
-  </si>
-  <si>
-    <t>5141 Buford Hwy Suite C, Doraville, GA 30340</t>
-  </si>
-  <si>
-    <t>Vegan House of Pancakes</t>
-  </si>
-  <si>
-    <t>Breakfast</t>
-  </si>
-  <si>
-    <t>Pancakes were big and delicious, and additions were good as well</t>
-  </si>
-  <si>
-    <t>1367 Cleveland Ave, East Point, GA 30344</t>
-  </si>
-  <si>
-    <t>El Santo Gallo</t>
-  </si>
-  <si>
-    <t>Mexican</t>
-  </si>
-  <si>
-    <t>would be 4 with vegan protein option, Pastor costra burrito tasty! Seemingly small operation (out of a lot of stuff when we went!)</t>
-  </si>
-  <si>
-    <t>950 West Marietta St NW, Atlanta, GA 30318</t>
-  </si>
-  <si>
-    <t>OK Yaki</t>
-  </si>
-  <si>
-    <t>Japanese</t>
-  </si>
-  <si>
-    <t>Okonomiyaki was good! good ambience, drink menu looked fun</t>
-  </si>
-  <si>
-    <t>Tyde Tate Kitchen</t>
-  </si>
-  <si>
-    <t>solid Thai, medium spice was HOT fyi</t>
-  </si>
-  <si>
-    <t>229 Mitchell St SW, Atlanta, GA 30303</t>
-  </si>
-  <si>
-    <t>La Semilla</t>
-  </si>
-  <si>
-    <t>Latin</t>
-  </si>
-  <si>
-    <t>good for amenable non-vegans to dive into plant based food</t>
-  </si>
-  <si>
-    <t>780 Memorial Dr SE Unit 4A, Atlanta, GA 30316</t>
-  </si>
-  <si>
-    <t>Recess</t>
-  </si>
-  <si>
-    <t>Salad Bowls</t>
-  </si>
-  <si>
-    <t>Mostly</t>
-  </si>
-  <si>
-    <t>Typical choose your adventure spot</t>
-  </si>
-  <si>
-    <t>99 Krog St NE Suite P, Atlanta, GA 30307</t>
-  </si>
-  <si>
-    <t>El Super Pan</t>
-  </si>
-  <si>
-    <t>loaded sandwiches/cubanos. Less traditonal but good</t>
-  </si>
-  <si>
-    <t>Elektra</t>
-  </si>
-  <si>
-    <t>Mediterranean</t>
-  </si>
-  <si>
-    <t>vibes were high, French fries and mussels were a good value</t>
-  </si>
-  <si>
-    <t>Argosy</t>
-  </si>
-  <si>
-    <t>American</t>
-  </si>
-  <si>
-    <t>bar was cool, food not bad</t>
-  </si>
-  <si>
-    <t>470 Flat Shoals Ave SE, Atlanta, GA 30316</t>
-  </si>
-  <si>
-    <t>Papi's Cuban Cuisine</t>
-  </si>
-  <si>
-    <t>Cuban</t>
-  </si>
-  <si>
-    <t>Minimally/None</t>
-  </si>
-  <si>
-    <t>solid traditional cubano and tres leches</t>
-  </si>
-  <si>
-    <t>Ela</t>
-  </si>
-  <si>
-    <t>pita not vegan and no alternative</t>
-  </si>
-  <si>
-    <t>1186 North Highland Avenue Northeast, Atlanta, GA 30306</t>
-  </si>
-  <si>
-    <t>Mushi Ni</t>
-  </si>
-  <si>
-    <t>Bao</t>
-  </si>
-  <si>
-    <t>Tofu Bao was tasty</t>
-  </si>
-  <si>
-    <t>1235 Chattahoochee Ave, Suite 130 Atlanta, GA 30318</t>
-  </si>
-  <si>
-    <t>Calaveritas Taqueria Vegana</t>
-  </si>
-  <si>
-    <t>solid vegan street tacos</t>
-  </si>
-  <si>
-    <t>3795 Presidential Pkwy, Atlanta, GA 30340</t>
-  </si>
-  <si>
-    <t>El Tesoro</t>
-  </si>
-  <si>
-    <t>pretty good soy chorizo and quesadillas</t>
-  </si>
-  <si>
-    <t>1010 White St SW, Atlanta, GA 30310</t>
-  </si>
-  <si>
-    <t>Ton Ton Ramen</t>
-  </si>
-  <si>
-    <t>Ramen</t>
-  </si>
-  <si>
-    <t>tasty ramen, nothing spectacular but solid</t>
-  </si>
-  <si>
-    <t>675 Ponce De Leon Ave NE, Atlanta, GA 30308</t>
-  </si>
-  <si>
-    <t>Food Terminal</t>
-  </si>
-  <si>
-    <t>Malaysian</t>
-  </si>
-  <si>
-    <t>massive menu of eats, curry laksa is the move</t>
-  </si>
-  <si>
-    <t>5000 Buford Hwy, Chamblee, GA 30341</t>
-  </si>
-  <si>
-    <t>Kitty Dare</t>
-  </si>
-  <si>
-    <t>Mediterranean Fusion</t>
-  </si>
-  <si>
-    <t>eggplant was tasty but mains were lackluster</t>
-  </si>
-  <si>
-    <t>1029 Edgewood Ave NE, Atlanta, GA 30307</t>
-  </si>
-  <si>
-    <t>Pizza Verdura Sincera</t>
-  </si>
-  <si>
-    <t>Pizza</t>
-  </si>
-  <si>
-    <t>solid vegan pizza, desserts are a scam</t>
-  </si>
-  <si>
-    <t>377 Moreland Ave NE, Atlanta, GA 30307</t>
-  </si>
-  <si>
-    <t>JenChan's</t>
-  </si>
-  <si>
-    <t>Chinese/Pizza</t>
-  </si>
-  <si>
-    <t>pretty good Chinese nearby</t>
-  </si>
-  <si>
-    <t>186 Carroll St SE, Atlanta, GA 30312</t>
-  </si>
-  <si>
-    <t>Nam Phuong</t>
-  </si>
-  <si>
-    <t>tasty Vietnamese but tofu dish barely had any tofu, Pho is supposed to be the best in ATL but didn't have</t>
-  </si>
-  <si>
-    <t>4051 Buford Hwy, Atlanta, GA 30345</t>
-  </si>
-  <si>
-    <t>Harmony Vegetarian</t>
-  </si>
-  <si>
-    <t>good Chinese vegetarian spot with more vegan options and better prices than other options on the list (e.g. Northern China eatery)</t>
-  </si>
-  <si>
-    <t>4897 Buford Hwy #109, Chamblee, GA 30341</t>
-  </si>
-  <si>
-    <t>Woody’s Cheesesteaks</t>
-  </si>
-  <si>
-    <t>Go Birds</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>good philly replica, good price per size</t>
-  </si>
-  <si>
-    <t>981 Monroe Dr NE, Atlanta, GA 30308</t>
-  </si>
-  <si>
-    <t>Tasili's Raw Vegan</t>
-  </si>
-  <si>
-    <t>Wraps</t>
-  </si>
-  <si>
-    <t>very good wrap full of spicy kale, we got the wrap at sevananda</t>
-  </si>
-  <si>
-    <t>1059 Ralph David Abernathy Blvd, Atlanta, GA 30310</t>
-  </si>
-  <si>
-    <t>Rina</t>
-  </si>
-  <si>
-    <t>good falafel, fries, and hummus. A bit too pricy though</t>
-  </si>
-  <si>
-    <t>699 Ponce De Leon Ave NE suite 9, Atlanta, GA 30308</t>
-  </si>
-  <si>
-    <t>Victory Sandwich Bar (Inman Park)</t>
-  </si>
-  <si>
-    <t>good all around vibes, drinks, food</t>
-  </si>
-  <si>
-    <t>913 Bernina Ave NE, Atlanta, GA 30307</t>
-  </si>
-  <si>
-    <t>Mediterranea Restaurant &amp; Bakery</t>
-  </si>
-  <si>
-    <t>good drink menu with lots of NA options, pizza was good</t>
-  </si>
-  <si>
-    <t>332 Ormond St SE ste 101, Atlanta, GA 30315</t>
-  </si>
-  <si>
-    <t>Surina Thai</t>
-  </si>
-  <si>
-    <t>garlic brocc with tofu solid, house special Kao Cook Kapi tasted authentic and flavorful</t>
-  </si>
-  <si>
-    <t>2390 Chamblee Tucker Rd, Chamblee, GA 30341</t>
-  </si>
-  <si>
-    <t>Muchacho</t>
-  </si>
-  <si>
-    <t>Mexican/Brunch</t>
-  </si>
-  <si>
-    <t>cute atmosphere, nice patio, food was just average</t>
-  </si>
-  <si>
-    <t>904 Memorial Dr SE, Atlanta, GA 30316</t>
-  </si>
-  <si>
-    <t>Antiguo Lobo</t>
-  </si>
-  <si>
-    <t>guac was fresco (i.e. avocado chunks), had hibuscus taco (vegan) which was different, food was solid</t>
-  </si>
-  <si>
-    <t>5370 Peachtree Rd Suite A, Chamblee, GA 30341</t>
-  </si>
-  <si>
-    <t>Te Quiero, Tacos</t>
-  </si>
-  <si>
-    <t>Pop-up at HC Biergarten, Solid street taco and burrito</t>
-  </si>
-  <si>
-    <t>640 Reed St SE, Atlanta, GA 30312</t>
-  </si>
-  <si>
-    <t>Flower Child Westside Provisions</t>
-  </si>
-  <si>
-    <t>Health Food</t>
-  </si>
-  <si>
-    <t>Good wraps, kung pow cauliflower</t>
-  </si>
-  <si>
-    <t>1170 Howell Mill Rd, Atlanta, GA 30318</t>
-  </si>
-  <si>
-    <t>Barbacoa</t>
-  </si>
-  <si>
-    <t>Tapas</t>
-  </si>
-  <si>
-    <t>Minmally</t>
-  </si>
-  <si>
-    <t>OK tacos in VaHi</t>
-  </si>
-  <si>
-    <t>1000 Virginia Ave NE, Atlanta, GA 30306</t>
-  </si>
-  <si>
-    <t>Superica (Krog St Market)</t>
-  </si>
-  <si>
-    <t>Tex-Mex</t>
-  </si>
-  <si>
-    <t>Mininmally</t>
-  </si>
-  <si>
-    <t>really slow service, food was fine</t>
-  </si>
-  <si>
-    <t>Soul Vegetarian No. 2</t>
-  </si>
-  <si>
-    <t>Avoid Corn bread at all costs! bit pricey, rest was good</t>
-  </si>
-  <si>
-    <t>652 North Highland Avenue Northeast, Atlanta, GA 30306</t>
-  </si>
-  <si>
-    <t>Vice Taco Truck</t>
-  </si>
-  <si>
-    <t>(Tuesday Popup at 97 Estoria) solid street tacos</t>
-  </si>
-  <si>
-    <t>727 Wylie St SE, Atlanta, GA 30316</t>
-  </si>
-  <si>
-    <t>Freds Meat &amp; Bread</t>
-  </si>
-  <si>
-    <t>Sandwich Shop</t>
-  </si>
-  <si>
-    <t>bread on korean cheesesteak was stale, filling was really good</t>
-  </si>
-  <si>
-    <t>Krog Street Market, 99 Krog St NE, Atlanta, GA 30307</t>
-  </si>
-  <si>
-    <t>Bird &amp; Brew</t>
-  </si>
-  <si>
-    <t>Massive wings, tasty</t>
-  </si>
-  <si>
-    <t>1355 Clairmont Rd, Decatur, GA 30033</t>
+    <t>The Po'Boy Shop &amp; Basement Bar</t>
+  </si>
+  <si>
+    <t>Cajun</t>
+  </si>
+  <si>
+    <t>Nothing special, but enjoyed my food!</t>
+  </si>
+  <si>
+    <t>1369 Clairmont Rd, Decatur, GA 30033</t>
+  </si>
+  <si>
+    <t>Gu's Dumplings</t>
+  </si>
+  <si>
+    <t>Dumplings</t>
+  </si>
+  <si>
+    <t>Solid dumplings</t>
   </si>
   <si>
     <t>Planta</t>
@@ -1061,10 +1238,7 @@
     <t>Taiwanese/Korean</t>
   </si>
   <si>
-    <t>all rice, no flavor</t>
-  </si>
-  <si>
-    <t>Krog Street Market, 99 Krog St NE UNIT J, Atlanta, GA 30307</t>
+    <t>rice bowl was all rice, no flavor. No steam buns were ordered (they aren't vegan) so could be higher. May have to try again</t>
   </si>
   <si>
     <t>Creme de la Crepe Westend Atlanta</t>
@@ -1121,6 +1295,12 @@
     <t>3999 Austell Rd Ste 355 Austell, GA 30106</t>
   </si>
   <si>
+    <t>Sugar Shane's</t>
+  </si>
+  <si>
+    <t>fun, super thick cookies. Definitely entire days cals in one cookie</t>
+  </si>
+  <si>
     <t>Munster Cravings</t>
   </si>
   <si>
@@ -1148,6 +1328,15 @@
     <t>124 Krog St NE Suite A120, Atlanta, GA 30307</t>
   </si>
   <si>
+    <t>Donnies Donuts</t>
+  </si>
+  <si>
+    <t>chocolate cake w/ PB, solid, nothing amazing</t>
+  </si>
+  <si>
+    <t>701-5 Highland Ave NE, Atlanta, GA 30312</t>
+  </si>
+  <si>
     <t>Honeysuckle Gelato</t>
   </si>
   <si>
@@ -1169,15 +1358,6 @@
     <t>vegan donuts were not better than a grocery store</t>
   </si>
   <si>
-    <t>Donnies Donuts</t>
-  </si>
-  <si>
-    <t>chocolate cake w/ PB, solid, nothing amazing</t>
-  </si>
-  <si>
-    <t>701-5 Highland Ave NE, Atlanta, GA 30312</t>
-  </si>
-  <si>
     <t>Ash</t>
   </si>
   <si>
@@ -1193,9 +1373,6 @@
     <t>Colette Bake and Breadshop</t>
   </si>
   <si>
-    <t>Baked Goods</t>
-  </si>
-  <si>
     <t>only bread is vegan</t>
   </si>
   <si>
@@ -1352,6 +1529,15 @@
     <t xml:space="preserve">Drinks okay, very nice outdoor space, kid and dog friendly </t>
   </si>
   <si>
+    <t>Wild Leap Brew Co</t>
+  </si>
+  <si>
+    <t>good drinks (beer, cocktails, slushies) and a nice blend of indoor and outdoor space to hang</t>
+  </si>
+  <si>
+    <t>125 Ted Turner Dr SW, Atlanta, GA 30313</t>
+  </si>
+  <si>
     <t>97 Estoria</t>
   </si>
   <si>
@@ -1391,13 +1577,13 @@
     <t>1737 Ellsworth Industrial Blvd NW, Atlanta, GA 30318</t>
   </si>
   <si>
-    <t>Wild Leap Brew Co</t>
-  </si>
-  <si>
-    <t>good drinks (beer, cocktails, slushies) and a nice blend of indoor and outdoor space to hang</t>
-  </si>
-  <si>
-    <t>125 Ted Turner Dr SW, Atlanta, GA 30313</t>
+    <t>Tea'z Social</t>
+  </si>
+  <si>
+    <t>Probably a drug front, horrible</t>
+  </si>
+  <si>
+    <t>337 Moreland Ave NE, Atlanta, GA 30307</t>
   </si>
 </sst>
 </file>
@@ -1728,8 +1914,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="s">
+    <row r="9">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2207,7 +2393,7 @@
         <v>95</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>96</v>
@@ -2229,40 +2415,40 @@
         <v>99</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>109</v>
@@ -2273,7 +2459,7 @@
         <v>110</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>111</v>
@@ -2284,7 +2470,7 @@
         <v>112</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>113</v>
@@ -2295,7 +2481,7 @@
         <v>114</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>115</v>
@@ -2306,7 +2492,7 @@
         <v>116</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>117</v>
@@ -2317,7 +2503,7 @@
         <v>118</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>119</v>
@@ -2328,7 +2514,7 @@
         <v>120</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>121</v>
@@ -2339,29 +2525,29 @@
         <v>122</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>128</v>
@@ -2372,10 +2558,175 @@
         <v>129</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>130</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -2402,19 +2753,19 @@
         <v>8</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>131</v>
+        <v>162</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>132</v>
+        <v>163</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>133</v>
+        <v>164</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>10</v>
@@ -2440,13 +2791,13 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>136</v>
+        <v>167</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>137</v>
+        <v>168</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>138</v>
+        <v>169</v>
       </c>
       <c r="D2" s="5">
         <v>4.5</v>
@@ -2455,9 +2806,11 @@
         <f t="shared" ref="E2:E12" si="1">D2*2</f>
         <v>9</v>
       </c>
-      <c r="F2" s="4"/>
+      <c r="F2" s="5" t="s">
+        <v>170</v>
+      </c>
       <c r="G2" s="5" t="s">
-        <v>139</v>
+        <v>171</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
@@ -2480,13 +2833,13 @@
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>141</v>
+        <v>173</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>138</v>
+        <v>169</v>
       </c>
       <c r="D3" s="5">
         <v>4.5</v>
@@ -2496,10 +2849,10 @@
         <v>9</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>142</v>
+        <v>174</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
@@ -2522,13 +2875,13 @@
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>146</v>
+        <v>178</v>
       </c>
       <c r="D4" s="5">
         <v>4.5</v>
@@ -2538,10 +2891,10 @@
         <v>9</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>147</v>
+        <v>179</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
@@ -2564,13 +2917,13 @@
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>151</v>
+        <v>183</v>
       </c>
       <c r="D5" s="5">
         <v>4.5</v>
@@ -2580,10 +2933,10 @@
         <v>9</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>152</v>
+        <v>184</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
@@ -2606,13 +2959,13 @@
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>155</v>
+        <v>187</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="D6" s="5">
         <v>4.0</v>
@@ -2622,10 +2975,10 @@
         <v>8</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>157</v>
+        <v>189</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>158</v>
+        <v>190</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -2648,13 +3001,13 @@
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>159</v>
+        <v>191</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>138</v>
+        <v>169</v>
       </c>
       <c r="D7" s="5">
         <v>4.0</v>
@@ -2664,10 +3017,10 @@
         <v>8</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>161</v>
+        <v>193</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>162</v>
+        <v>194</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -2690,13 +3043,13 @@
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>163</v>
+        <v>195</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>164</v>
+        <v>196</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>138</v>
+        <v>169</v>
       </c>
       <c r="D8" s="5">
         <v>4.0</v>
@@ -2706,10 +3059,10 @@
         <v>8</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>165</v>
+        <v>197</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>166</v>
+        <v>198</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -2732,13 +3085,13 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
-        <v>167</v>
+        <v>199</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>168</v>
+        <v>200</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>151</v>
+        <v>183</v>
       </c>
       <c r="D9" s="5">
         <v>4.0</v>
@@ -2748,7 +3101,7 @@
         <v>8</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>169</v>
+        <v>201</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>58</v>
@@ -2774,13 +3127,13 @@
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
-        <v>170</v>
+        <v>202</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>171</v>
+        <v>203</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>138</v>
+        <v>169</v>
       </c>
       <c r="D10" s="5">
         <v>4.0</v>
@@ -2790,10 +3143,10 @@
         <v>8</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>172</v>
+        <v>204</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>173</v>
+        <v>205</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -2816,13 +3169,13 @@
     </row>
     <row r="11">
       <c r="A11" s="5" t="s">
-        <v>174</v>
+        <v>206</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>175</v>
+        <v>207</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>151</v>
+        <v>183</v>
       </c>
       <c r="D11" s="5">
         <v>3.75</v>
@@ -2832,10 +3185,10 @@
         <v>7.5</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>176</v>
+        <v>208</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>177</v>
+        <v>209</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
@@ -2858,13 +3211,13 @@
     </row>
     <row r="12">
       <c r="A12" s="5" t="s">
-        <v>178</v>
+        <v>210</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>179</v>
+        <v>211</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="D12" s="5">
         <v>3.75</v>
@@ -2874,10 +3227,10 @@
         <v>7.5</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>180</v>
+        <v>212</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>181</v>
+        <v>213</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -2900,13 +3253,13 @@
     </row>
     <row r="13">
       <c r="A13" s="5" t="s">
-        <v>182</v>
+        <v>214</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>183</v>
+        <v>215</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>138</v>
+        <v>169</v>
       </c>
       <c r="D13" s="5">
         <v>3.75</v>
@@ -2916,10 +3269,10 @@
         <v>7.5</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>184</v>
+        <v>216</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>185</v>
+        <v>217</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
@@ -2942,26 +3295,26 @@
     </row>
     <row r="14">
       <c r="A14" s="5" t="s">
-        <v>186</v>
+        <v>218</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>187</v>
+        <v>219</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>138</v>
+        <v>169</v>
       </c>
       <c r="D14" s="5">
         <v>3.75</v>
       </c>
       <c r="E14" s="4">
-        <f t="shared" ref="E14:E44" si="2">D14*2</f>
+        <f t="shared" ref="E14:E15" si="2">D14*2</f>
         <v>7.5</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>188</v>
+        <v>220</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
@@ -2984,26 +3337,26 @@
     </row>
     <row r="15">
       <c r="A15" s="5" t="s">
-        <v>189</v>
+        <v>221</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>145</v>
+        <v>222</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="D15" s="5">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="E15" s="4">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>191</v>
+        <v>223</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>224</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
@@ -3026,26 +3379,26 @@
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
-        <v>192</v>
+        <v>225</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>193</v>
+        <v>226</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>156</v>
+        <v>183</v>
       </c>
       <c r="D16" s="5">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="E16" s="4">
-        <f t="shared" si="2"/>
-        <v>7</v>
+        <f t="shared" ref="E16:E17" si="3">D16*2</f>
+        <v>7.5</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>194</v>
+        <v>227</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>195</v>
+        <v>228</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
@@ -3068,26 +3421,26 @@
     </row>
     <row r="17">
       <c r="A17" s="5" t="s">
-        <v>196</v>
+        <v>229</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>198</v>
+        <v>169</v>
       </c>
       <c r="D17" s="5">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="E17" s="4">
-        <f t="shared" si="2"/>
-        <v>7</v>
+        <f t="shared" si="3"/>
+        <v>7.5</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>199</v>
+        <v>230</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>200</v>
+        <v>231</v>
       </c>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
@@ -3110,26 +3463,26 @@
     </row>
     <row r="18">
       <c r="A18" s="5" t="s">
-        <v>201</v>
+        <v>232</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>151</v>
+        <v>183</v>
       </c>
       <c r="D18" s="5">
         <v>3.5</v>
       </c>
       <c r="E18" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="E18:E48" si="4">D18*2</f>
         <v>7</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>162</v>
+        <v>234</v>
       </c>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
@@ -3152,26 +3505,26 @@
     </row>
     <row r="19">
       <c r="A19" s="5" t="s">
-        <v>203</v>
+        <v>235</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>204</v>
+        <v>236</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>138</v>
+        <v>188</v>
       </c>
       <c r="D19" s="5">
         <v>3.5</v>
       </c>
       <c r="E19" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>74</v>
+        <v>237</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>238</v>
       </c>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
@@ -3194,26 +3547,26 @@
     </row>
     <row r="20">
       <c r="A20" s="5" t="s">
-        <v>206</v>
+        <v>239</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>207</v>
+        <v>236</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>151</v>
+        <v>183</v>
       </c>
       <c r="D20" s="5">
         <v>3.5</v>
       </c>
       <c r="E20" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>209</v>
+        <v>240</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>194</v>
       </c>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
@@ -3236,26 +3589,26 @@
     </row>
     <row r="21">
       <c r="A21" s="5" t="s">
-        <v>210</v>
+        <v>241</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>211</v>
+        <v>242</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>212</v>
+        <v>169</v>
       </c>
       <c r="D21" s="5">
         <v>3.5</v>
       </c>
       <c r="E21" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>213</v>
+        <v>243</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
@@ -3278,26 +3631,26 @@
     </row>
     <row r="22">
       <c r="A22" s="5" t="s">
-        <v>214</v>
+        <v>244</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>151</v>
+        <v>183</v>
       </c>
       <c r="D22" s="5">
         <v>3.5</v>
       </c>
       <c r="E22" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>215</v>
+        <v>245</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>216</v>
+        <v>246</v>
       </c>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
@@ -3320,26 +3673,26 @@
     </row>
     <row r="23">
       <c r="A23" s="5" t="s">
-        <v>217</v>
+        <v>247</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>218</v>
+        <v>248</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>138</v>
+        <v>249</v>
       </c>
       <c r="D23" s="5">
         <v>3.5</v>
       </c>
       <c r="E23" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>219</v>
+        <v>250</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>220</v>
+        <v>117</v>
       </c>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
@@ -3362,26 +3715,26 @@
     </row>
     <row r="24">
       <c r="A24" s="5" t="s">
-        <v>221</v>
+        <v>251</v>
       </c>
       <c r="B24" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>183</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>156</v>
       </c>
       <c r="D24" s="5">
         <v>3.5</v>
       </c>
       <c r="E24" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>222</v>
+        <v>252</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
@@ -3404,26 +3757,26 @@
     </row>
     <row r="25">
       <c r="A25" s="5" t="s">
-        <v>224</v>
+        <v>254</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>183</v>
+        <v>255</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>138</v>
+        <v>169</v>
       </c>
       <c r="D25" s="5">
         <v>3.5</v>
       </c>
       <c r="E25" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>225</v>
+        <v>256</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>226</v>
+        <v>257</v>
       </c>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
@@ -3446,26 +3799,26 @@
     </row>
     <row r="26">
       <c r="A26" s="5" t="s">
-        <v>227</v>
+        <v>258</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>151</v>
+        <v>188</v>
       </c>
       <c r="D26" s="5">
         <v>3.5</v>
       </c>
       <c r="E26" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
@@ -3488,26 +3841,26 @@
     </row>
     <row r="27">
       <c r="A27" s="5" t="s">
-        <v>231</v>
+        <v>261</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>138</v>
+        <v>169</v>
       </c>
       <c r="D27" s="5">
         <v>3.5</v>
       </c>
       <c r="E27" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>234</v>
+        <v>263</v>
       </c>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
@@ -3530,26 +3883,26 @@
     </row>
     <row r="28">
       <c r="A28" s="5" t="s">
-        <v>235</v>
+        <v>264</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>151</v>
+        <v>183</v>
       </c>
       <c r="D28" s="5">
         <v>3.5</v>
       </c>
       <c r="E28" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>237</v>
+        <v>266</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>238</v>
+        <v>267</v>
       </c>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
@@ -3572,26 +3925,26 @@
     </row>
     <row r="29">
       <c r="A29" s="5" t="s">
-        <v>239</v>
+        <v>268</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>240</v>
+        <v>269</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="D29" s="5">
         <v>3.5</v>
       </c>
       <c r="E29" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>241</v>
+        <v>270</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>242</v>
+        <v>271</v>
       </c>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
@@ -3614,26 +3967,26 @@
     </row>
     <row r="30">
       <c r="A30" s="5" t="s">
-        <v>243</v>
+        <v>272</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>244</v>
+        <v>273</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>151</v>
+        <v>183</v>
       </c>
       <c r="D30" s="5">
         <v>3.5</v>
       </c>
       <c r="E30" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>245</v>
+        <v>274</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>246</v>
+        <v>275</v>
       </c>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
@@ -3656,26 +4009,26 @@
     </row>
     <row r="31">
       <c r="A31" s="5" t="s">
-        <v>247</v>
+        <v>276</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>168</v>
+        <v>277</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>151</v>
+        <v>188</v>
       </c>
       <c r="D31" s="5">
         <v>3.5</v>
       </c>
       <c r="E31" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>248</v>
+        <v>278</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>249</v>
+        <v>279</v>
       </c>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
@@ -3698,26 +4051,26 @@
     </row>
     <row r="32">
       <c r="A32" s="5" t="s">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>175</v>
+        <v>281</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="D32" s="5">
         <v>3.5</v>
       </c>
       <c r="E32" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>251</v>
+        <v>282</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>252</v>
+        <v>283</v>
       </c>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
@@ -3740,26 +4093,26 @@
     </row>
     <row r="33">
       <c r="A33" s="5" t="s">
-        <v>253</v>
+        <v>284</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>254</v>
+        <v>200</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>255</v>
+        <v>183</v>
       </c>
       <c r="D33" s="5">
         <v>3.5</v>
       </c>
       <c r="E33" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>256</v>
+        <v>285</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>257</v>
+        <v>286</v>
       </c>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
@@ -3781,27 +4134,27 @@
       <c r="Z33" s="4"/>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D34" s="1">
+      <c r="A34" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="D34" s="5">
         <v>3.5</v>
       </c>
       <c r="E34" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>260</v>
+      <c r="F34" s="5" t="s">
+        <v>289</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>261</v>
+        <v>290</v>
       </c>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
@@ -3823,27 +4176,27 @@
       <c r="Z34" s="4"/>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D35" s="1">
+      <c r="A35" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="D35" s="5">
         <v>3.5</v>
       </c>
       <c r="E35" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>263</v>
+      <c r="F35" s="5" t="s">
+        <v>294</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
@@ -3866,26 +4219,26 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>265</v>
+        <v>296</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>207</v>
+        <v>297</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>151</v>
+        <v>188</v>
       </c>
       <c r="D36" s="1">
         <v>3.5</v>
       </c>
       <c r="E36" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>266</v>
+        <v>298</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>267</v>
+        <v>299</v>
       </c>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
@@ -3907,27 +4260,27 @@
       <c r="Z36" s="4"/>
     </row>
     <row r="37">
-      <c r="A37" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="D37" s="5">
+      <c r="A37" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D37" s="1">
         <v>3.5</v>
       </c>
       <c r="E37" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="F37" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>270</v>
+      <c r="F37" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>302</v>
       </c>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
@@ -3949,27 +4302,27 @@
       <c r="Z37" s="4"/>
     </row>
     <row r="38">
-      <c r="A38" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="D38" s="5">
+      <c r="A38" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D38" s="1">
         <v>3.5</v>
       </c>
       <c r="E38" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="F38" s="5" t="s">
-        <v>272</v>
+      <c r="F38" s="1" t="s">
+        <v>304</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>273</v>
+        <v>305</v>
       </c>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
@@ -3992,26 +4345,26 @@
     </row>
     <row r="39">
       <c r="A39" s="5" t="s">
-        <v>274</v>
+        <v>306</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>275</v>
+        <v>242</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>138</v>
+        <v>169</v>
       </c>
       <c r="D39" s="5">
         <v>3.5</v>
       </c>
       <c r="E39" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>277</v>
+        <v>307</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>308</v>
       </c>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
@@ -4034,26 +4387,26 @@
     </row>
     <row r="40">
       <c r="A40" s="5" t="s">
-        <v>278</v>
+        <v>309</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="D40" s="5">
         <v>3.5</v>
       </c>
       <c r="E40" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>279</v>
+        <v>310</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>280</v>
+        <v>311</v>
       </c>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
@@ -4076,26 +4429,26 @@
     </row>
     <row r="41">
       <c r="A41" s="5" t="s">
-        <v>281</v>
+        <v>312</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>183</v>
+        <v>313</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="D41" s="5">
         <v>3.5</v>
       </c>
       <c r="E41" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>282</v>
+        <v>314</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>283</v>
+        <v>315</v>
       </c>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
@@ -4118,26 +4471,26 @@
     </row>
     <row r="42">
       <c r="A42" s="5" t="s">
-        <v>284</v>
+        <v>316</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>285</v>
+        <v>215</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>138</v>
+        <v>183</v>
       </c>
       <c r="D42" s="5">
         <v>3.5</v>
       </c>
       <c r="E42" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>287</v>
+        <v>317</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>318</v>
       </c>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
@@ -4160,26 +4513,26 @@
     </row>
     <row r="43">
       <c r="A43" s="5" t="s">
-        <v>288</v>
+        <v>319</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>289</v>
+        <v>215</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>290</v>
+        <v>183</v>
       </c>
       <c r="D43" s="5">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="E43" s="4">
-        <f t="shared" si="2"/>
-        <v>6.5</v>
+        <f t="shared" si="4"/>
+        <v>7</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>291</v>
+        <v>320</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>292</v>
+        <v>321</v>
       </c>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
@@ -4202,26 +4555,26 @@
     </row>
     <row r="44">
       <c r="A44" s="5" t="s">
-        <v>293</v>
+        <v>322</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>294</v>
+        <v>323</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>295</v>
+        <v>169</v>
       </c>
       <c r="D44" s="5">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="E44" s="4">
-        <f t="shared" si="2"/>
-        <v>6.5</v>
+        <f t="shared" si="4"/>
+        <v>7</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>121</v>
+        <v>324</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>325</v>
       </c>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
@@ -4243,99 +4596,99 @@
       <c r="Z44" s="4"/>
     </row>
     <row r="45">
-      <c r="A45" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="D45" s="5">
-        <v>3.25</v>
+      <c r="A45" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D45" s="1">
+        <v>3.5</v>
       </c>
       <c r="E45" s="4">
-        <f>D45*2</f>
-        <v>6.5</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="G45" s="5" t="s">
-        <v>299</v>
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="5" t="s">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>183</v>
+        <v>331</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>151</v>
+        <v>288</v>
       </c>
       <c r="D46" s="5">
         <v>3.25</v>
       </c>
       <c r="E46" s="4">
-        <f t="shared" ref="E46:E61" si="3">D46*2</f>
+        <f t="shared" si="4"/>
         <v>6.5</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>301</v>
+        <v>332</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>302</v>
+        <v>333</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="5" t="s">
-        <v>303</v>
+        <v>334</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>212</v>
+        <v>336</v>
       </c>
       <c r="D47" s="5">
         <v>3.25</v>
       </c>
       <c r="E47" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.5</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>305</v>
+        <v>337</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>306</v>
+        <v>338</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="5" t="s">
-        <v>307</v>
+        <v>339</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>207</v>
+        <v>340</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>212</v>
+        <v>341</v>
       </c>
       <c r="D48" s="5">
         <v>3.25</v>
       </c>
       <c r="E48" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.5</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>308</v>
+        <v>342</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>309</v>
+        <v>117</v>
       </c>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
@@ -4358,26 +4711,26 @@
     </row>
     <row r="49">
       <c r="A49" s="5" t="s">
-        <v>310</v>
+        <v>343</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>311</v>
+        <v>196</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="D49" s="5">
-        <v>3.0</v>
+        <v>3.25</v>
       </c>
       <c r="E49" s="4">
-        <f t="shared" si="3"/>
-        <v>6</v>
+        <f>D49*2</f>
+        <v>6.5</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>313</v>
+        <v>344</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>345</v>
       </c>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
@@ -4400,23 +4753,26 @@
     </row>
     <row r="50">
       <c r="A50" s="5" t="s">
-        <v>314</v>
+        <v>346</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>315</v>
+        <v>215</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>156</v>
+        <v>183</v>
       </c>
       <c r="D50" s="5">
-        <v>3.0</v>
+        <v>3.25</v>
       </c>
       <c r="E50" s="4">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>316</v>
+        <f t="shared" ref="E50:E69" si="5">D50*2</f>
+        <v>6.5</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>348</v>
       </c>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
@@ -4439,26 +4795,26 @@
     </row>
     <row r="51">
       <c r="A51" s="5" t="s">
-        <v>317</v>
+        <v>349</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>240</v>
+        <v>350</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>156</v>
+        <v>249</v>
       </c>
       <c r="D51" s="5">
-        <v>3.0</v>
+        <v>3.25</v>
       </c>
       <c r="E51" s="4">
-        <f t="shared" si="3"/>
-        <v>6</v>
+        <f t="shared" si="5"/>
+        <v>6.5</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>318</v>
+        <v>351</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>319</v>
+        <v>352</v>
       </c>
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
@@ -4481,26 +4837,26 @@
     </row>
     <row r="52">
       <c r="A52" s="5" t="s">
-        <v>320</v>
+        <v>353</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>183</v>
+        <v>226</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>138</v>
+        <v>249</v>
       </c>
       <c r="D52" s="5">
-        <v>3.0</v>
+        <v>3.25</v>
       </c>
       <c r="E52" s="4">
-        <f t="shared" si="3"/>
-        <v>6</v>
+        <f t="shared" si="5"/>
+        <v>6.5</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>321</v>
+        <v>354</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>322</v>
+        <v>355</v>
       </c>
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
@@ -4522,27 +4878,27 @@
       <c r="Z52" s="4"/>
     </row>
     <row r="53">
-      <c r="A53" s="5" t="s">
+      <c r="A53" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B53" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>324</v>
-      </c>
       <c r="C53" s="5" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="D53" s="5">
-        <v>3.0</v>
+        <v>3.25</v>
       </c>
       <c r="E53" s="4">
-        <f t="shared" si="3"/>
-        <v>6</v>
+        <f t="shared" si="5"/>
+        <v>6.5</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>325</v>
+        <v>357</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>324</v>
+        <v>358</v>
       </c>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
@@ -4565,26 +4921,26 @@
     </row>
     <row r="54">
       <c r="A54" s="5" t="s">
-        <v>326</v>
+        <v>359</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>327</v>
+        <v>277</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>212</v>
+        <v>183</v>
       </c>
       <c r="D54" s="5">
-        <v>3.0</v>
+        <v>3.25</v>
       </c>
       <c r="E54" s="4">
-        <f t="shared" si="3"/>
-        <v>6</v>
+        <f t="shared" si="5"/>
+        <v>6.5</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>328</v>
+        <v>360</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>329</v>
+        <v>361</v>
       </c>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
@@ -4607,26 +4963,26 @@
     </row>
     <row r="55">
       <c r="A55" s="5" t="s">
-        <v>330</v>
+        <v>362</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>183</v>
+        <v>363</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>156</v>
+        <v>293</v>
       </c>
       <c r="D55" s="5">
-        <v>3.0</v>
+        <v>3.25</v>
       </c>
       <c r="E55" s="4">
-        <f t="shared" si="3"/>
-        <v>6</v>
+        <f t="shared" si="5"/>
+        <v>6.5</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>332</v>
+        <v>364</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>365</v>
       </c>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
@@ -4649,26 +5005,26 @@
     </row>
     <row r="56">
       <c r="A56" s="5" t="s">
-        <v>333</v>
+        <v>366</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>168</v>
+        <v>367</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="D56" s="5">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="E56" s="4">
-        <f t="shared" si="3"/>
-        <v>5</v>
+        <f t="shared" si="5"/>
+        <v>6.5</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>334</v>
+        <v>368</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>162</v>
+        <v>352</v>
       </c>
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
@@ -4691,26 +5047,26 @@
     </row>
     <row r="57">
       <c r="A57" s="5" t="s">
-        <v>335</v>
+        <v>369</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>183</v>
+        <v>370</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>138</v>
+        <v>188</v>
       </c>
       <c r="D57" s="5">
-        <v>2.5</v>
+        <v>3.0</v>
       </c>
       <c r="E57" s="4">
-        <f t="shared" si="3"/>
-        <v>5</v>
+        <f t="shared" si="5"/>
+        <v>6</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="G57" s="5" t="s">
-        <v>337</v>
+        <v>371</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>372</v>
       </c>
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
@@ -4733,26 +5089,23 @@
     </row>
     <row r="58">
       <c r="A58" s="5" t="s">
-        <v>338</v>
+        <v>373</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>240</v>
+        <v>374</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>255</v>
+        <v>188</v>
       </c>
       <c r="D58" s="5">
-        <v>2.5</v>
+        <v>3.0</v>
       </c>
       <c r="E58" s="4">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="F58" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="G58" s="5" t="s">
-        <v>162</v>
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>375</v>
       </c>
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
@@ -4775,26 +5128,26 @@
     </row>
     <row r="59">
       <c r="A59" s="5" t="s">
-        <v>340</v>
+        <v>376</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>341</v>
+        <v>277</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>151</v>
+        <v>188</v>
       </c>
       <c r="D59" s="5">
-        <v>1.5</v>
+        <v>3.0</v>
       </c>
       <c r="E59" s="4">
-        <f t="shared" si="3"/>
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>6</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="G59" s="5" t="s">
-        <v>343</v>
+        <v>377</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>378</v>
       </c>
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
@@ -4817,26 +5170,26 @@
     </row>
     <row r="60">
       <c r="A60" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>345</v>
+        <v>379</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>215</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="D60" s="5">
-        <v>0.5</v>
+        <v>3.0</v>
       </c>
       <c r="E60" s="4">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>6</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>346</v>
+        <v>380</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>347</v>
+        <v>381</v>
       </c>
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
@@ -4859,26 +5212,26 @@
     </row>
     <row r="61">
       <c r="A61" s="5" t="s">
-        <v>348</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>183</v>
+        <v>382</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>383</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>151</v>
+        <v>188</v>
       </c>
       <c r="D61" s="5">
-        <v>0.5</v>
+        <v>3.0</v>
       </c>
       <c r="E61" s="4">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>6</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>349</v>
+        <v>384</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>350</v>
+        <v>383</v>
       </c>
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
@@ -4900,13 +5253,28 @@
       <c r="Z61" s="4"/>
     </row>
     <row r="62">
-      <c r="A62" s="4"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="4"/>
+      <c r="A62" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="D62" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E62" s="4">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>388</v>
+      </c>
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
       <c r="K62" s="4"/>
@@ -4927,13 +5295,28 @@
       <c r="Z62" s="4"/>
     </row>
     <row r="63">
-      <c r="A63" s="4"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
+      <c r="A63" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D63" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="E63" s="4">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>391</v>
+      </c>
       <c r="I63" s="4"/>
       <c r="J63" s="4"/>
       <c r="K63" s="4"/>
@@ -4954,13 +5337,28 @@
       <c r="Z63" s="4"/>
     </row>
     <row r="64">
-      <c r="A64" s="4"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
-      <c r="F64" s="4"/>
-      <c r="G64" s="4"/>
+      <c r="A64" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D64" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="E64" s="4">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>194</v>
+      </c>
       <c r="I64" s="4"/>
       <c r="J64" s="4"/>
       <c r="K64" s="4"/>
@@ -4981,13 +5379,28 @@
       <c r="Z64" s="4"/>
     </row>
     <row r="65">
-      <c r="A65" s="4"/>
-      <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="4"/>
-      <c r="F65" s="4"/>
-      <c r="G65" s="4"/>
+      <c r="A65" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D65" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="E65" s="4">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>396</v>
+      </c>
       <c r="I65" s="4"/>
       <c r="J65" s="4"/>
       <c r="K65" s="4"/>
@@ -5008,13 +5421,28 @@
       <c r="Z65" s="4"/>
     </row>
     <row r="66">
-      <c r="A66" s="4"/>
-      <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="4"/>
-      <c r="F66" s="4"/>
-      <c r="G66" s="4"/>
+      <c r="A66" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="D66" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="E66" s="4">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>194</v>
+      </c>
       <c r="I66" s="4"/>
       <c r="J66" s="4"/>
       <c r="K66" s="4"/>
@@ -5035,13 +5463,28 @@
       <c r="Z66" s="4"/>
     </row>
     <row r="67">
-      <c r="A67" s="4"/>
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
-      <c r="E67" s="4"/>
-      <c r="F67" s="4"/>
-      <c r="G67" s="4"/>
+      <c r="A67" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D67" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="E67" s="4">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>402</v>
+      </c>
       <c r="I67" s="4"/>
       <c r="J67" s="4"/>
       <c r="K67" s="4"/>
@@ -5062,13 +5505,28 @@
       <c r="Z67" s="4"/>
     </row>
     <row r="68">
-      <c r="A68" s="4"/>
-      <c r="B68" s="4"/>
-      <c r="C68" s="4"/>
-      <c r="D68" s="4"/>
-      <c r="E68" s="4"/>
-      <c r="F68" s="4"/>
-      <c r="G68" s="4"/>
+      <c r="A68" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D68" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E68" s="4">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>352</v>
+      </c>
       <c r="I68" s="4"/>
       <c r="J68" s="4"/>
       <c r="K68" s="4"/>
@@ -5089,31 +5547,28 @@
       <c r="Z68" s="4"/>
     </row>
     <row r="69">
-      <c r="A69" s="4"/>
-      <c r="B69" s="4"/>
-      <c r="C69" s="4"/>
-      <c r="D69" s="4"/>
-      <c r="E69" s="4"/>
-      <c r="F69" s="4"/>
-      <c r="G69" s="4"/>
-      <c r="I69" s="4"/>
-      <c r="J69" s="4"/>
-      <c r="K69" s="4"/>
-      <c r="L69" s="4"/>
-      <c r="M69" s="4"/>
-      <c r="N69" s="4"/>
-      <c r="O69" s="4"/>
-      <c r="P69" s="4"/>
-      <c r="Q69" s="4"/>
-      <c r="R69" s="4"/>
-      <c r="S69" s="4"/>
-      <c r="T69" s="4"/>
-      <c r="U69" s="4"/>
-      <c r="V69" s="4"/>
-      <c r="W69" s="4"/>
-      <c r="X69" s="4"/>
-      <c r="Y69" s="4"/>
-      <c r="Z69" s="4"/>
+      <c r="A69" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D69" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="E69" s="4">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>408</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="4"/>
@@ -30280,19 +30735,19 @@
         <v>8</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>131</v>
+        <v>162</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>132</v>
+        <v>163</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>133</v>
+        <v>164</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>10</v>
@@ -30318,26 +30773,26 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>351</v>
+        <v>409</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>352</v>
+        <v>410</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="D2" s="5">
         <v>4.0</v>
       </c>
       <c r="E2" s="4">
-        <f t="shared" ref="E2:E12" si="1">D2*2</f>
+        <f t="shared" ref="E2:E13" si="1">D2*2</f>
         <v>8</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>353</v>
+        <v>411</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>319</v>
+        <v>378</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
@@ -30360,13 +30815,13 @@
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
-        <v>354</v>
+        <v>412</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>355</v>
+        <v>413</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>198</v>
+        <v>288</v>
       </c>
       <c r="D3" s="5">
         <v>4.0</v>
@@ -30376,10 +30831,10 @@
         <v>8</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>356</v>
+        <v>414</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>357</v>
+        <v>415</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
@@ -30402,13 +30857,13 @@
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
-        <v>358</v>
+        <v>416</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>359</v>
+        <v>417</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>138</v>
+        <v>169</v>
       </c>
       <c r="D4" s="1">
         <v>4.0</v>
@@ -30418,10 +30873,10 @@
         <v>8</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>360</v>
+        <v>418</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>361</v>
+        <v>419</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
@@ -30444,13 +30899,13 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>362</v>
+        <v>420</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>363</v>
+        <v>421</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="D5" s="1">
         <v>4.0</v>
@@ -30460,69 +30915,69 @@
         <v>8</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>364</v>
+        <v>422</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>365</v>
+        <v>423</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>352</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="D6" s="5">
+      <c r="A6" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D6" s="1">
         <v>3.5</v>
       </c>
       <c r="E6" s="4">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>367</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>368</v>
+      <c r="F6" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D7" s="1">
-        <v>3.0</v>
+        <v>426</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="D7" s="5">
+        <v>3.5</v>
       </c>
       <c r="E7" s="4">
         <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>370</v>
+        <v>7</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>427</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>371</v>
+        <v>428</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>372</v>
+      <c r="A8" s="5" t="s">
+        <v>429</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>355</v>
+        <v>417</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>151</v>
+        <v>188</v>
       </c>
       <c r="D8" s="1">
         <v>3.0</v>
@@ -30532,111 +30987,136 @@
         <v>6</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>373</v>
+        <v>430</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>374</v>
+        <v>431</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="s">
-        <v>375</v>
+      <c r="A9" s="1" t="s">
+        <v>432</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>359</v>
+        <v>413</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>138</v>
+        <v>183</v>
       </c>
       <c r="D9" s="1">
-        <v>2.5</v>
+        <v>3.0</v>
       </c>
       <c r="E9" s="4">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>162</v>
+        <v>433</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="s">
-        <v>377</v>
+      <c r="A10" s="1" t="s">
+        <v>435</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>378</v>
+        <v>413</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="D10" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E10" s="4">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>162</v>
+        <v>436</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
-        <v>380</v>
+      <c r="A11" s="5" t="s">
+        <v>438</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>355</v>
+        <v>417</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="D11" s="1">
-        <v>2.0</v>
+        <v>2.5</v>
       </c>
       <c r="E11" s="4">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>381</v>
+        <v>439</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>162</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
-        <v>382</v>
+      <c r="A12" s="5" t="s">
+        <v>440</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>355</v>
+        <v>441</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="D12" s="1">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="E12" s="4">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>384</v>
+        <v>442</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="E13" s="4">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>194</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="$A$1:$G$1000">
     <sortState ref="A1:G1000">
+      <sortCondition descending="1" ref="D1:D1000"/>
       <sortCondition descending="1" ref="E1:E1000"/>
     </sortState>
   </autoFilter>
@@ -30662,19 +31142,19 @@
         <v>8</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>131</v>
+        <v>162</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>132</v>
+        <v>163</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>133</v>
+        <v>164</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>10</v>
@@ -30700,13 +31180,13 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>385</v>
+        <v>445</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>386</v>
+        <v>446</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>138</v>
+        <v>169</v>
       </c>
       <c r="D2" s="1">
         <v>4.5</v>
@@ -30716,21 +31196,21 @@
         <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>387</v>
+        <v>447</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>388</v>
+        <v>448</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>389</v>
+        <v>449</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>390</v>
+        <v>160</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>151</v>
+        <v>183</v>
       </c>
       <c r="D3" s="1">
         <v>4.0</v>
@@ -30740,21 +31220,21 @@
         <v>8</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>391</v>
+        <v>450</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>392</v>
+        <v>451</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>393</v>
+        <v>452</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>390</v>
+        <v>160</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>156</v>
+        <v>188</v>
       </c>
       <c r="D4" s="1">
         <v>4.0</v>
@@ -30764,21 +31244,21 @@
         <v>8</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>394</v>
+        <v>453</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>395</v>
+        <v>454</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>396</v>
+        <v>455</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>397</v>
+        <v>456</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>398</v>
+        <v>457</v>
       </c>
       <c r="D5" s="1">
         <v>4.0</v>
@@ -30788,7 +31268,7 @@
         <v>8</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>399</v>
+        <v>458</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>74</v>
@@ -30796,13 +31276,13 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>400</v>
+        <v>459</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>386</v>
+        <v>446</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>398</v>
+        <v>457</v>
       </c>
       <c r="D6" s="1">
         <v>4.0</v>
@@ -30812,15 +31292,15 @@
         <v>8</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>401</v>
+        <v>460</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>402</v>
+        <v>461</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>386</v>
+        <v>446</v>
       </c>
       <c r="D7" s="1">
         <v>4.0</v>
@@ -30830,15 +31310,15 @@
         <v>8</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>403</v>
+        <v>462</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>404</v>
+        <v>463</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>386</v>
+        <v>446</v>
       </c>
       <c r="D8" s="1">
         <v>4.0</v>
@@ -30848,18 +31328,18 @@
         <v>8</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>405</v>
+        <v>464</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>406</v>
+        <v>465</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>386</v>
+        <v>446</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>398</v>
+        <v>457</v>
       </c>
       <c r="D9" s="1">
         <v>4.0</v>
@@ -30869,18 +31349,18 @@
         <v>8</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>407</v>
+        <v>466</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>408</v>
+        <v>467</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>386</v>
+        <v>446</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>398</v>
+        <v>457</v>
       </c>
       <c r="D10" s="1">
         <v>3.5</v>
@@ -30890,18 +31370,18 @@
         <v>7</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>409</v>
+        <v>468</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>410</v>
+        <v>469</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>390</v>
+        <v>160</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>151</v>
+        <v>183</v>
       </c>
       <c r="D11" s="1">
         <v>3.5</v>
@@ -30911,7 +31391,7 @@
         <v>7</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>411</v>
+        <v>470</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>58</v>
@@ -30919,13 +31399,13 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>412</v>
+        <v>471</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>413</v>
+        <v>472</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>138</v>
+        <v>169</v>
       </c>
       <c r="D12" s="1">
         <v>3.5</v>
@@ -30935,12 +31415,13 @@
         <v>7</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>414</v>
+        <v>473</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="$A$1:$G$1000">
     <sortState ref="A1:G1000">
+      <sortCondition descending="1" ref="D1:D1000"/>
       <sortCondition descending="1" ref="E1:E1000"/>
     </sortState>
   </autoFilter>
@@ -30967,13 +31448,13 @@
         <v>8</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>133</v>
+        <v>164</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>10</v>
@@ -30981,25 +31462,25 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>415</v>
+        <v>474</v>
       </c>
       <c r="B2" s="1">
         <v>4.5</v>
       </c>
       <c r="C2" s="6">
-        <f t="shared" ref="C2:C17" si="1">B2*2</f>
+        <f t="shared" ref="C2:C18" si="1">B2*2</f>
         <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>416</v>
+        <v>475</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>417</v>
+        <v>476</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>418</v>
+        <v>477</v>
       </c>
       <c r="B3" s="1">
         <v>4.0</v>
@@ -31009,7 +31490,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>419</v>
+        <v>478</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>30</v>
@@ -31017,7 +31498,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>420</v>
+        <v>479</v>
       </c>
       <c r="B4" s="1">
         <v>4.0</v>
@@ -31027,15 +31508,15 @@
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>421</v>
+        <v>480</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>422</v>
+        <v>481</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>423</v>
+        <v>482</v>
       </c>
       <c r="B5" s="1">
         <v>4.0</v>
@@ -31045,15 +31526,15 @@
         <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>424</v>
+        <v>483</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>425</v>
+        <v>484</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>426</v>
+        <v>485</v>
       </c>
       <c r="B6" s="1">
         <v>4.0</v>
@@ -31063,15 +31544,15 @@
         <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>427</v>
+        <v>486</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>428</v>
+        <v>487</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>429</v>
+        <v>488</v>
       </c>
       <c r="B7" s="1">
         <v>4.0</v>
@@ -31081,15 +31562,15 @@
         <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>430</v>
+        <v>489</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>431</v>
+        <v>490</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>432</v>
+        <v>491</v>
       </c>
       <c r="B8" s="1">
         <v>4.0</v>
@@ -31099,15 +31580,15 @@
         <v>8</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>433</v>
+        <v>492</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>434</v>
+        <v>493</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>435</v>
+        <v>494</v>
       </c>
       <c r="B9" s="1">
         <v>4.0</v>
@@ -31117,15 +31598,15 @@
         <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>436</v>
+        <v>495</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>437</v>
+        <v>496</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>438</v>
+        <v>497</v>
       </c>
       <c r="B10" s="1">
         <v>4.0</v>
@@ -31135,15 +31616,15 @@
         <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>439</v>
+        <v>498</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>440</v>
+        <v>499</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>441</v>
+        <v>500</v>
       </c>
       <c r="B11" s="1">
         <v>4.0</v>
@@ -31153,69 +31634,69 @@
         <v>8</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>442</v>
+        <v>501</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>283</v>
+        <v>321</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>443</v>
+        <v>502</v>
       </c>
       <c r="B12" s="1">
-        <v>3.75</v>
+        <v>4.0</v>
       </c>
       <c r="C12" s="6">
         <f t="shared" si="1"/>
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>444</v>
+        <v>503</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>302</v>
+        <v>504</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>445</v>
+        <v>505</v>
       </c>
       <c r="B13" s="1">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="C13" s="6">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>446</v>
+        <v>506</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>447</v>
+        <v>348</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>448</v>
+        <v>507</v>
       </c>
       <c r="B14" s="1">
-        <v>3.0</v>
+        <v>3.5</v>
       </c>
       <c r="C14" s="6">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>449</v>
+        <v>508</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>450</v>
+        <v>509</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>451</v>
+        <v>510</v>
       </c>
       <c r="B15" s="1">
         <v>3.0</v>
@@ -31225,51 +31706,70 @@
         <v>6</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>452</v>
+        <v>511</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>226</v>
+        <v>512</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>453</v>
+        <v>513</v>
       </c>
       <c r="B16" s="1">
-        <v>2.5</v>
+        <v>3.0</v>
       </c>
       <c r="C16" s="6">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>454</v>
+        <v>514</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>455</v>
+        <v>263</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>456</v>
+        <v>515</v>
       </c>
       <c r="B17" s="1">
-        <v>4.0</v>
+        <v>2.5</v>
       </c>
       <c r="C17" s="6">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>457</v>
+        <v>516</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>458</v>
+        <v>517</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="C18" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>520</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="$A$1:$E$1000">
     <sortState ref="A1:E1000">
+      <sortCondition descending="1" ref="B1:B1000"/>
       <sortCondition descending="1" ref="C1:C1000"/>
     </sortState>
   </autoFilter>
